--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="177" documentId="8_{3C60B927-0EE2-4B7C-9027-A4F1E1D2035A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{31341933-BF81-4C2D-8620-CFF15EB085A6}"/>
+  <xr:revisionPtr revIDLastSave="184" documentId="8_{3C60B927-0EE2-4B7C-9027-A4F1E1D2035A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{4F455851-989D-4C43-B11F-5840D2A44FB0}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12030" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="100">
   <si>
     <t>type</t>
   </si>
@@ -319,6 +319,12 @@
   </si>
   <si>
     <t>Sep 2011</t>
+  </si>
+  <si>
+    <t>reviewer</t>
+  </si>
+  <si>
+    <t>International Migration Review</t>
   </si>
 </sst>
 </file>
@@ -698,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1349,6 +1355,15 @@
       <c r="E36" s="3" t="s">
         <v>34</v>
       </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="184" documentId="8_{3C60B927-0EE2-4B7C-9027-A4F1E1D2035A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{4F455851-989D-4C43-B11F-5840D2A44FB0}"/>
+  <xr:revisionPtr revIDLastSave="207" documentId="8_{3C60B927-0EE2-4B7C-9027-A4F1E1D2035A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{78FD26B3-F5D7-4188-BABF-A136C943C057}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="103">
   <si>
     <t>type</t>
   </si>
@@ -225,15 +225,6 @@
     <t>service</t>
   </si>
   <si>
-    <t>President</t>
-  </si>
-  <si>
-    <t>UW Sociology Graduate Student Association</t>
-  </si>
-  <si>
-    <t>Representative to CS&amp;SS</t>
-  </si>
-  <si>
     <t>Associate Student Editor</t>
   </si>
   <si>
@@ -325,6 +316,24 @@
   </si>
   <si>
     <t>International Migration Review</t>
+  </si>
+  <si>
+    <t>Graduate Student Assoc. President</t>
+  </si>
+  <si>
+    <t>Graduate Student Assoc. Representative to CS&amp;SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talk </t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>Disorder and Social Control: Experimental Evidence on Prosocial and Antisocial Behavior</t>
+  </si>
+  <si>
+    <t>Faculty Search Committee</t>
   </si>
 </sst>
 </file>
@@ -704,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,7 +771,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -862,7 +871,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -871,13 +880,13 @@
         <v>2016</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
         <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>28</v>
@@ -885,7 +894,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -897,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>29</v>
@@ -936,10 +945,10 @@
         <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E12" t="s">
         <v>27</v>
@@ -1200,7 +1209,7 @@
         <v>43512</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1208,7 +1217,7 @@
         <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="C28" s="5">
         <v>2018</v>
@@ -1216,8 +1225,8 @@
       <c r="D28" s="5">
         <v>2019</v>
       </c>
-      <c r="E28" t="s">
-        <v>67</v>
+      <c r="E28" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1225,7 +1234,7 @@
         <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="C29" s="5">
         <v>2015</v>
@@ -1233,8 +1242,8 @@
       <c r="D29" s="5">
         <v>2018</v>
       </c>
-      <c r="E29" t="s">
-        <v>67</v>
+      <c r="E29" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1242,7 +1251,7 @@
         <v>65</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C30" s="5">
         <v>2016</v>
@@ -1251,21 +1260,21 @@
         <v>2017</v>
       </c>
       <c r="E30" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="E31" t="s">
         <v>27</v>
@@ -1273,97 +1282,128 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>78</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="E34" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="5" t="s">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>78</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>97</v>
-      </c>
       <c r="D36" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>99</v>
       </c>
-      <c r="E37" s="3"/>
+      <c r="B39" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G39" s="1">
+        <v>43783</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="207" documentId="8_{3C60B927-0EE2-4B7C-9027-A4F1E1D2035A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{78FD26B3-F5D7-4188-BABF-A136C943C057}"/>
+  <xr:revisionPtr revIDLastSave="213" documentId="8_{3C60B927-0EE2-4B7C-9027-A4F1E1D2035A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E5FCC771-9DC8-43F9-AF09-9B8C8DDA7E58}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="105">
   <si>
     <t>type</t>
   </si>
@@ -334,6 +334,12 @@
   </si>
   <si>
     <t>Faculty Search Committee</t>
+  </si>
+  <si>
+    <t>Exposure to R (Full Day Workshop)</t>
+  </si>
+  <si>
+    <t>https://clanfear.github.io/r_exposure_workshop/</t>
   </si>
 </sst>
 </file>
@@ -713,20 +719,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="44.85546875" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="5"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.83984375" customWidth="1"/>
+    <col min="3" max="4" width="9.15625" style="5"/>
+    <col min="7" max="7" width="10.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -752,7 +758,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -769,7 +775,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -789,7 +795,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -809,7 +815,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -829,7 +835,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -849,7 +855,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -869,7 +875,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -892,7 +898,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -912,7 +918,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -926,7 +932,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -940,7 +946,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -954,7 +960,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -971,7 +977,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -988,7 +994,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1005,7 +1011,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1019,7 +1025,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1033,7 +1039,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -1050,7 +1056,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1067,7 +1073,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1084,7 +1090,7 @@
         <v>42690</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1101,7 +1107,7 @@
         <v>42460</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1118,7 +1124,7 @@
         <v>41963</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1135,7 +1141,7 @@
         <v>41661</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1152,7 +1158,7 @@
         <v>42459</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -1172,7 +1178,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -1192,7 +1198,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -1212,7 +1218,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -1229,7 +1235,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -1246,7 +1252,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -1263,7 +1269,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>75</v>
       </c>
@@ -1280,7 +1286,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>75</v>
       </c>
@@ -1297,7 +1303,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>75</v>
       </c>
@@ -1314,7 +1320,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>75</v>
       </c>
@@ -1331,7 +1337,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -1348,7 +1354,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>75</v>
       </c>
@@ -1365,7 +1371,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>95</v>
       </c>
@@ -1374,7 +1380,7 @@
       </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -1388,7 +1394,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>99</v>
       </c>
@@ -1403,6 +1409,26 @@
       </c>
       <c r="G39" s="1">
         <v>43783</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="1">
+        <v>43731</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1415,8 +1441,9 @@
     <hyperlink ref="H8" r:id="rId6" xr:uid="{798BF589-976F-4F70-9DA7-247CC42B2DA8}"/>
     <hyperlink ref="H9" r:id="rId7" xr:uid="{13F5AF9E-5C17-4394-A43C-00C6C8E8EB47}"/>
     <hyperlink ref="H27" r:id="rId8" xr:uid="{1133C4B1-F200-4610-9DF2-D016EF417B1D}"/>
+    <hyperlink ref="H40" r:id="rId9" xr:uid="{4ADAD399-50BA-4B1D-A6A0-426B43BA96B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -722,7 +722,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="213" documentId="8_{3C60B927-0EE2-4B7C-9027-A4F1E1D2035A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E5FCC771-9DC8-43F9-AF09-9B8C8DDA7E58}"/>
+  <xr:revisionPtr revIDLastSave="226" documentId="8_{3C60B927-0EE2-4B7C-9027-A4F1E1D2035A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0E8F9084-0312-4B9B-8DFD-6B598D90BF54}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="109">
   <si>
     <t>type</t>
   </si>
@@ -105,21 +105,12 @@
     <t>Sociology Seminar, University of Washington</t>
   </si>
   <si>
-    <t>Introduction to R for Social Scientists</t>
-  </si>
-  <si>
     <t>University of Washington</t>
   </si>
   <si>
     <t>https://clanfear.github.io/CSSS508/</t>
   </si>
   <si>
-    <t>https://clanfear.github.io/SOC321/</t>
-  </si>
-  <si>
-    <t>Data Science and Statistics for the Social Sciences I (In Development)</t>
-  </si>
-  <si>
     <t>education</t>
   </si>
   <si>
@@ -246,9 +237,6 @@
     <t>1 term</t>
   </si>
   <si>
-    <t>5 terms</t>
-  </si>
-  <si>
     <t>In Progress</t>
   </si>
   <si>
@@ -340,6 +328,30 @@
   </si>
   <si>
     <t>https://clanfear.github.io/r_exposure_workshop/</t>
+  </si>
+  <si>
+    <t>6 terms</t>
+  </si>
+  <si>
+    <t>Jan 2019</t>
+  </si>
+  <si>
+    <t>Mar 2019</t>
+  </si>
+  <si>
+    <t>https://clanfear.github.io/SOC371/</t>
+  </si>
+  <si>
+    <t>Introduction to Social Statistics (SOC221)</t>
+  </si>
+  <si>
+    <t>Criminology (SOC371) - In Development</t>
+  </si>
+  <si>
+    <t>Introduction to R for Social Scientists (CSSS508)</t>
+  </si>
+  <si>
+    <t>2017</t>
   </si>
 </sst>
 </file>
@@ -719,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -777,7 +789,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -877,95 +889,95 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="C8" s="5">
         <v>2016</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="F8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="C9" s="5">
         <v>2020</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10" s="5">
         <v>2013</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C11" s="5">
         <v>2017</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C13" s="5">
         <v>2017</v>
@@ -974,15 +986,15 @@
         <v>2018</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C14" s="5">
         <v>2017</v>
@@ -991,15 +1003,15 @@
         <v>2018</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C15" s="5">
         <v>2018</v>
@@ -1008,43 +1020,43 @@
         <v>2019</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C16" s="5">
         <v>2014</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C17" s="5">
         <v>2017</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C18" s="5">
         <v>2012</v>
@@ -1053,15 +1065,15 @@
         <v>2013</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C19" s="5">
         <v>2011</v>
@@ -1070,7 +1082,7 @@
         <v>2012</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1078,13 +1090,13 @@
         <v>9</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C20" s="5">
         <v>2016</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G20" s="1">
         <v>42690</v>
@@ -1095,13 +1107,13 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="5">
         <v>2016</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G21" s="1">
         <v>42460</v>
@@ -1112,13 +1124,13 @@
         <v>9</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C22" s="5">
         <v>2014</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G22" s="1">
         <v>41963</v>
@@ -1129,13 +1141,13 @@
         <v>9</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C23" s="5">
         <v>2014</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G23" s="1">
         <v>41661</v>
@@ -1146,13 +1158,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C24" s="5">
         <v>2016</v>
       </c>
       <c r="E24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G24" s="1">
         <v>42459</v>
@@ -1160,70 +1172,70 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C25" s="5">
         <v>2016</v>
       </c>
       <c r="E25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G25" s="1">
         <v>42654</v>
       </c>
       <c r="H25" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C26" s="5">
         <v>2016</v>
       </c>
       <c r="E26" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G26" s="1">
         <v>42467</v>
       </c>
       <c r="H26" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C27" s="5">
         <v>2015</v>
       </c>
       <c r="E27" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G27" s="1">
         <v>43512</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C28" s="5">
         <v>2018</v>
@@ -1232,15 +1244,15 @@
         <v>2019</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C29" s="5">
         <v>2015</v>
@@ -1249,15 +1261,15 @@
         <v>2018</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C30" s="5">
         <v>2016</v>
@@ -1266,146 +1278,146 @@
         <v>2017</v>
       </c>
       <c r="E30" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="C33" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="D33" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G39" s="1">
         <v>43783</v>
@@ -1416,10 +1428,10 @@
         <v>22</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>17</v>
@@ -1428,7 +1440,41 @@
         <v>43731</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1439,9 +1485,9 @@
     <hyperlink ref="H6" r:id="rId4" xr:uid="{06F6990D-F9C1-49AE-973A-DDA4054B87BB}"/>
     <hyperlink ref="H7" r:id="rId5" location="1" display="https://clanfear.github.io/SocSem_102618/SNCP_SocSem_102618.html - 1" xr:uid="{DE93DBF4-3D0B-4843-8DFA-9885E257C907}"/>
     <hyperlink ref="H8" r:id="rId6" xr:uid="{798BF589-976F-4F70-9DA7-247CC42B2DA8}"/>
-    <hyperlink ref="H9" r:id="rId7" xr:uid="{13F5AF9E-5C17-4394-A43C-00C6C8E8EB47}"/>
-    <hyperlink ref="H27" r:id="rId8" xr:uid="{1133C4B1-F200-4610-9DF2-D016EF417B1D}"/>
-    <hyperlink ref="H40" r:id="rId9" xr:uid="{4ADAD399-50BA-4B1D-A6A0-426B43BA96B2}"/>
+    <hyperlink ref="H27" r:id="rId7" xr:uid="{1133C4B1-F200-4610-9DF2-D016EF417B1D}"/>
+    <hyperlink ref="H40" r:id="rId8" xr:uid="{4ADAD399-50BA-4B1D-A6A0-426B43BA96B2}"/>
+    <hyperlink ref="H9" r:id="rId9" xr:uid="{A688A2CB-7404-497C-A952-D966D4409465}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId10"/>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="226" documentId="8_{3C60B927-0EE2-4B7C-9027-A4F1E1D2035A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0E8F9084-0312-4B9B-8DFD-6B598D90BF54}"/>
+  <xr:revisionPtr revIDLastSave="273" documentId="8_{3C60B927-0EE2-4B7C-9027-A4F1E1D2035A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{533665A3-3AD3-499C-A931-1C6BBD75C5F7}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="124">
   <si>
     <t>type</t>
   </si>
@@ -321,9 +321,6 @@
     <t>Disorder and Social Control: Experimental Evidence on Prosocial and Antisocial Behavior</t>
   </si>
   <si>
-    <t>Faculty Search Committee</t>
-  </si>
-  <si>
     <t>Exposure to R (Full Day Workshop)</t>
   </si>
   <si>
@@ -352,6 +349,54 @@
   </si>
   <si>
     <t>2017</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>Exposure to R 3 &amp; 4 (Full Day Workshop)</t>
+  </si>
+  <si>
+    <t>Exposure to R 1 &amp; 2 (Full Day Workshop)</t>
+  </si>
+  <si>
+    <t>https://clanfear.github.io/r_exposure_2020/</t>
+  </si>
+  <si>
+    <t>Jan 2020</t>
+  </si>
+  <si>
+    <t>Mar 2020</t>
+  </si>
+  <si>
+    <t>Faculty Search Committee (2 searches)</t>
+  </si>
+  <si>
+    <t>Seattle Police Department</t>
+  </si>
+  <si>
+    <t>Dec 2019</t>
+  </si>
+  <si>
+    <t>Jun 2019</t>
+  </si>
+  <si>
+    <t>teaching_ta</t>
+  </si>
+  <si>
+    <t>Deviance &amp; Social Control (SOC271)</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>Social Statistics (SOC505)</t>
+  </si>
+  <si>
+    <t>Social Statistics (SOC506)</t>
+  </si>
+  <si>
+    <t>2 terms</t>
   </si>
 </sst>
 </file>
@@ -731,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -892,7 +937,7 @@
         <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C8" s="5">
         <v>2016</v>
@@ -904,7 +949,7 @@
         <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>27</v>
@@ -915,7 +960,7 @@
         <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C9" s="5">
         <v>2020</v>
@@ -927,7 +972,7 @@
         <v>69</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1224,7 +1269,7 @@
         <v>61</v>
       </c>
       <c r="G27" s="1">
-        <v>43512</v>
+        <v>42051</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>67</v>
@@ -1397,7 +1442,7 @@
         <v>62</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>96</v>
@@ -1428,7 +1473,7 @@
         <v>22</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>96</v>
@@ -1440,7 +1485,7 @@
         <v>43731</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1451,10 +1496,10 @@
         <v>82</v>
       </c>
       <c r="C41" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>83</v>
@@ -1465,16 +1510,147 @@
         <v>65</v>
       </c>
       <c r="B42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E42" t="s">
         <v>26</v>
       </c>
       <c r="F42" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" s="1">
+        <v>43841</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="1">
+        <v>43855</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E48" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" t="s">
+        <v>118</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E49" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1488,8 +1664,10 @@
     <hyperlink ref="H27" r:id="rId7" xr:uid="{1133C4B1-F200-4610-9DF2-D016EF417B1D}"/>
     <hyperlink ref="H40" r:id="rId8" xr:uid="{4ADAD399-50BA-4B1D-A6A0-426B43BA96B2}"/>
     <hyperlink ref="H9" r:id="rId9" xr:uid="{A688A2CB-7404-497C-A952-D966D4409465}"/>
+    <hyperlink ref="H44" r:id="rId10" xr:uid="{31839AD7-E9F6-4DE4-9A23-350490A1CC87}"/>
+    <hyperlink ref="H43" r:id="rId11" xr:uid="{B1F3C180-3AFA-40E5-8782-691741CFF137}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="273" documentId="8_{3C60B927-0EE2-4B7C-9027-A4F1E1D2035A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{533665A3-3AD3-499C-A931-1C6BBD75C5F7}"/>
+  <xr:revisionPtr revIDLastSave="275" documentId="8_{3C60B927-0EE2-4B7C-9027-A4F1E1D2035A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{673E651B-96BE-44CD-A532-A96C07817BFA}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
+    <workbookView xWindow="35460" yWindow="810" windowWidth="28710" windowHeight="15900" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -237,9 +237,6 @@
     <t>1 term</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
@@ -397,6 +394,9 @@
   </si>
   <si>
     <t>2 terms</t>
+  </si>
+  <si>
+    <t>2021 (Expected)</t>
   </si>
 </sst>
 </file>
@@ -778,18 +778,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="44.83984375" customWidth="1"/>
-    <col min="3" max="4" width="9.15625" style="5"/>
-    <col min="7" max="7" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.85546875" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="5"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -815,7 +815,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -832,7 +832,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -852,7 +852,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -872,7 +872,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -892,7 +892,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -912,7 +912,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -932,35 +932,35 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="5">
         <v>2016</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E8" t="s">
         <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C9" s="5">
         <v>2020</v>
@@ -972,10 +972,10 @@
         <v>69</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -989,7 +989,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1011,13 +1011,13 @@
         <v>66</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="E12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>42690</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>42460</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>41963</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>41661</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>42459</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -1275,12 +1275,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C28" s="5">
         <v>2018</v>
@@ -1292,12 +1292,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C29" s="5">
         <v>2015</v>
@@ -1309,7 +1309,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -1326,140 +1326,140 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="C31" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="E31" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" s="5" t="s">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="D33" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="E34" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" s="5" t="s">
+      <c r="C36" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>62</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>49</v>
@@ -1468,15 +1468,15 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>22</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>17</v>
@@ -1485,35 +1485,35 @@
         <v>43731</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>65</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E42" t="s">
         <v>26</v>
@@ -1522,15 +1522,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>22</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>17</v>
@@ -1539,18 +1539,18 @@
         <v>43841</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>22</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>17</v>
@@ -1559,52 +1559,52 @@
         <v>43855</v>
       </c>
       <c r="H44" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" t="s">
-        <v>71</v>
-      </c>
-      <c r="B45" s="4" t="s">
+      <c r="D45" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C46" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>117</v>
       </c>
-      <c r="D46" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" t="s">
+      <c r="B47" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="C47" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="E47" t="s">
         <v>26</v>
@@ -1613,44 +1613,44 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E48" t="s">
         <v>26</v>
       </c>
       <c r="F48" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E49" t="s">
         <v>26</v>
       </c>
       <c r="F49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="275" documentId="8_{3C60B927-0EE2-4B7C-9027-A4F1E1D2035A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{673E651B-96BE-44CD-A532-A96C07817BFA}"/>
+  <xr:revisionPtr revIDLastSave="286" documentId="8_{3C60B927-0EE2-4B7C-9027-A4F1E1D2035A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{CE6CCAEB-4203-450D-81C9-CBDE4C8EC8CB}"/>
   <bookViews>
-    <workbookView xWindow="35460" yWindow="810" windowWidth="28710" windowHeight="15900" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
+    <workbookView xWindow="1830" yWindow="6225" windowWidth="28710" windowHeight="11805" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="125">
   <si>
     <t>type</t>
   </si>
@@ -129,9 +129,6 @@
     <t>Distinguished Master's Thesis Award - Social Sciences</t>
   </si>
   <si>
-    <t>Graduate School, University of Washington</t>
-  </si>
-  <si>
     <t>Sociology Department, University of Washington</t>
   </si>
   <si>
@@ -396,7 +393,13 @@
     <t>2 terms</t>
   </si>
   <si>
-    <t>2021 (Expected)</t>
+    <t>Excellence in Teaching Award</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>In Progress</t>
   </si>
 </sst>
 </file>
@@ -776,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,7 +837,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -934,22 +937,22 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8" s="5">
         <v>2016</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s">
         <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>27</v>
@@ -957,10 +960,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="5">
         <v>2020</v>
@@ -969,10 +972,10 @@
         <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1008,10 +1011,10 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E12" t="s">
         <v>26</v>
@@ -1024,14 +1027,11 @@
       <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="5">
-        <v>2017</v>
-      </c>
-      <c r="D13" s="5">
-        <v>2018</v>
+      <c r="C13" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1039,7 +1039,7 @@
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="5">
         <v>2017</v>
@@ -1048,7 +1048,7 @@
         <v>2018</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1056,7 +1056,7 @@
         <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="5">
         <v>2018</v>
@@ -1065,7 +1065,7 @@
         <v>2019</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1073,13 +1073,13 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="5">
         <v>2014</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1087,13 +1087,13 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="5">
         <v>2017</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1101,7 +1101,7 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="5">
         <v>2012</v>
@@ -1118,7 +1118,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="5">
         <v>2011</v>
@@ -1135,13 +1135,13 @@
         <v>9</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="5">
         <v>2016</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G20" s="1">
         <v>42690</v>
@@ -1152,13 +1152,13 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="5">
         <v>2016</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G21" s="1">
         <v>42460</v>
@@ -1169,13 +1169,13 @@
         <v>9</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="5">
         <v>2014</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G22" s="1">
         <v>41963</v>
@@ -1186,13 +1186,13 @@
         <v>9</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" s="5">
         <v>2014</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G23" s="1">
         <v>41661</v>
@@ -1203,13 +1203,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="5">
         <v>2016</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G24" s="1">
         <v>42459</v>
@@ -1217,70 +1217,70 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
         <v>53</v>
-      </c>
-      <c r="B25" t="s">
-        <v>54</v>
       </c>
       <c r="C25" s="5">
         <v>2016</v>
       </c>
       <c r="E25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G25" s="1">
         <v>42654</v>
       </c>
       <c r="H25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="5">
         <v>2016</v>
       </c>
       <c r="E26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G26" s="1">
         <v>42467</v>
       </c>
       <c r="H26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" s="5">
         <v>2015</v>
       </c>
       <c r="E27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G27" s="1">
         <v>42051</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C28" s="5">
         <v>2018</v>
@@ -1289,15 +1289,15 @@
         <v>2019</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C29" s="5">
         <v>2015</v>
@@ -1306,15 +1306,15 @@
         <v>2018</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
         <v>62</v>
-      </c>
-      <c r="B30" t="s">
-        <v>63</v>
       </c>
       <c r="C30" s="5">
         <v>2016</v>
@@ -1323,21 +1323,21 @@
         <v>2017</v>
       </c>
       <c r="E30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="C31" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="E31" t="s">
         <v>26</v>
@@ -1345,50 +1345,50 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C33" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="E33" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C34" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="E34" t="s">
         <v>26</v>
@@ -1396,33 +1396,33 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="D35" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="E35" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="C36" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>31</v>
@@ -1430,39 +1430,39 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="E39" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G39" s="1">
         <v>43783</v>
@@ -1473,10 +1473,10 @@
         <v>22</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>17</v>
@@ -1485,41 +1485,41 @@
         <v>43731</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E42" t="s">
         <v>26</v>
       </c>
       <c r="F42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1527,10 +1527,10 @@
         <v>22</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>17</v>
@@ -1539,7 +1539,7 @@
         <v>43841</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -1547,10 +1547,10 @@
         <v>22</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>17</v>
@@ -1559,98 +1559,112 @@
         <v>43855</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="C47" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="E47" t="s">
         <v>26</v>
       </c>
       <c r="F47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E48" t="s">
         <v>26</v>
       </c>
       <c r="F48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E49" t="s">
         <v>26</v>
       </c>
       <c r="F49" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" t="s">
         <v>122</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E50" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="286" documentId="8_{3C60B927-0EE2-4B7C-9027-A4F1E1D2035A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{CE6CCAEB-4203-450D-81C9-CBDE4C8EC8CB}"/>
+  <xr:revisionPtr revIDLastSave="291" documentId="8_{3C60B927-0EE2-4B7C-9027-A4F1E1D2035A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{D442BF4A-4A06-4AC1-9BEF-09DB8A5C5760}"/>
   <bookViews>
-    <workbookView xWindow="1830" yWindow="6225" windowWidth="28710" windowHeight="11805" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
+    <workbookView xWindow="6030" yWindow="2775" windowWidth="28710" windowHeight="16845" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="126">
   <si>
     <t>type</t>
   </si>
@@ -400,6 +400,9 @@
   </si>
   <si>
     <t>In Progress</t>
+  </si>
+  <si>
+    <t>Undergraduate Thesis Co-Advisor: Peter Novello</t>
   </si>
 </sst>
 </file>
@@ -779,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1664,6 +1667,23 @@
         <v>106</v>
       </c>
       <c r="E50" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E51" t="s">
         <v>26</v>
       </c>
     </row>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="291" documentId="8_{3C60B927-0EE2-4B7C-9027-A4F1E1D2035A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{D442BF4A-4A06-4AC1-9BEF-09DB8A5C5760}"/>
+  <xr:revisionPtr revIDLastSave="295" documentId="8_{3C60B927-0EE2-4B7C-9027-A4F1E1D2035A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{0DFD1297-BEAB-4E11-98D1-ACE1FEA855EA}"/>
   <bookViews>
-    <workbookView xWindow="6030" yWindow="2775" windowWidth="28710" windowHeight="16845" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
+    <workbookView xWindow="1860" yWindow="1695" windowWidth="28710" windowHeight="16845" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -784,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1539,7 +1539,7 @@
         <v>17</v>
       </c>
       <c r="G43" s="1">
-        <v>43841</v>
+        <v>43939</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>109</v>
@@ -1559,7 +1559,7 @@
         <v>17</v>
       </c>
       <c r="G44" s="1">
-        <v>43855</v>
+        <v>43940</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>109</v>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="295" documentId="8_{3C60B927-0EE2-4B7C-9027-A4F1E1D2035A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{0DFD1297-BEAB-4E11-98D1-ACE1FEA855EA}"/>
+  <xr:revisionPtr revIDLastSave="321" documentId="8_{3C60B927-0EE2-4B7C-9027-A4F1E1D2035A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{92C5BD9F-B2BF-4DA6-9CF1-75CA1549AE45}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1695" windowWidth="28710" windowHeight="16845" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
+    <workbookView xWindow="40995" yWindow="1665" windowWidth="24450" windowHeight="13515" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="132">
   <si>
     <t>type</t>
   </si>
@@ -171,15 +171,9 @@
     <t>Frequent Flyers and Civil Commitment: Repeat Police Contacts with Mentally Ill Suspects</t>
   </si>
   <si>
-    <t>American Society of Criminology Annual Meeting</t>
-  </si>
-  <si>
     <t>Police Contacts with People with Mental Illness in Benton County</t>
   </si>
   <si>
-    <t>Willamette Criminal Justice Commission</t>
-  </si>
-  <si>
     <t>Collecting and Analyzing Facebook Data</t>
   </si>
   <si>
@@ -321,9 +315,6 @@
     <t>https://clanfear.github.io/r_exposure_workshop/</t>
   </si>
   <si>
-    <t>6 terms</t>
-  </si>
-  <si>
     <t>Jan 2019</t>
   </si>
   <si>
@@ -403,13 +394,40 @@
   </si>
   <si>
     <t>Undergraduate Thesis Co-Advisor: Peter Novello</t>
+  </si>
+  <si>
+    <t>7 terms</t>
+  </si>
+  <si>
+    <t>Complaints and the Social Control of Homelessness in Seattle</t>
+  </si>
+  <si>
+    <t>American Society of Criminology Annual Meeting, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Willamette Criminal Justice Commission, Corvallis, OR</t>
+  </si>
+  <si>
+    <t>American Sociological Association Annual Meeting, Seattle, WA</t>
+  </si>
+  <si>
+    <t>Society for the Study of Social Problems Annual Meeting, Seattle, WA</t>
+  </si>
+  <si>
+    <t>Racial and Social Control in Changing Neighborhoods: Who Complains to the Police and Why It Matters</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>Formal Social Control in Changing Seattle Neighborhoods</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,6 +456,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -460,13 +484,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -782,16 +807,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="44.85546875" customWidth="1"/>
     <col min="3" max="4" width="9.140625" style="5"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -840,7 +866,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -940,22 +966,22 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C8" s="5">
         <v>2016</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
         <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>27</v>
@@ -963,10 +989,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C9" s="5">
         <v>2020</v>
@@ -975,10 +1001,10 @@
         <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1014,10 +1040,10 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E12" t="s">
         <v>26</v>
@@ -1031,7 +1057,7 @@
         <v>33</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E13" t="s">
         <v>26</v>
@@ -1178,7 +1204,7 @@
         <v>2014</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="G22" s="1">
         <v>41963</v>
@@ -1189,13 +1215,13 @@
         <v>9</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="5">
         <v>2014</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="G23" s="1">
         <v>41661</v>
@@ -1206,7 +1232,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C24" s="5">
         <v>2016</v>
@@ -1220,70 +1246,70 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C25" s="5">
         <v>2016</v>
       </c>
       <c r="E25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G25" s="1">
         <v>42654</v>
       </c>
       <c r="H25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C26" s="5">
         <v>2016</v>
       </c>
       <c r="E26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G26" s="1">
         <v>42467</v>
       </c>
       <c r="H26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27" s="5">
         <v>2015</v>
       </c>
       <c r="E27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G27" s="1">
         <v>42051</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C28" s="5">
         <v>2018</v>
@@ -1297,10 +1323,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C29" s="5">
         <v>2015</v>
@@ -1314,10 +1340,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C30" s="5">
         <v>2016</v>
@@ -1326,21 +1352,21 @@
         <v>2017</v>
       </c>
       <c r="E30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="D31" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="E31" t="s">
         <v>26</v>
@@ -1348,50 +1374,50 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C33" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E34" t="s">
         <v>26</v>
@@ -1399,33 +1425,33 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="E35" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>31</v>
@@ -1433,22 +1459,22 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>34</v>
@@ -1456,16 +1482,16 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="C39" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="G39" s="1">
         <v>43783</v>
@@ -1476,10 +1502,10 @@
         <v>22</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>17</v>
@@ -1488,41 +1514,41 @@
         <v>43731</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B42" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="E42" t="s">
         <v>26</v>
       </c>
       <c r="F42" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1530,10 +1556,10 @@
         <v>22</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>17</v>
@@ -1542,7 +1568,7 @@
         <v>43939</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -1550,10 +1576,10 @@
         <v>22</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>17</v>
@@ -1562,129 +1588,180 @@
         <v>43940</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E47" t="s">
         <v>26</v>
       </c>
       <c r="F47" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="C48" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E48" t="s">
         <v>26</v>
       </c>
       <c r="F48" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E49" t="s">
         <v>26</v>
       </c>
       <c r="F49" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>29</v>
       </c>
       <c r="B50" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E50" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E51" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E52" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" s="1">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" t="s">
+        <v>131</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E53" t="s">
+        <v>127</v>
+      </c>
+      <c r="G53" s="1">
+        <v>42603</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" t="s">
+        <v>129</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E54" t="s">
+        <v>128</v>
+      </c>
+      <c r="G54" s="1">
+        <v>42602</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="321" documentId="8_{3C60B927-0EE2-4B7C-9027-A4F1E1D2035A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{92C5BD9F-B2BF-4DA6-9CF1-75CA1549AE45}"/>
+  <xr:revisionPtr revIDLastSave="326" documentId="8_{3C60B927-0EE2-4B7C-9027-A4F1E1D2035A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{54DC82E4-B619-4BE1-BFC6-5435B91B432C}"/>
   <bookViews>
-    <workbookView xWindow="40995" yWindow="1665" windowWidth="24450" windowHeight="13515" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
+    <workbookView xWindow="41985" yWindow="1800" windowWidth="24450" windowHeight="13515" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -222,205 +222,205 @@
     <t>https://nbc16.com/news/local/study-aims-to-help-id-mental-health-issues-that-take-up-police-time</t>
   </si>
   <si>
+    <t>1 term</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>Graduate Research Assistant</t>
+  </si>
+  <si>
+    <t>Jan 2015</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>Research Consultant</t>
+  </si>
+  <si>
+    <t>Social Science Computing and Statistical Analyst</t>
+  </si>
+  <si>
+    <t>Mar 2018</t>
+  </si>
+  <si>
+    <t>Jun 2018</t>
+  </si>
+  <si>
+    <t>Apr 2016</t>
+  </si>
+  <si>
+    <t>Sep 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Washington – Office of the President </t>
+  </si>
+  <si>
+    <t>Graduate Student Consultant</t>
+  </si>
+  <si>
+    <t>University of Washington – CSSCR</t>
+  </si>
+  <si>
+    <t>Jul 2014</t>
+  </si>
+  <si>
+    <t>Dec 2014</t>
+  </si>
+  <si>
+    <t>Research Intern</t>
+  </si>
+  <si>
+    <t>Jan 2013</t>
+  </si>
+  <si>
+    <t>Jun 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benton County Sheriff's Office, Corvallis, OR </t>
+  </si>
+  <si>
+    <t>Sep 2011</t>
+  </si>
+  <si>
+    <t>reviewer</t>
+  </si>
+  <si>
+    <t>International Migration Review</t>
+  </si>
+  <si>
+    <t>Graduate Student Assoc. President</t>
+  </si>
+  <si>
+    <t>Graduate Student Assoc. Representative to CS&amp;SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talk </t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>Disorder and Social Control: Experimental Evidence on Prosocial and Antisocial Behavior</t>
+  </si>
+  <si>
+    <t>Exposure to R (Full Day Workshop)</t>
+  </si>
+  <si>
+    <t>https://clanfear.github.io/r_exposure_workshop/</t>
+  </si>
+  <si>
+    <t>Jan 2019</t>
+  </si>
+  <si>
+    <t>Mar 2019</t>
+  </si>
+  <si>
+    <t>https://clanfear.github.io/SOC371/</t>
+  </si>
+  <si>
+    <t>Introduction to Social Statistics (SOC221)</t>
+  </si>
+  <si>
+    <t>Introduction to R for Social Scientists (CSSS508)</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>Exposure to R 3 &amp; 4 (Full Day Workshop)</t>
+  </si>
+  <si>
+    <t>Exposure to R 1 &amp; 2 (Full Day Workshop)</t>
+  </si>
+  <si>
+    <t>https://clanfear.github.io/r_exposure_2020/</t>
+  </si>
+  <si>
+    <t>Jan 2020</t>
+  </si>
+  <si>
+    <t>Mar 2020</t>
+  </si>
+  <si>
+    <t>Faculty Search Committee (2 searches)</t>
+  </si>
+  <si>
+    <t>Seattle Police Department</t>
+  </si>
+  <si>
+    <t>Dec 2019</t>
+  </si>
+  <si>
+    <t>Jun 2019</t>
+  </si>
+  <si>
+    <t>teaching_ta</t>
+  </si>
+  <si>
+    <t>Deviance &amp; Social Control (SOC271)</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>Social Statistics (SOC505)</t>
+  </si>
+  <si>
+    <t>Social Statistics (SOC506)</t>
+  </si>
+  <si>
+    <t>2 terms</t>
+  </si>
+  <si>
+    <t>Excellence in Teaching Award</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Undergraduate Thesis Co-Advisor: Peter Novello</t>
+  </si>
+  <si>
+    <t>7 terms</t>
+  </si>
+  <si>
+    <t>Complaints and the Social Control of Homelessness in Seattle</t>
+  </si>
+  <si>
+    <t>American Society of Criminology Annual Meeting, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Willamette Criminal Justice Commission, Corvallis, OR</t>
+  </si>
+  <si>
+    <t>American Sociological Association Annual Meeting, Seattle, WA</t>
+  </si>
+  <si>
+    <t>Society for the Study of Social Problems Annual Meeting, Seattle, WA</t>
+  </si>
+  <si>
+    <t>Racial and Social Control in Changing Neighborhoods: Who Complains to the Police and Why It Matters</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>Formal Social Control in Changing Seattle Neighborhoods</t>
+  </si>
+  <si>
+    <t>Criminology (SOC371)</t>
+  </si>
+  <si>
     <t>lecture</t>
-  </si>
-  <si>
-    <t>1 term</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>Graduate Research Assistant</t>
-  </si>
-  <si>
-    <t>Jan 2015</t>
-  </si>
-  <si>
-    <t>Present</t>
-  </si>
-  <si>
-    <t>Research Consultant</t>
-  </si>
-  <si>
-    <t>Social Science Computing and Statistical Analyst</t>
-  </si>
-  <si>
-    <t>Mar 2018</t>
-  </si>
-  <si>
-    <t>Jun 2018</t>
-  </si>
-  <si>
-    <t>Apr 2016</t>
-  </si>
-  <si>
-    <t>Sep 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Washington – Office of the President </t>
-  </si>
-  <si>
-    <t>Graduate Student Consultant</t>
-  </si>
-  <si>
-    <t>University of Washington – CSSCR</t>
-  </si>
-  <si>
-    <t>Jul 2014</t>
-  </si>
-  <si>
-    <t>Dec 2014</t>
-  </si>
-  <si>
-    <t>Research Intern</t>
-  </si>
-  <si>
-    <t>Jan 2013</t>
-  </si>
-  <si>
-    <t>Jun 2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benton County Sheriff's Office, Corvallis, OR </t>
-  </si>
-  <si>
-    <t>Sep 2011</t>
-  </si>
-  <si>
-    <t>reviewer</t>
-  </si>
-  <si>
-    <t>International Migration Review</t>
-  </si>
-  <si>
-    <t>Graduate Student Assoc. President</t>
-  </si>
-  <si>
-    <t>Graduate Student Assoc. Representative to CS&amp;SS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">talk </t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>Disorder and Social Control: Experimental Evidence on Prosocial and Antisocial Behavior</t>
-  </si>
-  <si>
-    <t>Exposure to R (Full Day Workshop)</t>
-  </si>
-  <si>
-    <t>https://clanfear.github.io/r_exposure_workshop/</t>
-  </si>
-  <si>
-    <t>Jan 2019</t>
-  </si>
-  <si>
-    <t>Mar 2019</t>
-  </si>
-  <si>
-    <t>https://clanfear.github.io/SOC371/</t>
-  </si>
-  <si>
-    <t>Introduction to Social Statistics (SOC221)</t>
-  </si>
-  <si>
-    <t>Criminology (SOC371) - In Development</t>
-  </si>
-  <si>
-    <t>Introduction to R for Social Scientists (CSSS508)</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>Exposure to R 3 &amp; 4 (Full Day Workshop)</t>
-  </si>
-  <si>
-    <t>Exposure to R 1 &amp; 2 (Full Day Workshop)</t>
-  </si>
-  <si>
-    <t>https://clanfear.github.io/r_exposure_2020/</t>
-  </si>
-  <si>
-    <t>Jan 2020</t>
-  </si>
-  <si>
-    <t>Mar 2020</t>
-  </si>
-  <si>
-    <t>Faculty Search Committee (2 searches)</t>
-  </si>
-  <si>
-    <t>Seattle Police Department</t>
-  </si>
-  <si>
-    <t>Dec 2019</t>
-  </si>
-  <si>
-    <t>Jun 2019</t>
-  </si>
-  <si>
-    <t>teaching_ta</t>
-  </si>
-  <si>
-    <t>Deviance &amp; Social Control (SOC271)</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>Social Statistics (SOC505)</t>
-  </si>
-  <si>
-    <t>Social Statistics (SOC506)</t>
-  </si>
-  <si>
-    <t>2 terms</t>
-  </si>
-  <si>
-    <t>Excellence in Teaching Award</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <t>Undergraduate Thesis Co-Advisor: Peter Novello</t>
-  </si>
-  <si>
-    <t>7 terms</t>
-  </si>
-  <si>
-    <t>Complaints and the Social Control of Homelessness in Seattle</t>
-  </si>
-  <si>
-    <t>American Society of Criminology Annual Meeting, San Francisco, CA</t>
-  </si>
-  <si>
-    <t>Willamette Criminal Justice Commission, Corvallis, OR</t>
-  </si>
-  <si>
-    <t>American Sociological Association Annual Meeting, Seattle, WA</t>
-  </si>
-  <si>
-    <t>Society for the Study of Social Problems Annual Meeting, Seattle, WA</t>
-  </si>
-  <si>
-    <t>Racial and Social Control in Changing Neighborhoods: Who Complains to the Police and Why It Matters</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>Formal Social Control in Changing Seattle Neighborhoods</t>
   </si>
 </sst>
 </file>
@@ -809,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,7 +866,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -969,19 +969,19 @@
         <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C8" s="5">
         <v>2016</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
         <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>27</v>
@@ -992,7 +992,7 @@
         <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C9" s="5">
         <v>2020</v>
@@ -1001,10 +1001,10 @@
         <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1043,7 +1043,7 @@
         <v>63</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E12" t="s">
         <v>26</v>
@@ -1057,7 +1057,7 @@
         <v>33</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E13" t="s">
         <v>26</v>
@@ -1204,7 +1204,7 @@
         <v>2014</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G22" s="1">
         <v>41963</v>
@@ -1221,7 +1221,7 @@
         <v>2014</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G23" s="1">
         <v>41661</v>
@@ -1309,7 +1309,7 @@
         <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C28" s="5">
         <v>2018</v>
@@ -1326,7 +1326,7 @@
         <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C29" s="5">
         <v>2015</v>
@@ -1357,16 +1357,16 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="C31" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="E31" t="s">
         <v>26</v>
@@ -1374,50 +1374,50 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C33" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="E33" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C34" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="E34" t="s">
         <v>26</v>
@@ -1425,33 +1425,33 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="D35" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="E35" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="C36" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>31</v>
@@ -1459,10 +1459,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="E37" s="3"/>
     </row>
@@ -1471,10 +1471,10 @@
         <v>59</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>34</v>
@@ -1482,16 +1482,16 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="E39" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G39" s="1">
         <v>43783</v>
@@ -1502,10 +1502,10 @@
         <v>22</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>17</v>
@@ -1514,24 +1514,24 @@
         <v>43731</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1539,16 +1539,16 @@
         <v>62</v>
       </c>
       <c r="B42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E42" t="s">
         <v>26</v>
       </c>
       <c r="F42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1556,10 +1556,10 @@
         <v>22</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>17</v>
@@ -1568,7 +1568,7 @@
         <v>43939</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -1576,10 +1576,10 @@
         <v>22</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>17</v>
@@ -1588,98 +1588,98 @@
         <v>43940</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>111</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="E47" t="s">
         <v>26</v>
       </c>
       <c r="F47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" t="s">
         <v>26</v>
       </c>
       <c r="F48" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" t="s">
         <v>26</v>
       </c>
       <c r="F49" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -1687,10 +1687,10 @@
         <v>29</v>
       </c>
       <c r="B50" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E50" t="s">
         <v>26</v>
@@ -1701,13 +1701,13 @@
         <v>59</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E51" t="s">
         <v>26</v>
@@ -1718,10 +1718,10 @@
         <v>9</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E52" t="s">
         <v>25</v>
@@ -1735,13 +1735,13 @@
         <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E53" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G53" s="1">
         <v>42603</v>
@@ -1752,13 +1752,13 @@
         <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E54" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G54" s="1">
         <v>42602</v>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="326" documentId="8_{3C60B927-0EE2-4B7C-9027-A4F1E1D2035A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{54DC82E4-B619-4BE1-BFC6-5435B91B432C}"/>
+  <xr:revisionPtr revIDLastSave="338" documentId="8_{3C60B927-0EE2-4B7C-9027-A4F1E1D2035A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D3668545-5034-4914-A029-25FE68E1316A}"/>
   <bookViews>
-    <workbookView xWindow="41985" yWindow="1800" windowWidth="24450" windowHeight="13515" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
+    <workbookView xWindow="44745" yWindow="1590" windowWidth="20505" windowHeight="15885" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="134">
   <si>
     <t>type</t>
   </si>
@@ -390,9 +390,6 @@
     <t>Undergraduate Thesis Co-Advisor: Peter Novello</t>
   </si>
   <si>
-    <t>7 terms</t>
-  </si>
-  <si>
     <t>Complaints and the Social Control of Homelessness in Seattle</t>
   </si>
   <si>
@@ -421,6 +418,15 @@
   </si>
   <si>
     <t>lecture</t>
+  </si>
+  <si>
+    <t>Property Crime, Fear of Crime, and Social Control of Homelessness in Seattle</t>
+  </si>
+  <si>
+    <t>American Society of Criminology Annual Meeting (Canceled due to COVID-19)</t>
+  </si>
+  <si>
+    <t>8 terms</t>
   </si>
 </sst>
 </file>
@@ -807,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,7 +872,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -981,7 +987,7 @@
         <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>27</v>
@@ -992,7 +998,7 @@
         <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C9" s="5">
         <v>2020</v>
@@ -1204,7 +1210,7 @@
         <v>2014</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G22" s="1">
         <v>41963</v>
@@ -1221,7 +1227,7 @@
         <v>2014</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G23" s="1">
         <v>41661</v>
@@ -1491,7 +1497,7 @@
         <v>91</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G39" s="1">
         <v>43783</v>
@@ -1718,7 +1724,7 @@
         <v>9</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>91</v>
@@ -1735,13 +1741,13 @@
         <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G53" s="1">
         <v>42603</v>
@@ -1752,16 +1758,33 @@
         <v>9</v>
       </c>
       <c r="B54" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>128</v>
-      </c>
       <c r="E54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G54" s="1">
         <v>42602</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E55" t="s">
+        <v>132</v>
+      </c>
+      <c r="G55" s="1">
+        <v>44151</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="338" documentId="8_{3C60B927-0EE2-4B7C-9027-A4F1E1D2035A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D3668545-5034-4914-A029-25FE68E1316A}"/>
+  <xr:revisionPtr revIDLastSave="352" documentId="8_{3C60B927-0EE2-4B7C-9027-A4F1E1D2035A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{97B88C65-8A74-4962-BDA3-35F2D0E2AF61}"/>
   <bookViews>
-    <workbookView xWindow="44745" yWindow="1590" windowWidth="20505" windowHeight="15885" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="137">
   <si>
     <t>type</t>
   </si>
@@ -78,9 +78,6 @@
     <t>https://clanfear.github.io/Intro_R_Workshop/</t>
   </si>
   <si>
-    <t>University of Washington Tacoma</t>
-  </si>
-  <si>
     <t>https://clanfear.github.io/R_Visualization_Workshop/</t>
   </si>
   <si>
@@ -427,6 +424,18 @@
   </si>
   <si>
     <t>8 terms</t>
+  </si>
+  <si>
+    <t>Research Practices: Organization, Tools, and Reproducibility</t>
+  </si>
+  <si>
+    <t>Built Environments PhD Seminar, University of Washington</t>
+  </si>
+  <si>
+    <t>Center for Business Analytics, University of Washington Tacoma</t>
+  </si>
+  <si>
+    <t>Office of Research, University of Washington Tacoma</t>
   </si>
 </sst>
 </file>
@@ -813,10 +822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,7 +881,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -892,7 +901,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -901,7 +910,7 @@
         <v>2018</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="G4" s="1">
         <v>43384</v>
@@ -912,42 +921,42 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="5">
         <v>2019</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="G5" s="1">
         <v>43580</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="5">
         <v>2019</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="G6" s="1">
         <v>43496</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -955,126 +964,126 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="5">
         <v>2018</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" s="1">
         <v>43399</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C8" s="5">
         <v>2016</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="F8" t="s">
-        <v>133</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C9" s="5">
         <v>2020</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="5">
         <v>2013</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="5">
         <v>2017</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5">
         <v>2017</v>
@@ -1083,15 +1092,15 @@
         <v>2018</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="5">
         <v>2018</v>
@@ -1100,43 +1109,43 @@
         <v>2019</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="5">
         <v>2014</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="5">
         <v>2017</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="5">
         <v>2012</v>
@@ -1145,15 +1154,15 @@
         <v>2013</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="5">
         <v>2011</v>
@@ -1162,7 +1171,7 @@
         <v>2012</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1170,13 +1179,13 @@
         <v>9</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="5">
         <v>2016</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G20" s="1">
         <v>42690</v>
@@ -1187,13 +1196,13 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="5">
         <v>2016</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G21" s="1">
         <v>42460</v>
@@ -1204,13 +1213,13 @@
         <v>9</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="5">
         <v>2014</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G22" s="1">
         <v>41963</v>
@@ -1221,13 +1230,13 @@
         <v>9</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="5">
         <v>2014</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G23" s="1">
         <v>41661</v>
@@ -1235,16 +1244,16 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="5">
         <v>2016</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G24" s="1">
         <v>42459</v>
@@ -1252,70 +1261,70 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
         <v>50</v>
-      </c>
-      <c r="B25" t="s">
-        <v>51</v>
       </c>
       <c r="C25" s="5">
         <v>2016</v>
       </c>
       <c r="E25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G25" s="1">
         <v>42654</v>
       </c>
       <c r="H25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" s="5">
         <v>2016</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G26" s="1">
         <v>42467</v>
       </c>
       <c r="H26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" s="5">
         <v>2015</v>
       </c>
       <c r="E27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G27" s="1">
         <v>42051</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C28" s="5">
         <v>2018</v>
@@ -1324,15 +1333,15 @@
         <v>2019</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" s="5">
         <v>2015</v>
@@ -1341,15 +1350,15 @@
         <v>2018</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
         <v>59</v>
-      </c>
-      <c r="B30" t="s">
-        <v>60</v>
       </c>
       <c r="C30" s="5">
         <v>2016</v>
@@ -1358,146 +1367,146 @@
         <v>2017</v>
       </c>
       <c r="E30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="C31" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="E31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C33" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="E33" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C34" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="E34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="D35" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="E35" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="C36" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>91</v>
-      </c>
       <c r="E39" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G39" s="1">
         <v>43783</v>
@@ -1505,218 +1514,218 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="G40" s="1">
         <v>43731</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="G43" s="1">
         <v>43939</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="G44" s="1">
         <v>43940</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="C47" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>113</v>
-      </c>
       <c r="E47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" t="s">
         <v>115</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E49" t="s">
-        <v>26</v>
-      </c>
-      <c r="F49" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B50" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E50" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E51" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1724,13 +1733,13 @@
         <v>9</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G52" s="1">
         <v>43481</v>
@@ -1741,13 +1750,13 @@
         <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E53" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G53" s="1">
         <v>42603</v>
@@ -1758,13 +1767,13 @@
         <v>9</v>
       </c>
       <c r="B54" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>127</v>
-      </c>
       <c r="E54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G54" s="1">
         <v>42602</v>
@@ -1775,16 +1784,33 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E55" t="s">
         <v>131</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E55" t="s">
-        <v>132</v>
       </c>
       <c r="G55" s="1">
         <v>44151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>129</v>
+      </c>
+      <c r="B56" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E56" t="s">
+        <v>134</v>
+      </c>
+      <c r="G56" s="1">
+        <v>43398</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="352" documentId="8_{3C60B927-0EE2-4B7C-9027-A4F1E1D2035A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{97B88C65-8A74-4962-BDA3-35F2D0E2AF61}"/>
+  <xr:revisionPtr revIDLastSave="362" documentId="8_{3C60B927-0EE2-4B7C-9027-A4F1E1D2035A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A5F2FEBF-E889-46AC-816C-3658DAD2DFF5}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
+    <workbookView xWindow="4815" yWindow="2580" windowWidth="28800" windowHeight="14775" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="139">
   <si>
     <t>type</t>
   </si>
@@ -436,6 +436,12 @@
   </si>
   <si>
     <t>Office of Research, University of Washington Tacoma</t>
+  </si>
+  <si>
+    <t>Summer Institute in Computational Social Science</t>
+  </si>
+  <si>
+    <t>1 week</t>
   </si>
 </sst>
 </file>
@@ -822,10 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1811,6 +1817,26 @@
       </c>
       <c r="G56" s="1">
         <v>43398</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" t="s">
+        <v>137</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E57" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="362" documentId="8_{3C60B927-0EE2-4B7C-9027-A4F1E1D2035A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A5F2FEBF-E889-46AC-816C-3658DAD2DFF5}"/>
+  <xr:revisionPtr revIDLastSave="367" documentId="8_{3C60B927-0EE2-4B7C-9027-A4F1E1D2035A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EF1F7CB3-67ED-4B0B-BAB6-D255E19F2F76}"/>
   <bookViews>
-    <workbookView xWindow="4815" yWindow="2580" windowWidth="28800" windowHeight="14775" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
+    <workbookView xWindow="39705" yWindow="1320" windowWidth="28800" windowHeight="14775" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="142">
   <si>
     <t>type</t>
   </si>
@@ -442,6 +442,15 @@
   </si>
   <si>
     <t>1 week</t>
+  </si>
+  <si>
+    <t>Thesis: Disorder in the Neighborhood: A Large-Scale Field Experiment on Disorder, Norm Violation, and Pro-Social Behavior</t>
+  </si>
+  <si>
+    <t>Dissertation: Integrating Collective Efficacy and Criminal Opportunity: Disorder, the Built Environment, and Policing</t>
+  </si>
+  <si>
+    <t>Thesis: Exploring a Mental Health Crisis: An Examination of Mental Health Arrests in Benton County, OR</t>
   </si>
 </sst>
 </file>
@@ -830,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,6 +1050,9 @@
       <c r="E10" t="s">
         <v>30</v>
       </c>
+      <c r="F10" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1055,6 +1067,9 @@
       <c r="E11" t="s">
         <v>25</v>
       </c>
+      <c r="F11" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1068,6 +1083,9 @@
       </c>
       <c r="E12" t="s">
         <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="367" documentId="8_{3C60B927-0EE2-4B7C-9027-A4F1E1D2035A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EF1F7CB3-67ED-4B0B-BAB6-D255E19F2F76}"/>
+  <xr:revisionPtr revIDLastSave="384" documentId="8_{3C60B927-0EE2-4B7C-9027-A4F1E1D2035A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8F54A91D-99AE-4C1D-98E3-0A2BAF5DC381}"/>
   <bookViews>
-    <workbookView xWindow="39705" yWindow="1320" windowWidth="28800" windowHeight="14775" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
+    <workbookView xWindow="15585" yWindow="4275" windowWidth="28800" windowHeight="14775" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="144">
   <si>
     <t>type</t>
   </si>
@@ -451,6 +451,12 @@
   </si>
   <si>
     <t>Thesis: Exploring a Mental Health Crisis: An Examination of Mental Health Arrests in Benton County, OR</t>
+  </si>
+  <si>
+    <t>Searching for the Center</t>
+  </si>
+  <si>
+    <t>with SM Karceski</t>
   </si>
 </sst>
 </file>
@@ -837,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1855,6 +1861,26 @@
       </c>
       <c r="F57" t="s">
         <v>138</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" t="s">
+        <v>142</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E58" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58" t="s">
+        <v>143</v>
+      </c>
+      <c r="G58" s="1">
+        <v>43735</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="384" documentId="8_{3C60B927-0EE2-4B7C-9027-A4F1E1D2035A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8F54A91D-99AE-4C1D-98E3-0A2BAF5DC381}"/>
+  <xr:revisionPtr revIDLastSave="388" documentId="8_{3C60B927-0EE2-4B7C-9027-A4F1E1D2035A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{730AB21A-624A-4AA3-B949-49BF46EDD21C}"/>
   <bookViews>
-    <workbookView xWindow="15585" yWindow="4275" windowWidth="28800" windowHeight="14775" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
+    <workbookView xWindow="38880" yWindow="2100" windowWidth="28800" windowHeight="14775" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,9 +99,6 @@
     <t>https://clanfear.github.io/SocSem_102618/SNCP_SocSem_102618.html#1</t>
   </si>
   <si>
-    <t>Sociology Seminar, University of Washington</t>
-  </si>
-  <si>
     <t>University of Washington</t>
   </si>
   <si>
@@ -420,9 +417,6 @@
     <t>Property Crime, Fear of Crime, and Social Control of Homelessness in Seattle</t>
   </si>
   <si>
-    <t>American Society of Criminology Annual Meeting (Canceled due to COVID-19)</t>
-  </si>
-  <si>
     <t>8 terms</t>
   </si>
   <si>
@@ -457,6 +451,12 @@
   </si>
   <si>
     <t>with SM Karceski</t>
+  </si>
+  <si>
+    <t>American Society of Criminology Annual Meeting, Washington D.C. (Canceled due to COVID-19)</t>
+  </si>
+  <si>
+    <t>SocSem, University of Washington</t>
   </si>
 </sst>
 </file>
@@ -845,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,7 +902,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -931,7 +931,7 @@
         <v>2018</v>
       </c>
       <c r="E4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G4" s="1">
         <v>43384</v>
@@ -951,7 +951,7 @@
         <v>2019</v>
       </c>
       <c r="E5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G5" s="1">
         <v>43580</v>
@@ -971,7 +971,7 @@
         <v>2019</v>
       </c>
       <c r="E6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G6" s="1">
         <v>43496</v>
@@ -991,7 +991,7 @@
         <v>2018</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>143</v>
       </c>
       <c r="G7" s="1">
         <v>43399</v>
@@ -1002,118 +1002,118 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" s="5">
         <v>2016</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>130</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="F8" t="s">
-        <v>132</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C9" s="5">
         <v>2020</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="5">
         <v>2013</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="5">
         <v>2017</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="5">
         <v>2017</v>
@@ -1122,15 +1122,15 @@
         <v>2018</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="5">
         <v>2018</v>
@@ -1139,43 +1139,43 @@
         <v>2019</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="5">
         <v>2014</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="5">
         <v>2017</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="5">
         <v>2012</v>
@@ -1184,15 +1184,15 @@
         <v>2013</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="5">
         <v>2011</v>
@@ -1201,7 +1201,7 @@
         <v>2012</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1209,13 +1209,13 @@
         <v>9</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="5">
         <v>2016</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G20" s="1">
         <v>42690</v>
@@ -1226,13 +1226,13 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="5">
         <v>2016</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G21" s="1">
         <v>42460</v>
@@ -1243,13 +1243,13 @@
         <v>9</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" s="5">
         <v>2014</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G22" s="1">
         <v>41963</v>
@@ -1260,13 +1260,13 @@
         <v>9</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" s="5">
         <v>2014</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G23" s="1">
         <v>41661</v>
@@ -1277,13 +1277,13 @@
         <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="5">
         <v>2016</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G24" s="1">
         <v>42459</v>
@@ -1291,70 +1291,70 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
         <v>49</v>
-      </c>
-      <c r="B25" t="s">
-        <v>50</v>
       </c>
       <c r="C25" s="5">
         <v>2016</v>
       </c>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G25" s="1">
         <v>42654</v>
       </c>
       <c r="H25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="5">
         <v>2016</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G26" s="1">
         <v>42467</v>
       </c>
       <c r="H26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" s="5">
         <v>2015</v>
       </c>
       <c r="E27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G27" s="1">
         <v>42051</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C28" s="5">
         <v>2018</v>
@@ -1363,15 +1363,15 @@
         <v>2019</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C29" s="5">
         <v>2015</v>
@@ -1380,15 +1380,15 @@
         <v>2018</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
         <v>58</v>
-      </c>
-      <c r="B30" t="s">
-        <v>59</v>
       </c>
       <c r="C30" s="5">
         <v>2016</v>
@@ -1397,146 +1397,146 @@
         <v>2017</v>
       </c>
       <c r="E30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="C31" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="E31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="E33" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C34" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="E34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="D35" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="E35" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="C36" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>90</v>
-      </c>
       <c r="E39" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G39" s="1">
         <v>43783</v>
@@ -1547,53 +1547,53 @@
         <v>21</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G40" s="1">
         <v>43731</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1601,19 +1601,19 @@
         <v>21</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G43" s="1">
         <v>43939</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -1621,141 +1621,141 @@
         <v>21</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G44" s="1">
         <v>43940</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="C47" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>112</v>
-      </c>
       <c r="E47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E49" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" t="s">
         <v>114</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E49" t="s">
-        <v>25</v>
-      </c>
-      <c r="F49" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1763,13 +1763,13 @@
         <v>9</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E52" t="s">
-        <v>24</v>
+        <v>143</v>
       </c>
       <c r="G52" s="1">
         <v>43481</v>
@@ -1780,13 +1780,13 @@
         <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E53" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G53" s="1">
         <v>42603</v>
@@ -1797,13 +1797,13 @@
         <v>9</v>
       </c>
       <c r="B54" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="E54" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G54" s="1">
         <v>42602</v>
@@ -1814,13 +1814,13 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E55" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="G55" s="1">
         <v>44151</v>
@@ -1828,16 +1828,16 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B56" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E56" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G56" s="1">
         <v>43398</v>
@@ -1845,22 +1845,22 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B57" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F57" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -1868,16 +1868,16 @@
         <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E58" t="s">
-        <v>24</v>
+        <v>143</v>
       </c>
       <c r="F58" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G58" s="1">
         <v>43735</v>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="388" documentId="8_{3C60B927-0EE2-4B7C-9027-A4F1E1D2035A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{730AB21A-624A-4AA3-B949-49BF46EDD21C}"/>
+  <xr:revisionPtr revIDLastSave="395" documentId="8_{3C60B927-0EE2-4B7C-9027-A4F1E1D2035A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{045E2B2A-D8CA-4068-80B9-DEBD36E5B7AF}"/>
   <bookViews>
-    <workbookView xWindow="38880" yWindow="2100" windowWidth="28800" windowHeight="14775" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
+    <workbookView xWindow="1755" yWindow="3255" windowWidth="28800" windowHeight="14775" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,15 +51,9 @@
     <t>Family Dynamics, Birth Timing, and Child Temperament: A Dynamic Sibling Model Approach</t>
   </si>
   <si>
-    <t>CSSS 20th Anniversary Conference, University of Washington</t>
-  </si>
-  <si>
     <t>talk</t>
   </si>
   <si>
-    <t>CSDE Professionalization Seminar, University of Washington</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -132,15 +126,9 @@
     <t>Blalock Fellowship</t>
   </si>
   <si>
-    <t>CSSS, University of Washington</t>
-  </si>
-  <si>
     <t>CSDE Lightning Talk and Poster Session - Best Poster</t>
   </si>
   <si>
-    <t>CSDE, University of Washington</t>
-  </si>
-  <si>
     <t>Outstanding Performance for the Master's of Arts</t>
   </si>
   <si>
@@ -255,9 +243,6 @@
     <t>Graduate Student Consultant</t>
   </si>
   <si>
-    <t>University of Washington – CSSCR</t>
-  </si>
-  <si>
     <t>Jul 2014</t>
   </si>
   <si>
@@ -457,6 +442,21 @@
   </si>
   <si>
     <t>SocSem, University of Washington</t>
+  </si>
+  <si>
+    <t>Center for Statistics and the Social Sciences, University of Washington</t>
+  </si>
+  <si>
+    <t>Center for Studies in Demography and Ecology, University of Washington</t>
+  </si>
+  <si>
+    <t>Center for Studies in Demography and Ecology Professionalization Seminar, University of Washington</t>
+  </si>
+  <si>
+    <t>Center for Statistics and the Social Sciences 20th Anniversary Conference, University of Washington</t>
+  </si>
+  <si>
+    <t>University of Washington – Center for Social Science Computation and Research</t>
   </si>
 </sst>
 </file>
@@ -845,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,10 +877,10 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
         <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -894,7 +894,7 @@
         <v>2019</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>142</v>
       </c>
       <c r="G2" s="1">
         <v>43608</v>
@@ -902,218 +902,218 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="5">
         <v>2019</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G3" s="1">
         <v>43616</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="5">
         <v>2018</v>
       </c>
       <c r="E4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G4" s="1">
         <v>43384</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="5">
         <v>2019</v>
       </c>
       <c r="E5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G5" s="1">
         <v>43580</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="5">
         <v>2019</v>
       </c>
       <c r="E6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G6" s="1">
         <v>43496</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="5">
         <v>2018</v>
       </c>
       <c r="E7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G7" s="1">
         <v>43399</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C8" s="5">
         <v>2016</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C9" s="5">
         <v>2020</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
         <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
       </c>
       <c r="C10" s="5">
         <v>2013</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="5">
         <v>2017</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C14" s="5">
         <v>2017</v>
@@ -1122,15 +1122,15 @@
         <v>2018</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" s="5">
         <v>2018</v>
@@ -1139,43 +1139,43 @@
         <v>2019</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="5">
         <v>2014</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C17" s="5">
         <v>2017</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C18" s="5">
         <v>2012</v>
@@ -1184,15 +1184,15 @@
         <v>2013</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C19" s="5">
         <v>2011</v>
@@ -1201,21 +1201,21 @@
         <v>2012</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C20" s="5">
         <v>2016</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G20" s="1">
         <v>42690</v>
@@ -1226,13 +1226,13 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C21" s="5">
         <v>2016</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G21" s="1">
         <v>42460</v>
@@ -1240,16 +1240,16 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C22" s="5">
         <v>2014</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G22" s="1">
         <v>41963</v>
@@ -1257,16 +1257,16 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C23" s="5">
         <v>2014</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G23" s="1">
         <v>41661</v>
@@ -1274,16 +1274,16 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C24" s="5">
         <v>2016</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G24" s="1">
         <v>42459</v>
@@ -1291,70 +1291,70 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C25" s="5">
         <v>2016</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G25" s="1">
         <v>42654</v>
       </c>
       <c r="H25" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" t="s">
         <v>48</v>
-      </c>
-      <c r="B26" t="s">
-        <v>52</v>
       </c>
       <c r="C26" s="5">
         <v>2016</v>
       </c>
       <c r="E26" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G26" s="1">
         <v>42467</v>
       </c>
       <c r="H26" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C27" s="5">
         <v>2015</v>
       </c>
       <c r="E27" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G27" s="1">
         <v>42051</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C28" s="5">
         <v>2018</v>
@@ -1363,15 +1363,15 @@
         <v>2019</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C29" s="5">
         <v>2015</v>
@@ -1380,15 +1380,15 @@
         <v>2018</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C30" s="5">
         <v>2016</v>
@@ -1397,146 +1397,146 @@
         <v>2017</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E31" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="C33" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="D33" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E34" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G39" s="1">
         <v>43783</v>
@@ -1544,232 +1544,232 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G40" s="1">
         <v>43731</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E42" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F42" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G43" s="1">
         <v>43939</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G44" s="1">
         <v>43940</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="C46" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E47" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F47" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" t="s">
         <v>109</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E48" t="s">
-        <v>24</v>
-      </c>
-      <c r="F48" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E49" t="s">
+        <v>22</v>
+      </c>
+      <c r="F49" t="s">
         <v>109</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E49" t="s">
-        <v>24</v>
-      </c>
-      <c r="F49" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B50" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E51" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E52" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G52" s="1">
         <v>43481</v>
@@ -1777,16 +1777,16 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E53" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G53" s="1">
         <v>42603</v>
@@ -1794,16 +1794,16 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E54" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G54" s="1">
         <v>42602</v>
@@ -1811,16 +1811,16 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E55" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G55" s="1">
         <v>44151</v>
@@ -1828,16 +1828,16 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B56" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E56" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G56" s="1">
         <v>43398</v>
@@ -1845,39 +1845,39 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B57" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E57" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F57" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E58" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F58" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G58" s="1">
         <v>43735</v>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="395" documentId="8_{3C60B927-0EE2-4B7C-9027-A4F1E1D2035A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{045E2B2A-D8CA-4068-80B9-DEBD36E5B7AF}"/>
+  <xr:revisionPtr revIDLastSave="399" documentId="8_{3C60B927-0EE2-4B7C-9027-A4F1E1D2035A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AC2CFA30-FEF8-422F-B4EA-74C3AE6FCDD4}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="3255" windowWidth="28800" windowHeight="14775" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
+    <workbookView xWindow="38400" yWindow="435" windowWidth="28800" windowHeight="15900" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="145">
   <si>
     <t>type</t>
   </si>
@@ -457,6 +457,9 @@
   </si>
   <si>
     <t>University of Washington – Center for Social Science Computation and Research</t>
+  </si>
+  <si>
+    <t>Journal of Research in Crime and Delinquency</t>
   </si>
 </sst>
 </file>
@@ -843,10 +846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1881,6 +1884,14 @@
       </c>
       <c r="G58" s="1">
         <v>43735</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>79</v>
+      </c>
+      <c r="B59" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="399" documentId="8_{3C60B927-0EE2-4B7C-9027-A4F1E1D2035A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AC2CFA30-FEF8-422F-B4EA-74C3AE6FCDD4}"/>
+  <xr:revisionPtr revIDLastSave="403" documentId="8_{3C60B927-0EE2-4B7C-9027-A4F1E1D2035A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{79046A38-126C-4511-86D5-398FBD398382}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="435" windowWidth="28800" windowHeight="15900" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="146">
   <si>
     <t>type</t>
   </si>
@@ -460,6 +460,9 @@
   </si>
   <si>
     <t>Journal of Research in Crime and Delinquency</t>
+  </si>
+  <si>
+    <t>2021</t>
   </si>
 </sst>
 </file>
@@ -848,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,7 +1017,7 @@
         <v>2016</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
@@ -1036,11 +1039,14 @@
       <c r="C9" s="5">
         <v>2020</v>
       </c>
+      <c r="D9" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="E9" t="s">
         <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>90</v>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="403" documentId="8_{3C60B927-0EE2-4B7C-9027-A4F1E1D2035A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{79046A38-126C-4511-86D5-398FBD398382}"/>
+  <xr:revisionPtr revIDLastSave="405" documentId="8_{3C60B927-0EE2-4B7C-9027-A4F1E1D2035A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2C25B27D-BF0E-42A3-B4CB-01F544791F31}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="435" windowWidth="28800" windowHeight="15900" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="147">
   <si>
     <t>type</t>
   </si>
@@ -463,6 +463,9 @@
   </si>
   <si>
     <t>2021</t>
+  </si>
+  <si>
+    <t>American Journal of Sociology</t>
   </si>
 </sst>
 </file>
@@ -849,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1898,6 +1901,14 @@
       </c>
       <c r="B59" t="s">
         <v>144</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/090f7abe46c7f02e/GitHub/ccl_cv/cv_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="405" documentId="8_{3C60B927-0EE2-4B7C-9027-A4F1E1D2035A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2C25B27D-BF0E-42A3-B4CB-01F544791F31}"/>
+  <xr:revisionPtr revIDLastSave="407" documentId="8_{3C60B927-0EE2-4B7C-9027-A4F1E1D2035A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C8CCC691-484E-4FE2-B814-5908F6A121D6}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
+    <workbookView xWindow="38400" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="148">
   <si>
     <t>type</t>
   </si>
@@ -466,6 +466,9 @@
   </si>
   <si>
     <t>American Journal of Sociology</t>
+  </si>
+  <si>
+    <t>Criminology</t>
   </si>
 </sst>
 </file>
@@ -852,7 +855,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B61" sqref="B61"/>
@@ -1909,6 +1912,14 @@
       </c>
       <c r="B60" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/090f7abe46c7f02e/GitHub/ccl_cv/cv_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="407" documentId="8_{3C60B927-0EE2-4B7C-9027-A4F1E1D2035A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C8CCC691-484E-4FE2-B814-5908F6A121D6}"/>
+  <xr:revisionPtr revIDLastSave="416" documentId="8_{3C60B927-0EE2-4B7C-9027-A4F1E1D2035A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1A595462-53CE-402A-A29B-907E891299DE}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
+    <workbookView xWindow="38970" yWindow="840" windowWidth="28800" windowHeight="15600" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="151">
   <si>
     <t>type</t>
   </si>
@@ -469,6 +469,15 @@
   </si>
   <si>
     <t>Criminology</t>
+  </si>
+  <si>
+    <t>Tents in Seattle increased by more than 50% after COVID pandemic began, survey says</t>
+  </si>
+  <si>
+    <t>https://www.seattletimes.com/seattle-news/homeless/tents-in-seattle-increased-by-more-than-50-after-covid-pandemic-began-survey-says/</t>
+  </si>
+  <si>
+    <t>The Seattle Times</t>
   </si>
 </sst>
 </file>
@@ -855,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1722,7 +1731,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>104</v>
       </c>
@@ -1742,7 +1751,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>25</v>
       </c>
@@ -1756,7 +1765,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -1773,7 +1782,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -1790,7 +1799,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -1807,7 +1816,7 @@
         <v>42603</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -1824,7 +1833,7 @@
         <v>42602</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -1841,7 +1850,7 @@
         <v>44151</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>123</v>
       </c>
@@ -1858,7 +1867,7 @@
         <v>43398</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>104</v>
       </c>
@@ -1878,7 +1887,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -1898,7 +1907,7 @@
         <v>43735</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>79</v>
       </c>
@@ -1906,7 +1915,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>79</v>
       </c>
@@ -1914,12 +1923,32 @@
         <v>146</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>79</v>
       </c>
       <c r="B61" t="s">
         <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62" t="s">
+        <v>148</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E62" t="s">
+        <v>150</v>
+      </c>
+      <c r="G62" s="1">
+        <v>44289</v>
+      </c>
+      <c r="H62" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/090f7abe46c7f02e/GitHub/ccl_cv/cv_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="416" documentId="8_{3C60B927-0EE2-4B7C-9027-A4F1E1D2035A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1A595462-53CE-402A-A29B-907E891299DE}"/>
+  <xr:revisionPtr revIDLastSave="422" documentId="8_{3C60B927-0EE2-4B7C-9027-A4F1E1D2035A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6EA1638B-68BE-4399-A8CD-766C17C096D2}"/>
   <bookViews>
-    <workbookView xWindow="38970" yWindow="840" windowWidth="28800" windowHeight="15600" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
+    <workbookView xWindow="4350" yWindow="4545" windowWidth="28800" windowHeight="15600" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="151">
   <si>
     <t>type</t>
   </si>
@@ -129,9 +129,6 @@
     <t>CSDE Lightning Talk and Poster Session - Best Poster</t>
   </si>
   <si>
-    <t>Outstanding Performance for the Master's of Arts</t>
-  </si>
-  <si>
     <t>Oregon Lottery Graduate Scholarship</t>
   </si>
   <si>
@@ -402,9 +399,6 @@
     <t>Property Crime, Fear of Crime, and Social Control of Homelessness in Seattle</t>
   </si>
   <si>
-    <t>8 terms</t>
-  </si>
-  <si>
     <t>Research Practices: Organization, Tools, and Reproducibility</t>
   </si>
   <si>
@@ -478,6 +472,12 @@
   </si>
   <si>
     <t>The Seattle Times</t>
+  </si>
+  <si>
+    <t>Outstanding Performance for the Master of Arts</t>
+  </si>
+  <si>
+    <t>9 terms</t>
   </si>
 </sst>
 </file>
@@ -866,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,7 +915,7 @@
         <v>2019</v>
       </c>
       <c r="E2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G2" s="1">
         <v>43608</v>
@@ -923,7 +923,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -932,7 +932,7 @@
         <v>2019</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G3" s="1">
         <v>43616</v>
@@ -952,7 +952,7 @@
         <v>2018</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G4" s="1">
         <v>43384</v>
@@ -972,7 +972,7 @@
         <v>2019</v>
       </c>
       <c r="E5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G5" s="1">
         <v>43580</v>
@@ -992,7 +992,7 @@
         <v>2019</v>
       </c>
       <c r="E6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G6" s="1">
         <v>43496</v>
@@ -1012,7 +1012,7 @@
         <v>2018</v>
       </c>
       <c r="E7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G7" s="1">
         <v>43399</v>
@@ -1023,22 +1023,22 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="5">
-        <v>2016</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>23</v>
@@ -1046,25 +1046,25 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9" s="5">
         <v>2020</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E9" t="s">
         <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1081,7 +1081,7 @@
         <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1098,7 +1098,7 @@
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1106,16 +1106,16 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E12" t="s">
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1126,7 +1126,7 @@
         <v>29</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E13" t="s">
         <v>22</v>
@@ -1137,7 +1137,7 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>149</v>
       </c>
       <c r="C14" s="5">
         <v>2017</v>
@@ -1177,7 +1177,7 @@
         <v>2014</v>
       </c>
       <c r="E16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1191,7 +1191,7 @@
         <v>2017</v>
       </c>
       <c r="E17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1199,7 +1199,7 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="5">
         <v>2012</v>
@@ -1216,7 +1216,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="5">
         <v>2011</v>
@@ -1233,13 +1233,13 @@
         <v>8</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="5">
         <v>2016</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G20" s="1">
         <v>42690</v>
@@ -1250,13 +1250,13 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" s="5">
         <v>2016</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G21" s="1">
         <v>42460</v>
@@ -1267,13 +1267,13 @@
         <v>8</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" s="5">
         <v>2014</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G22" s="1">
         <v>41963</v>
@@ -1284,13 +1284,13 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="5">
         <v>2014</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G23" s="1">
         <v>41661</v>
@@ -1301,13 +1301,13 @@
         <v>19</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" s="5">
         <v>2016</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G24" s="1">
         <v>42459</v>
@@ -1315,70 +1315,70 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
         <v>44</v>
-      </c>
-      <c r="B25" t="s">
-        <v>45</v>
       </c>
       <c r="C25" s="5">
         <v>2016</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G25" s="1">
         <v>42654</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="5">
         <v>2016</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G26" s="1">
         <v>42467</v>
       </c>
       <c r="H26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27" s="5">
         <v>2015</v>
       </c>
       <c r="E27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G27" s="1">
         <v>42051</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" s="5">
         <v>2018</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C29" s="5">
         <v>2015</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
         <v>53</v>
-      </c>
-      <c r="B30" t="s">
-        <v>54</v>
       </c>
       <c r="C30" s="5">
         <v>2016</v>
@@ -1421,21 +1421,21 @@
         <v>2017</v>
       </c>
       <c r="E30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="C31" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="E31" t="s">
         <v>22</v>
@@ -1443,50 +1443,50 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C32" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="E32" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="E33" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="E34" t="s">
         <v>22</v>
@@ -1494,33 +1494,33 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="D35" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="E35" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="C36" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>27</v>
@@ -1528,22 +1528,22 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>30</v>
@@ -1551,16 +1551,16 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="E39" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G39" s="1">
         <v>43783</v>
@@ -1571,53 +1571,53 @@
         <v>19</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G40" s="1">
         <v>43731</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>89</v>
-      </c>
       <c r="E41" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E42" t="s">
         <v>22</v>
       </c>
       <c r="F42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1625,19 +1625,19 @@
         <v>19</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G43" s="1">
         <v>43939</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -1645,110 +1645,110 @@
         <v>19</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G44" s="1">
         <v>43940</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C45" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>99</v>
-      </c>
       <c r="E45" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="C47" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="E47" t="s">
         <v>22</v>
       </c>
       <c r="F47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E48" t="s">
         <v>22</v>
       </c>
       <c r="F48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E49" t="s">
         <v>22</v>
       </c>
       <c r="F49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -1756,10 +1756,10 @@
         <v>25</v>
       </c>
       <c r="B50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E50" t="s">
         <v>22</v>
@@ -1767,16 +1767,16 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E51" t="s">
         <v>22</v>
@@ -1787,13 +1787,13 @@
         <v>8</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E52" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G52" s="1">
         <v>43481</v>
@@ -1804,13 +1804,13 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G53" s="1">
         <v>42603</v>
@@ -1821,13 +1821,13 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>120</v>
-      </c>
       <c r="E54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G54" s="1">
         <v>42602</v>
@@ -1838,13 +1838,13 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E55" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G55" s="1">
         <v>44151</v>
@@ -1852,16 +1852,16 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B56" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E56" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G56" s="1">
         <v>43398</v>
@@ -1869,22 +1869,22 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B57" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E57" t="s">
         <v>22</v>
       </c>
       <c r="F57" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -1892,16 +1892,16 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E58" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F58" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G58" s="1">
         <v>43735</v>
@@ -1909,46 +1909,46 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B59" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B60" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B61" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B62" t="s">
+        <v>146</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E62" t="s">
         <v>148</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E62" t="s">
-        <v>150</v>
       </c>
       <c r="G62" s="1">
         <v>44289</v>
       </c>
       <c r="H62" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/090f7abe46c7f02e/GitHub/ccl_cv/cv_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="422" documentId="8_{3C60B927-0EE2-4B7C-9027-A4F1E1D2035A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6EA1638B-68BE-4399-A8CD-766C17C096D2}"/>
+  <xr:revisionPtr revIDLastSave="423" documentId="8_{3C60B927-0EE2-4B7C-9027-A4F1E1D2035A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B81C0B63-86C7-4402-BF0C-8ED995AAD812}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="4545" windowWidth="28800" windowHeight="15600" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
+    <workbookView xWindow="11340" yWindow="2940" windowWidth="23520" windowHeight="15600" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="150">
   <si>
     <t>type</t>
   </si>
@@ -358,9 +358,6 @@
   </si>
   <si>
     <t>2018</t>
-  </si>
-  <si>
-    <t>In Progress</t>
   </si>
   <si>
     <t>Undergraduate Thesis Co-Advisor: Peter Novello</t>
@@ -867,7 +864,7 @@
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,7 +912,7 @@
         <v>2019</v>
       </c>
       <c r="E2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G2" s="1">
         <v>43608</v>
@@ -923,7 +920,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -932,7 +929,7 @@
         <v>2019</v>
       </c>
       <c r="E3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G3" s="1">
         <v>43616</v>
@@ -952,7 +949,7 @@
         <v>2018</v>
       </c>
       <c r="E4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G4" s="1">
         <v>43384</v>
@@ -972,7 +969,7 @@
         <v>2019</v>
       </c>
       <c r="E5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G5" s="1">
         <v>43580</v>
@@ -992,7 +989,7 @@
         <v>2019</v>
       </c>
       <c r="E6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G6" s="1">
         <v>43496</v>
@@ -1012,7 +1009,7 @@
         <v>2018</v>
       </c>
       <c r="E7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G7" s="1">
         <v>43399</v>
@@ -1032,13 +1029,13 @@
         <v>92</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>23</v>
@@ -1049,13 +1046,13 @@
         <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C9" s="5">
         <v>2020</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E9" t="s">
         <v>22</v>
@@ -1081,7 +1078,7 @@
         <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1098,7 +1095,7 @@
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1109,13 +1106,13 @@
         <v>56</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="E12" t="s">
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1137,7 +1134,7 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C14" s="5">
         <v>2017</v>
@@ -1177,7 +1174,7 @@
         <v>2014</v>
       </c>
       <c r="E16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1191,7 +1188,7 @@
         <v>2017</v>
       </c>
       <c r="E17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1273,7 +1270,7 @@
         <v>2014</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G22" s="1">
         <v>41963</v>
@@ -1290,7 +1287,7 @@
         <v>2014</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G23" s="1">
         <v>41661</v>
@@ -1455,7 +1452,7 @@
         <v>66</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1560,7 +1557,7 @@
         <v>83</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G39" s="1">
         <v>43783</v>
@@ -1577,7 +1574,7 @@
         <v>83</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G40" s="1">
         <v>43731</v>
@@ -1600,7 +1597,7 @@
         <v>88</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1631,7 +1628,7 @@
         <v>93</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G43" s="1">
         <v>43939</v>
@@ -1651,7 +1648,7 @@
         <v>93</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G44" s="1">
         <v>43940</v>
@@ -1674,7 +1671,7 @@
         <v>98</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -1770,7 +1767,7 @@
         <v>52</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>83</v>
@@ -1787,13 +1784,13 @@
         <v>8</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>83</v>
       </c>
       <c r="E52" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G52" s="1">
         <v>43481</v>
@@ -1804,13 +1801,13 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G53" s="1">
         <v>42603</v>
@@ -1821,13 +1818,13 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>119</v>
-      </c>
       <c r="E54" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G54" s="1">
         <v>42602</v>
@@ -1838,13 +1835,13 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G55" s="1">
         <v>44151</v>
@@ -1852,16 +1849,16 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B56" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>110</v>
       </c>
       <c r="E56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G56" s="1">
         <v>43398</v>
@@ -1872,7 +1869,7 @@
         <v>103</v>
       </c>
       <c r="B57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>110</v>
@@ -1884,7 +1881,7 @@
         <v>22</v>
       </c>
       <c r="F57" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -1892,16 +1889,16 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>83</v>
       </c>
       <c r="E58" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G58" s="1">
         <v>43735</v>
@@ -1912,7 +1909,7 @@
         <v>78</v>
       </c>
       <c r="B59" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -1920,7 +1917,7 @@
         <v>78</v>
       </c>
       <c r="B60" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -1928,7 +1925,7 @@
         <v>78</v>
       </c>
       <c r="B61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -1936,19 +1933,19 @@
         <v>43</v>
       </c>
       <c r="B62" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E62" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G62" s="1">
         <v>44289</v>
       </c>
       <c r="H62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/090f7abe46c7f02e/GitHub/ccl_cv/cv_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="423" documentId="8_{3C60B927-0EE2-4B7C-9027-A4F1E1D2035A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B81C0B63-86C7-4402-BF0C-8ED995AAD812}"/>
+  <xr:revisionPtr revIDLastSave="442" documentId="8_{3C60B927-0EE2-4B7C-9027-A4F1E1D2035A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BEF0E644-4221-4F81-8AC0-9BE8258A2929}"/>
   <bookViews>
-    <workbookView xWindow="11340" yWindow="2940" windowWidth="23520" windowHeight="15600" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
+    <workbookView xWindow="39870" yWindow="0" windowWidth="23520" windowHeight="15600" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="156">
   <si>
     <t>type</t>
   </si>
@@ -475,6 +475,24 @@
   </si>
   <si>
     <t>9 terms</t>
+  </si>
+  <si>
+    <t>Research Fellowship</t>
+  </si>
+  <si>
+    <t>Nuffield College, University of Oxford</t>
+  </si>
+  <si>
+    <t>appointments</t>
+  </si>
+  <si>
+    <t>Center for Social Investigation, Nuffield College, University of Oxford</t>
+  </si>
+  <si>
+    <t>Postdoctoral Researcher</t>
+  </si>
+  <si>
+    <t>Research Fellow</t>
   </si>
 </sst>
 </file>
@@ -861,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1946,6 +1964,57 @@
       </c>
       <c r="H62" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" t="s">
+        <v>150</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>152</v>
+      </c>
+      <c r="B64" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E64" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>152</v>
+      </c>
+      <c r="B65" t="s">
+        <v>155</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E65" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/090f7abe46c7f02e/GitHub/ccl_cv/cv_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="442" documentId="8_{3C60B927-0EE2-4B7C-9027-A4F1E1D2035A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BEF0E644-4221-4F81-8AC0-9BE8258A2929}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCBADBA-22F0-4E92-8E20-8929C2D1FFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39870" yWindow="0" windowWidth="23520" windowHeight="15600" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="165">
   <si>
     <t>type</t>
   </si>
@@ -493,6 +493,33 @@
   </si>
   <si>
     <t>Research Fellow</t>
+  </si>
+  <si>
+    <t>https://www.npr.org/2022/01/24/1074577305/homeless-crime-experts</t>
+  </si>
+  <si>
+    <t>Homeless camps are often blamed for crime but experts say it's not so simple</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>NPR</t>
+  </si>
+  <si>
+    <t>skill</t>
+  </si>
+  <si>
+    <t>Hooshin</t>
+  </si>
+  <si>
+    <t>Whooshin, wahin, also booshin</t>
+  </si>
+  <si>
+    <t>Shoop</t>
+  </si>
+  <si>
+    <t>shooop shoop shooooop</t>
   </si>
 </sst>
 </file>
@@ -879,21 +906,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="44.85546875" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="5"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.83984375" customWidth="1"/>
+    <col min="3" max="4" width="9.15625" style="5"/>
+    <col min="6" max="6" width="9.68359375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -919,7 +946,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -936,7 +963,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -956,7 +983,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -976,7 +1003,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -996,7 +1023,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1016,7 +1043,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1036,7 +1063,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -1059,7 +1086,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -1082,7 +1109,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1099,7 +1126,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1116,7 +1143,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1133,7 +1160,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1147,7 +1174,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1164,7 +1191,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1181,7 +1208,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1195,7 +1222,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1209,7 +1236,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1226,7 +1253,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1243,7 +1270,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1260,7 +1287,7 @@
         <v>42690</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1277,7 +1304,7 @@
         <v>42460</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1294,7 +1321,7 @@
         <v>41963</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1311,7 +1338,7 @@
         <v>41661</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1328,7 +1355,7 @@
         <v>42459</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -1348,7 +1375,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -1368,7 +1395,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -1388,7 +1415,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -1405,7 +1432,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -1422,7 +1449,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -1439,7 +1466,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -1456,7 +1483,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>59</v>
       </c>
@@ -1473,7 +1500,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>59</v>
       </c>
@@ -1490,7 +1517,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -1507,7 +1534,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -1524,7 +1551,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>59</v>
       </c>
@@ -1541,7 +1568,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -1550,7 +1577,7 @@
       </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -1564,7 +1591,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>82</v>
       </c>
@@ -1581,7 +1608,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -1601,7 +1628,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -1618,7 +1645,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -1635,7 +1662,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -1655,7 +1682,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -1675,7 +1702,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -1692,7 +1719,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -1709,7 +1736,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>103</v>
       </c>
@@ -1726,7 +1753,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>103</v>
       </c>
@@ -1746,7 +1773,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>103</v>
       </c>
@@ -1766,7 +1793,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>25</v>
       </c>
@@ -1780,7 +1807,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1797,7 +1824,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -1814,7 +1841,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -1831,7 +1858,7 @@
         <v>42603</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -1848,7 +1875,7 @@
         <v>42602</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -1865,7 +1892,7 @@
         <v>44151</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>121</v>
       </c>
@@ -1882,7 +1909,7 @@
         <v>43398</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>103</v>
       </c>
@@ -1902,7 +1929,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -1922,7 +1949,7 @@
         <v>43735</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>78</v>
       </c>
@@ -1930,7 +1957,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>78</v>
       </c>
@@ -1938,7 +1965,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>78</v>
       </c>
@@ -1946,7 +1973,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>43</v>
       </c>
@@ -1966,7 +1993,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>25</v>
       </c>
@@ -1983,7 +2010,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>152</v>
       </c>
@@ -2000,7 +2027,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>152</v>
       </c>
@@ -2015,6 +2042,48 @@
       </c>
       <c r="E65" t="s">
         <v>151</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" t="s">
+        <v>43</v>
+      </c>
+      <c r="B66" t="s">
+        <v>157</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E66" t="s">
+        <v>159</v>
+      </c>
+      <c r="G66" s="1">
+        <v>44585</v>
+      </c>
+      <c r="H66" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" t="s">
+        <v>160</v>
+      </c>
+      <c r="B67" t="s">
+        <v>161</v>
+      </c>
+      <c r="F67" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" t="s">
+        <v>160</v>
+      </c>
+      <c r="B68" t="s">
+        <v>163</v>
+      </c>
+      <c r="F68" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCBADBA-22F0-4E92-8E20-8929C2D1FFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB4230A-ADB7-4916-A22B-ACB2F2745C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="161">
   <si>
     <t>type</t>
   </si>
@@ -507,19 +507,7 @@
     <t>NPR</t>
   </si>
   <si>
-    <t>skill</t>
-  </si>
-  <si>
-    <t>Hooshin</t>
-  </si>
-  <si>
-    <t>Whooshin, wahin, also booshin</t>
-  </si>
-  <si>
-    <t>Shoop</t>
-  </si>
-  <si>
-    <t>shooop shoop shooooop</t>
+    <t>Justice Quarterly</t>
   </si>
 </sst>
 </file>
@@ -906,10 +894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2066,24 +2054,10 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67" t="s">
         <v>160</v>
-      </c>
-      <c r="B67" t="s">
-        <v>161</v>
-      </c>
-      <c r="F67" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" t="s">
-        <v>160</v>
-      </c>
-      <c r="B68" t="s">
-        <v>163</v>
-      </c>
-      <c r="F68" t="s">
-        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/090f7abe46c7f02e/GitHub/ccl_cv/cv_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB4230A-ADB7-4916-A22B-ACB2F2745C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{EAB4230A-ADB7-4916-A22B-ACB2F2745C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DEE1BF3-E0A4-47F3-8006-273E67DA21CC}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="36105" windowHeight="15435" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -896,19 +896,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="44.83984375" customWidth="1"/>
-    <col min="3" max="4" width="9.15625" style="5"/>
-    <col min="6" max="6" width="9.68359375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.85546875" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="5"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -934,7 +934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -951,7 +951,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -971,7 +971,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -991,7 +991,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>42690</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>42460</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>41963</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>41661</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>42459</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>59</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>59</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>59</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>82</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>103</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>103</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>103</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>25</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>42603</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>42602</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>44151</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>121</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>43398</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>103</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>43735</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>78</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>78</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>78</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>43</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>25</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>152</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>152</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>43</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>78</v>
       </c>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/090f7abe46c7f02e/GitHub/ccl_cv/cv_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{EAB4230A-ADB7-4916-A22B-ACB2F2745C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DEE1BF3-E0A4-47F3-8006-273E67DA21CC}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{EAB4230A-ADB7-4916-A22B-ACB2F2745C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FADF515-1F68-4E04-BD37-D1D4BDE0651A}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="36105" windowHeight="15435" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="162">
   <si>
     <t>type</t>
   </si>
@@ -508,6 +508,9 @@
   </si>
   <si>
     <t>Justice Quarterly</t>
+  </si>
+  <si>
+    <t>Jun 2021</t>
   </si>
 </sst>
 </file>
@@ -896,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1465,7 +1468,7 @@
         <v>61</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>62</v>
+        <v>161</v>
       </c>
       <c r="E31" t="s">
         <v>22</v>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/090f7abe46c7f02e/GitHub/ccl_cv/cv_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{EAB4230A-ADB7-4916-A22B-ACB2F2745C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FADF515-1F68-4E04-BD37-D1D4BDE0651A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B4A8E6-AFD0-4FE4-8883-B194D53B884B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="36105" windowHeight="15435" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
+    <workbookView xWindow="0" yWindow="3120" windowWidth="36105" windowHeight="15435" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="167">
   <si>
     <t>type</t>
   </si>
@@ -511,6 +511,21 @@
   </si>
   <si>
     <t>Jun 2021</t>
+  </si>
+  <si>
+    <t>Institute of Criminology, University of Cambridge</t>
+  </si>
+  <si>
+    <t>Associate</t>
+  </si>
+  <si>
+    <t>Department of Sociology, Harvard University</t>
+  </si>
+  <si>
+    <t>Apr 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University Assistant Professor (Beginning Sep. 2022) </t>
   </si>
 </sst>
 </file>
@@ -897,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2061,6 +2076,37 @@
       </c>
       <c r="B67" t="s">
         <v>160</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>152</v>
+      </c>
+      <c r="B68" t="s">
+        <v>166</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E68" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>59</v>
+      </c>
+      <c r="B69" t="s">
+        <v>163</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E69" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B4A8E6-AFD0-4FE4-8883-B194D53B884B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7661CADA-827A-42BD-8EE5-437BD06401CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3120" windowWidth="36105" windowHeight="15435" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
+    <workbookView xWindow="3240" yWindow="2070" windowWidth="26850" windowHeight="16905" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="169">
   <si>
     <t>type</t>
   </si>
@@ -105,15 +105,9 @@
     <t>grants_and_awards</t>
   </si>
   <si>
-    <t>Master of Public Policy</t>
-  </si>
-  <si>
     <t>Oregon State University</t>
   </si>
   <si>
-    <t>Master of Arts in Sociology</t>
-  </si>
-  <si>
     <t>Distinguished Master's Thesis Award - Social Sciences</t>
   </si>
   <si>
@@ -195,9 +189,6 @@
     <t>teaching</t>
   </si>
   <si>
-    <t>PhD in Sociology</t>
-  </si>
-  <si>
     <t>https://nbc16.com/news/local/study-aims-to-help-id-mental-health-issues-that-take-up-police-time</t>
   </si>
   <si>
@@ -525,7 +516,22 @@
     <t>Apr 2022</t>
   </si>
   <si>
-    <t xml:space="preserve">University Assistant Professor (Beginning Sep. 2022) </t>
+    <t>Assistant Professor</t>
+  </si>
+  <si>
+    <t>MPP, Public Policy</t>
+  </si>
+  <si>
+    <t>MA, Sociology</t>
+  </si>
+  <si>
+    <t>PhD, Sociology</t>
+  </si>
+  <si>
+    <t>BA, Sociology</t>
+  </si>
+  <si>
+    <t>2010</t>
   </si>
 </sst>
 </file>
@@ -912,17 +918,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="44.85546875" customWidth="1"/>
     <col min="3" max="4" width="9.140625" style="5"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5703125" customWidth="1"/>
+    <col min="6" max="6" width="43.28515625" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -963,7 +970,7 @@
         <v>2019</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G2" s="1">
         <v>43608</v>
@@ -971,7 +978,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -980,7 +987,7 @@
         <v>2019</v>
       </c>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G3" s="1">
         <v>43616</v>
@@ -1000,7 +1007,7 @@
         <v>2018</v>
       </c>
       <c r="E4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G4" s="1">
         <v>43384</v>
@@ -1020,7 +1027,7 @@
         <v>2019</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G5" s="1">
         <v>43580</v>
@@ -1040,7 +1047,7 @@
         <v>2019</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G6" s="1">
         <v>43496</v>
@@ -1060,7 +1067,7 @@
         <v>2018</v>
       </c>
       <c r="E7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G7" s="1">
         <v>43399</v>
@@ -1071,22 +1078,22 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>23</v>
@@ -1094,25 +1101,25 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C9" s="5">
         <v>2020</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E9" t="s">
         <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1120,16 +1127,16 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>164</v>
       </c>
       <c r="C10" s="5">
         <v>2013</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1137,7 +1144,7 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>165</v>
       </c>
       <c r="C11" s="5">
         <v>2017</v>
@@ -1146,7 +1153,7 @@
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1154,16 +1161,16 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>166</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E12" t="s">
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1171,10 +1178,10 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E13" t="s">
         <v>22</v>
@@ -1185,7 +1192,7 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C14" s="5">
         <v>2017</v>
@@ -1194,7 +1201,7 @@
         <v>2018</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1202,7 +1209,7 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="5">
         <v>2018</v>
@@ -1211,7 +1218,7 @@
         <v>2019</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1219,13 +1226,13 @@
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" s="5">
         <v>2014</v>
       </c>
       <c r="E16" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1233,13 +1240,13 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" s="5">
         <v>2017</v>
       </c>
       <c r="E17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1247,7 +1254,7 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C18" s="5">
         <v>2012</v>
@@ -1256,7 +1263,7 @@
         <v>2013</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1264,7 +1271,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C19" s="5">
         <v>2011</v>
@@ -1273,7 +1280,7 @@
         <v>2012</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1281,13 +1288,13 @@
         <v>8</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20" s="5">
         <v>2016</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G20" s="1">
         <v>42690</v>
@@ -1298,13 +1305,13 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21" s="5">
         <v>2016</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G21" s="1">
         <v>42460</v>
@@ -1315,13 +1322,13 @@
         <v>8</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C22" s="5">
         <v>2014</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G22" s="1">
         <v>41963</v>
@@ -1332,13 +1339,13 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5">
         <v>2014</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G23" s="1">
         <v>41661</v>
@@ -1349,13 +1356,13 @@
         <v>19</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C24" s="5">
         <v>2016</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G24" s="1">
         <v>42459</v>
@@ -1363,70 +1370,70 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C25" s="5">
         <v>2016</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G25" s="1">
         <v>42654</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C26" s="5">
         <v>2016</v>
       </c>
       <c r="E26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G26" s="1">
         <v>42467</v>
       </c>
       <c r="H26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C27" s="5">
         <v>2015</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G27" s="1">
         <v>42051</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C28" s="5">
         <v>2018</v>
@@ -1435,15 +1442,15 @@
         <v>2019</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C29" s="5">
         <v>2015</v>
@@ -1452,15 +1459,15 @@
         <v>2018</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C30" s="5">
         <v>2016</v>
@@ -1469,21 +1476,21 @@
         <v>2017</v>
       </c>
       <c r="E30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E31" t="s">
         <v>22</v>
@@ -1491,50 +1498,50 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E34" t="s">
         <v>22</v>
@@ -1542,73 +1549,73 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G39" s="1">
         <v>43783</v>
@@ -1619,53 +1626,53 @@
         <v>19</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G40" s="1">
         <v>43731</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E42" t="s">
         <v>22</v>
       </c>
       <c r="F42" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1673,19 +1680,19 @@
         <v>19</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G43" s="1">
         <v>43939</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -1693,110 +1700,110 @@
         <v>19</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G44" s="1">
         <v>43940</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E47" t="s">
         <v>22</v>
       </c>
       <c r="F47" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="C48" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E48" t="s">
         <v>22</v>
       </c>
       <c r="F48" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E49" t="s">
         <v>22</v>
       </c>
       <c r="F49" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -1804,10 +1811,10 @@
         <v>25</v>
       </c>
       <c r="B50" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E50" t="s">
         <v>22</v>
@@ -1815,16 +1822,16 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E51" t="s">
         <v>22</v>
@@ -1835,13 +1842,13 @@
         <v>8</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E52" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G52" s="1">
         <v>43481</v>
@@ -1852,13 +1859,13 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E53" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G53" s="1">
         <v>42603</v>
@@ -1869,13 +1876,13 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E54" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G54" s="1">
         <v>42602</v>
@@ -1886,13 +1893,13 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E55" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G55" s="1">
         <v>44151</v>
@@ -1900,16 +1907,16 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E56" t="s">
         <v>121</v>
-      </c>
-      <c r="B56" t="s">
-        <v>123</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E56" t="s">
-        <v>124</v>
       </c>
       <c r="G56" s="1">
         <v>43398</v>
@@ -1917,22 +1924,22 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B57" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E57" t="s">
         <v>22</v>
       </c>
       <c r="F57" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -1940,16 +1947,16 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
+        <v>129</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E58" t="s">
         <v>132</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E58" t="s">
-        <v>135</v>
-      </c>
       <c r="F58" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G58" s="1">
         <v>43735</v>
@@ -1957,46 +1964,46 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B59" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B60" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B61" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B62" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E62" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G62" s="1">
         <v>44289</v>
       </c>
       <c r="H62" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -2004,109 +2011,126 @@
         <v>25</v>
       </c>
       <c r="B63" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E63" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B64" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>62</v>
+        <v>155</v>
       </c>
       <c r="E64" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>149</v>
+      </c>
+      <c r="B65" t="s">
         <v>152</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C65" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="E65" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B66" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E66" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G66" s="1">
         <v>44585</v>
       </c>
       <c r="H66" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B67" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B68" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="E68" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>56</v>
+      </c>
+      <c r="B69" t="s">
+        <v>160</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B69" t="s">
-        <v>163</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="E69" t="s">
-        <v>164</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70" t="s">
+        <v>167</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E70" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7661CADA-827A-42BD-8EE5-437BD06401CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364FB944-2B80-4B7E-9911-8529C86A65B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="2070" windowWidth="26850" windowHeight="16905" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
+    <workbookView xWindow="5760" yWindow="2520" windowWidth="26850" windowHeight="16905" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="175">
   <si>
     <t>type</t>
   </si>
@@ -532,6 +532,24 @@
   </si>
   <si>
     <t>2010</t>
+  </si>
+  <si>
+    <t>Journal of Urban Affairs</t>
+  </si>
+  <si>
+    <t>Criminological Research Methods</t>
+  </si>
+  <si>
+    <t>University of Cambridge</t>
+  </si>
+  <si>
+    <t>Introduction to Quantitative Analysis</t>
+  </si>
+  <si>
+    <t>https://clanfear.github.io/ioc_iqa/_site/index.html</t>
+  </si>
+  <si>
+    <t>https://clanfear.github.io/ioc_crm/_site/index.html</t>
   </si>
 </sst>
 </file>
@@ -918,14 +936,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="2" width="44.85546875" customWidth="1"/>
     <col min="3" max="4" width="9.140625" style="5"/>
     <col min="5" max="5" width="42.5703125" customWidth="1"/>
@@ -2017,7 +2036,7 @@
         <v>139</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="E63" t="s">
         <v>148</v>
@@ -2131,6 +2150,54 @@
       </c>
       <c r="E70" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>53</v>
+      </c>
+      <c r="B72" t="s">
+        <v>170</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E72" t="s">
+        <v>171</v>
+      </c>
+      <c r="F72" t="s">
+        <v>55</v>
+      </c>
+      <c r="H72" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>53</v>
+      </c>
+      <c r="B73" t="s">
+        <v>172</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E73" t="s">
+        <v>171</v>
+      </c>
+      <c r="F73" t="s">
+        <v>55</v>
+      </c>
+      <c r="H73" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cl948\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364FB944-2B80-4B7E-9911-8529C86A65B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBA47EC-57B8-45A7-A0B0-A907FEF42319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2520" windowWidth="26850" windowHeight="16905" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
+    <workbookView xWindow="55125" yWindow="8640" windowWidth="28800" windowHeight="15375" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="179">
   <si>
     <t>type</t>
   </si>
@@ -550,13 +550,25 @@
   </si>
   <si>
     <t>https://clanfear.github.io/ioc_crm/_site/index.html</t>
+  </si>
+  <si>
+    <t>Cohort Differences in Gun Use and Exposure to Gun Violence in a 25-year Study of Chicago Children</t>
+  </si>
+  <si>
+    <t>Inequalities in Life-Course Exposure to Gun Violence</t>
+  </si>
+  <si>
+    <t>European Society of Criminology Annual Meeting, Malaga, ES</t>
+  </si>
+  <si>
+    <t>American Society of Criminology Annual Meeting, Atlanta, GA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -590,6 +602,12 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -936,23 +954,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="44.85546875" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="5"/>
-    <col min="5" max="5" width="42.5703125" customWidth="1"/>
-    <col min="6" max="6" width="43.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.81640625" customWidth="1"/>
+    <col min="2" max="2" width="44.81640625" customWidth="1"/>
+    <col min="3" max="4" width="9.1796875" style="5"/>
+    <col min="5" max="5" width="42.54296875" customWidth="1"/>
+    <col min="6" max="6" width="43.26953125" customWidth="1"/>
+    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -978,7 +996,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -995,7 +1013,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -1015,7 +1033,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1035,7 +1053,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1055,7 +1073,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1075,7 +1093,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1095,7 +1113,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -1118,7 +1136,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -1141,7 +1159,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1158,7 +1176,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1175,7 +1193,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1192,7 +1210,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1206,7 +1224,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1223,7 +1241,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1240,7 +1258,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1254,7 +1272,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1268,7 +1286,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1285,7 +1303,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1302,7 +1320,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1319,7 +1337,7 @@
         <v>42690</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1336,7 +1354,7 @@
         <v>42460</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1353,7 +1371,7 @@
         <v>41963</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1370,7 +1388,7 @@
         <v>41661</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1387,7 +1405,7 @@
         <v>42459</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -1407,7 +1425,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -1427,7 +1445,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -1447,7 +1465,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -1464,7 +1482,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -1481,7 +1499,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -1498,7 +1516,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -1515,7 +1533,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -1532,7 +1550,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -1549,7 +1567,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -1566,7 +1584,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>56</v>
       </c>
@@ -1583,7 +1601,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -1600,7 +1618,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>75</v>
       </c>
@@ -1609,7 +1627,7 @@
       </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>50</v>
       </c>
@@ -1623,7 +1641,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>79</v>
       </c>
@@ -1640,7 +1658,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -1660,7 +1678,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -1677,7 +1695,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -1694,7 +1712,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -1714,7 +1732,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -1734,7 +1752,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -1751,7 +1769,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -1768,7 +1786,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>100</v>
       </c>
@@ -1785,7 +1803,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>100</v>
       </c>
@@ -1805,7 +1823,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>100</v>
       </c>
@@ -1825,7 +1843,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>25</v>
       </c>
@@ -1839,7 +1857,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -1856,7 +1874,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -1873,7 +1891,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -1890,7 +1908,7 @@
         <v>42603</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -1907,7 +1925,7 @@
         <v>42602</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -1924,7 +1942,7 @@
         <v>44151</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>118</v>
       </c>
@@ -1941,7 +1959,7 @@
         <v>43398</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>100</v>
       </c>
@@ -1961,7 +1979,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -1981,7 +1999,7 @@
         <v>43735</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>75</v>
       </c>
@@ -1989,7 +2007,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>75</v>
       </c>
@@ -1997,7 +2015,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>75</v>
       </c>
@@ -2005,7 +2023,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>41</v>
       </c>
@@ -2025,7 +2043,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>25</v>
       </c>
@@ -2042,7 +2060,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>149</v>
       </c>
@@ -2059,7 +2077,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>149</v>
       </c>
@@ -2076,7 +2094,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>41</v>
       </c>
@@ -2096,7 +2114,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>75</v>
       </c>
@@ -2104,7 +2122,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>149</v>
       </c>
@@ -2121,7 +2139,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>56</v>
       </c>
@@ -2138,7 +2156,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>24</v>
       </c>
@@ -2152,7 +2170,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -2160,7 +2178,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>53</v>
       </c>
@@ -2180,7 +2198,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>53</v>
       </c>
@@ -2200,7 +2218,59 @@
         <v>173</v>
       </c>
     </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" t="s">
+        <v>176</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E74" t="s">
+        <v>177</v>
+      </c>
+      <c r="G74" s="1">
+        <v>44826</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" t="s">
+        <v>176</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E75" t="s">
+        <v>178</v>
+      </c>
+      <c r="G75" s="1">
+        <v>44883</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" t="s">
+        <v>175</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E76" t="s">
+        <v>177</v>
+      </c>
+      <c r="G76" s="1">
+        <v>44826</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1" xr:uid="{CB0587B7-4C4C-4A73-A760-16C5A96E4F2B}"/>
     <hyperlink ref="H4" r:id="rId2" xr:uid="{A63F16C6-2FCF-4FD0-91D8-8F8DD8E43A3E}"/>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cl948\OneDrive\GitHub\ccl_cv\cv_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBA47EC-57B8-45A7-A0B0-A907FEF42319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0A97A5-E7FD-4937-ADCD-C1F13FF964B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="55125" yWindow="8640" windowWidth="28800" windowHeight="15375" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="180">
   <si>
     <t>type</t>
   </si>
@@ -562,6 +562,9 @@
   </si>
   <si>
     <t>American Society of Criminology Annual Meeting, Atlanta, GA</t>
+  </si>
+  <si>
+    <t>Criminology &amp; Criminal Justice</t>
   </si>
 </sst>
 </file>
@@ -954,23 +957,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.81640625" customWidth="1"/>
-    <col min="2" max="2" width="44.81640625" customWidth="1"/>
-    <col min="3" max="4" width="9.1796875" style="5"/>
-    <col min="5" max="5" width="42.54296875" customWidth="1"/>
-    <col min="6" max="6" width="43.26953125" customWidth="1"/>
-    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="44.85546875" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="5"/>
+    <col min="5" max="5" width="42.5703125" customWidth="1"/>
+    <col min="6" max="6" width="43.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -996,7 +999,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1013,7 +1016,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -1033,7 +1036,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1053,7 +1056,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1073,7 +1076,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1093,7 +1096,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1113,7 +1116,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -1136,7 +1139,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -1159,7 +1162,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1176,7 +1179,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1193,7 +1196,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1210,7 +1213,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1224,7 +1227,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1241,7 +1244,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1258,7 +1261,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1272,7 +1275,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1286,7 +1289,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1303,7 +1306,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1320,7 +1323,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1337,7 +1340,7 @@
         <v>42690</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1354,7 +1357,7 @@
         <v>42460</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1371,7 +1374,7 @@
         <v>41963</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1388,7 +1391,7 @@
         <v>41661</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1405,7 +1408,7 @@
         <v>42459</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -1425,7 +1428,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -1445,7 +1448,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -1465,7 +1468,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -1482,7 +1485,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -1499,7 +1502,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -1516,7 +1519,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -1533,7 +1536,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -1550,7 +1553,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -1567,7 +1570,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -1584,7 +1587,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>56</v>
       </c>
@@ -1601,7 +1604,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -1618,7 +1621,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>75</v>
       </c>
@@ -1627,7 +1630,7 @@
       </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>50</v>
       </c>
@@ -1641,7 +1644,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>79</v>
       </c>
@@ -1658,7 +1661,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -1678,7 +1681,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -1695,7 +1698,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -1712,7 +1715,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -1732,7 +1735,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -1752,7 +1755,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -1769,7 +1772,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -1786,7 +1789,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>100</v>
       </c>
@@ -1803,7 +1806,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>100</v>
       </c>
@@ -1823,7 +1826,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>100</v>
       </c>
@@ -1843,7 +1846,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>25</v>
       </c>
@@ -1857,7 +1860,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -1874,7 +1877,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -1891,7 +1894,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -1908,7 +1911,7 @@
         <v>42603</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -1925,7 +1928,7 @@
         <v>42602</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -1942,7 +1945,7 @@
         <v>44151</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>118</v>
       </c>
@@ -1959,7 +1962,7 @@
         <v>43398</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>100</v>
       </c>
@@ -1979,7 +1982,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -1999,7 +2002,7 @@
         <v>43735</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>75</v>
       </c>
@@ -2007,7 +2010,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>75</v>
       </c>
@@ -2015,7 +2018,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>75</v>
       </c>
@@ -2023,7 +2026,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>41</v>
       </c>
@@ -2043,7 +2046,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>25</v>
       </c>
@@ -2060,7 +2063,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>149</v>
       </c>
@@ -2077,7 +2080,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>149</v>
       </c>
@@ -2094,7 +2097,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>41</v>
       </c>
@@ -2114,7 +2117,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>75</v>
       </c>
@@ -2122,7 +2125,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>149</v>
       </c>
@@ -2139,7 +2142,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>56</v>
       </c>
@@ -2156,7 +2159,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>24</v>
       </c>
@@ -2170,7 +2173,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -2178,7 +2181,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>53</v>
       </c>
@@ -2198,7 +2201,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>53</v>
       </c>
@@ -2218,7 +2221,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -2235,7 +2238,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -2252,7 +2255,7 @@
         <v>44883</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -2267,6 +2270,14 @@
       </c>
       <c r="G76" s="1">
         <v>44826</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0A97A5-E7FD-4937-ADCD-C1F13FF964B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42459D4-81CA-414A-AA36-F5F9EB84D4F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="181">
   <si>
     <t>type</t>
   </si>
@@ -565,6 +565,9 @@
   </si>
   <si>
     <t>Criminology &amp; Criminal Justice</t>
+  </si>
+  <si>
+    <t>European Journal of Criminology</t>
   </si>
 </sst>
 </file>
@@ -957,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2278,6 +2281,14 @@
       </c>
       <c r="B77" t="s">
         <v>179</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>75</v>
+      </c>
+      <c r="B78" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cl948\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42459D4-81CA-414A-AA36-F5F9EB84D4F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6281FE7-97A2-4AF1-BF52-226D4F089939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
+    <workbookView xWindow="57480" yWindow="7980" windowWidth="29040" windowHeight="15720" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="186">
   <si>
     <t>type</t>
   </si>
@@ -568,6 +568,21 @@
   </si>
   <si>
     <t>European Journal of Criminology</t>
+  </si>
+  <si>
+    <t>https://www.columbian.com/news/2023/apr/16/is-homelessness-a-threat-to-public-safety-in-clark-county/</t>
+  </si>
+  <si>
+    <t>The Columbian</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>Is homelessness a threat to public safety in Clark County?</t>
+  </si>
+  <si>
+    <t>Indian Law Review</t>
   </si>
 </sst>
 </file>
@@ -960,23 +975,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="44.85546875" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="5"/>
-    <col min="5" max="5" width="42.5703125" customWidth="1"/>
-    <col min="6" max="6" width="43.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.81640625" customWidth="1"/>
+    <col min="2" max="2" width="44.81640625" customWidth="1"/>
+    <col min="3" max="4" width="9.1796875" style="5"/>
+    <col min="5" max="5" width="42.54296875" customWidth="1"/>
+    <col min="6" max="6" width="43.26953125" customWidth="1"/>
+    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1002,7 +1017,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1019,7 +1034,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -1039,7 +1054,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1059,7 +1074,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1079,7 +1094,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1099,7 +1114,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1119,7 +1134,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -1142,7 +1157,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -1165,7 +1180,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1182,7 +1197,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1199,7 +1214,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1216,7 +1231,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1230,7 +1245,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1247,7 +1262,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1264,7 +1279,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1278,7 +1293,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1292,7 +1307,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1309,7 +1324,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1326,7 +1341,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1343,7 +1358,7 @@
         <v>42690</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1360,7 +1375,7 @@
         <v>42460</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1377,7 +1392,7 @@
         <v>41963</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1394,7 +1409,7 @@
         <v>41661</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1411,7 +1426,7 @@
         <v>42459</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -1431,7 +1446,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -1451,7 +1466,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -1471,7 +1486,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -1488,7 +1503,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -1505,7 +1520,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -1522,7 +1537,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -1539,7 +1554,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -1556,7 +1571,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -1573,7 +1588,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -1590,7 +1605,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>56</v>
       </c>
@@ -1607,7 +1622,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -1624,7 +1639,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>75</v>
       </c>
@@ -1633,7 +1648,7 @@
       </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>50</v>
       </c>
@@ -1647,7 +1662,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>79</v>
       </c>
@@ -1664,7 +1679,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -1684,7 +1699,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -1701,7 +1716,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -1718,7 +1733,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -1738,7 +1753,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -1758,7 +1773,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -1775,7 +1790,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -1792,7 +1807,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>100</v>
       </c>
@@ -1809,7 +1824,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>100</v>
       </c>
@@ -1829,7 +1844,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>100</v>
       </c>
@@ -1849,7 +1864,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>25</v>
       </c>
@@ -1863,7 +1878,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -1880,7 +1895,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -1897,7 +1912,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -1914,7 +1929,7 @@
         <v>42603</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -1931,7 +1946,7 @@
         <v>42602</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -1948,7 +1963,7 @@
         <v>44151</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>118</v>
       </c>
@@ -1965,7 +1980,7 @@
         <v>43398</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>100</v>
       </c>
@@ -1985,7 +2000,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -2005,7 +2020,7 @@
         <v>43735</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>75</v>
       </c>
@@ -2013,7 +2028,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>75</v>
       </c>
@@ -2021,7 +2036,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>75</v>
       </c>
@@ -2029,7 +2044,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>41</v>
       </c>
@@ -2049,7 +2064,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>25</v>
       </c>
@@ -2066,7 +2081,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>149</v>
       </c>
@@ -2083,7 +2098,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>149</v>
       </c>
@@ -2100,7 +2115,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>41</v>
       </c>
@@ -2120,7 +2135,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>75</v>
       </c>
@@ -2128,7 +2143,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>149</v>
       </c>
@@ -2145,7 +2160,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>56</v>
       </c>
@@ -2162,7 +2177,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>24</v>
       </c>
@@ -2176,7 +2191,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -2184,7 +2199,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>53</v>
       </c>
@@ -2204,7 +2219,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>53</v>
       </c>
@@ -2224,7 +2239,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -2241,7 +2256,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -2258,7 +2273,7 @@
         <v>44883</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -2275,7 +2290,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -2283,12 +2298,40 @@
         <v>179</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>75</v>
       </c>
       <c r="B78" t="s">
         <v>180</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>41</v>
+      </c>
+      <c r="B79" t="s">
+        <v>184</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E79" t="s">
+        <v>182</v>
+      </c>
+      <c r="G79" s="1">
+        <v>45032</v>
+      </c>
+      <c r="H79" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>75</v>
+      </c>
+      <c r="B80" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cl948\OneDrive\GitHub\ccl_cv\cv_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6281FE7-97A2-4AF1-BF52-226D4F089939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A214B04B-BC26-4150-88F6-9FE634D6D00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="7980" windowWidth="29040" windowHeight="15720" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="197">
   <si>
     <t>type</t>
   </si>
@@ -351,9 +351,6 @@
     <t>2018</t>
   </si>
   <si>
-    <t>Undergraduate Thesis Co-Advisor: Peter Novello</t>
-  </si>
-  <si>
     <t>Complaints and the Social Control of Homelessness in Seattle</t>
   </si>
   <si>
@@ -583,6 +580,42 @@
   </si>
   <si>
     <t>Indian Law Review</t>
+  </si>
+  <si>
+    <t>Extensive coverage for Lanfear et al. (2023) Inequalities in Exposure to Firearm Violence by Race, Sex, and Birth Cohort From Childhood to Age 40 Years, 1995-2021</t>
+  </si>
+  <si>
+    <t>50+ outlets</t>
+  </si>
+  <si>
+    <t>https://jamanetwork.altmetric.com/details/148084018</t>
+  </si>
+  <si>
+    <t>supervision</t>
+  </si>
+  <si>
+    <t>Peter Novello</t>
+  </si>
+  <si>
+    <t>Julia Campbell</t>
+  </si>
+  <si>
+    <t>Indie Cooper</t>
+  </si>
+  <si>
+    <t>Shreya Chimpiri</t>
+  </si>
+  <si>
+    <t>Francesca Harley</t>
+  </si>
+  <si>
+    <t>Valia Panagiotaropoulou</t>
+  </si>
+  <si>
+    <t>Honors Undergraduate Thesis (Co-Advisor)</t>
+  </si>
+  <si>
+    <t>MPhil</t>
   </si>
 </sst>
 </file>
@@ -975,23 +1008,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.81640625" customWidth="1"/>
-    <col min="2" max="2" width="44.81640625" customWidth="1"/>
-    <col min="3" max="4" width="9.1796875" style="5"/>
-    <col min="5" max="5" width="42.54296875" customWidth="1"/>
-    <col min="6" max="6" width="43.26953125" customWidth="1"/>
-    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="5"/>
+    <col min="5" max="5" width="42.5703125" customWidth="1"/>
+    <col min="6" max="6" width="43.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1017,7 +1050,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1028,15 +1061,15 @@
         <v>2019</v>
       </c>
       <c r="E2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G2" s="1">
         <v>43608</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -1045,7 +1078,7 @@
         <v>2019</v>
       </c>
       <c r="E3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G3" s="1">
         <v>43616</v>
@@ -1054,7 +1087,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1065,7 +1098,7 @@
         <v>2018</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G4" s="1">
         <v>43384</v>
@@ -1074,7 +1107,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1085,7 +1118,7 @@
         <v>2019</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G5" s="1">
         <v>43580</v>
@@ -1094,7 +1127,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1105,7 +1138,7 @@
         <v>2019</v>
       </c>
       <c r="E6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G6" s="1">
         <v>43496</v>
@@ -1114,7 +1147,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1125,7 +1158,7 @@
         <v>2018</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G7" s="1">
         <v>43399</v>
@@ -1134,7 +1167,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -1145,30 +1178,30 @@
         <v>89</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9" s="5">
         <v>2020</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E9" t="s">
         <v>22</v>
@@ -1180,12 +1213,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="5">
         <v>2013</v>
@@ -1194,15 +1227,15 @@
         <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C11" s="5">
         <v>2017</v>
@@ -1211,27 +1244,27 @@
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E12" t="s">
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1245,12 +1278,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C14" s="5">
         <v>2017</v>
@@ -1262,7 +1295,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1279,7 +1312,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1290,10 +1323,10 @@
         <v>2014</v>
       </c>
       <c r="E16" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1304,10 +1337,10 @@
         <v>2017</v>
       </c>
       <c r="E17" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1324,7 +1357,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1341,7 +1374,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1358,7 +1391,7 @@
         <v>42690</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1375,7 +1408,7 @@
         <v>42460</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1386,13 +1419,13 @@
         <v>2014</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G22" s="1">
         <v>41963</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1403,13 +1436,13 @@
         <v>2014</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G23" s="1">
         <v>41661</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1426,7 +1459,7 @@
         <v>42459</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -1446,7 +1479,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -1466,7 +1499,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -1486,7 +1519,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -1503,7 +1536,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -1520,7 +1553,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -1537,7 +1570,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -1548,13 +1581,13 @@
         <v>58</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -1568,10 +1601,10 @@
         <v>63</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -1588,7 +1621,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -1605,7 +1638,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>56</v>
       </c>
@@ -1622,7 +1655,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -1639,7 +1672,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>75</v>
       </c>
@@ -1648,7 +1681,7 @@
       </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>50</v>
       </c>
@@ -1662,7 +1695,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>79</v>
       </c>
@@ -1673,13 +1706,13 @@
         <v>80</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G39" s="1">
         <v>43783</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -1690,7 +1723,7 @@
         <v>80</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G40" s="1">
         <v>43731</v>
@@ -1699,7 +1732,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -1713,10 +1746,10 @@
         <v>85</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -1733,7 +1766,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -1744,7 +1777,7 @@
         <v>90</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G43" s="1">
         <v>43939</v>
@@ -1753,7 +1786,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -1764,7 +1797,7 @@
         <v>90</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G44" s="1">
         <v>43940</v>
@@ -1773,7 +1806,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -1787,10 +1820,10 @@
         <v>95</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -1807,7 +1840,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>100</v>
       </c>
@@ -1824,7 +1857,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>100</v>
       </c>
@@ -1844,7 +1877,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>100</v>
       </c>
@@ -1864,7 +1897,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>25</v>
       </c>
@@ -1878,15 +1911,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>188</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>90</v>
@@ -1894,98 +1924,101 @@
       <c r="E51" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F51" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>8</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>80</v>
       </c>
       <c r="E52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G52" s="1">
         <v>43481</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E53" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G53" s="1">
         <v>42603</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>8</v>
       </c>
       <c r="B54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>115</v>
-      </c>
       <c r="E54" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G54" s="1">
         <v>42602</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G55" s="1">
         <v>44151</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B56" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E56" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G56" s="1">
         <v>43398</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>100</v>
       </c>
       <c r="B57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>107</v>
@@ -1997,341 +2030,443 @@
         <v>22</v>
       </c>
       <c r="F57" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>80</v>
       </c>
       <c r="E58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G58" s="1">
         <v>43735</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>75</v>
       </c>
       <c r="B59" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>75</v>
       </c>
       <c r="B60" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>75</v>
       </c>
       <c r="B61" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>41</v>
       </c>
       <c r="B62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E62" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G62" s="1">
         <v>44289</v>
       </c>
       <c r="H62" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>25</v>
       </c>
       <c r="B63" t="s">
+        <v>146</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E63" t="s">
         <v>147</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E63" t="s">
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+      <c r="B64" t="s">
+        <v>150</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E64" t="s">
         <v>149</v>
       </c>
-      <c r="B64" t="s">
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>148</v>
+      </c>
+      <c r="B65" t="s">
         <v>151</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E64" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>149</v>
-      </c>
-      <c r="B65" t="s">
-        <v>152</v>
-      </c>
       <c r="C65" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E65" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>41</v>
       </c>
       <c r="B66" t="s">
+        <v>153</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="E66" t="s">
         <v>155</v>
-      </c>
-      <c r="E66" t="s">
-        <v>156</v>
       </c>
       <c r="G66" s="1">
         <v>44585</v>
       </c>
       <c r="H66" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>75</v>
       </c>
       <c r="B67" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B68" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E68" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>56</v>
       </c>
       <c r="B69" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E69" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>24</v>
       </c>
       <c r="B70" t="s">
+        <v>166</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>167</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>168</v>
       </c>
       <c r="E70" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>75</v>
       </c>
       <c r="B71" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>53</v>
       </c>
       <c r="B72" t="s">
+        <v>169</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E72" t="s">
         <v>170</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E72" t="s">
-        <v>171</v>
       </c>
       <c r="F72" t="s">
         <v>55</v>
       </c>
       <c r="H72" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>53</v>
       </c>
       <c r="B73" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E73" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F73" t="s">
         <v>55</v>
       </c>
       <c r="H73" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>8</v>
       </c>
       <c r="B74" t="s">
+        <v>175</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E74" t="s">
         <v>176</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E74" t="s">
-        <v>177</v>
       </c>
       <c r="G74" s="1">
         <v>44826</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E75" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G75" s="1">
         <v>44883</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E76" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G76" s="1">
         <v>44826</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>41</v>
       </c>
       <c r="B79" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E79" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G79" s="1">
         <v>45032</v>
       </c>
       <c r="H79" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>75</v>
       </c>
       <c r="B80" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>41</v>
+      </c>
+      <c r="B81" t="s">
         <v>185</v>
+      </c>
+      <c r="E81" t="s">
+        <v>186</v>
+      </c>
+      <c r="G81" s="1">
+        <v>45055</v>
+      </c>
+      <c r="H81" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>188</v>
+      </c>
+      <c r="B82" t="s">
+        <v>190</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E82" t="s">
+        <v>170</v>
+      </c>
+      <c r="F82" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>188</v>
+      </c>
+      <c r="B83" t="s">
+        <v>191</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E83" t="s">
+        <v>170</v>
+      </c>
+      <c r="F83" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>188</v>
+      </c>
+      <c r="B84" t="s">
+        <v>192</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E84" t="s">
+        <v>170</v>
+      </c>
+      <c r="F84" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>188</v>
+      </c>
+      <c r="B85" t="s">
+        <v>194</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E85" t="s">
+        <v>170</v>
+      </c>
+      <c r="F85" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>188</v>
+      </c>
+      <c r="B86" t="s">
+        <v>193</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A214B04B-BC26-4150-88F6-9FE634D6D00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA18E54-5178-4FC3-A6EE-3B9842152E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="202">
   <si>
     <t>type</t>
   </si>
@@ -616,6 +616,21 @@
   </si>
   <si>
     <t>MPhil</t>
+  </si>
+  <si>
+    <t>Admissions Committee</t>
+  </si>
+  <si>
+    <t>Risk Assessment Committee</t>
+  </si>
+  <si>
+    <t>Associate Member</t>
+  </si>
+  <si>
+    <t>Aug 2022</t>
+  </si>
+  <si>
+    <t>affiliation</t>
   </si>
 </sst>
 </file>
@@ -1008,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F84" sqref="F84"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2195,7 +2210,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>56</v>
+        <v>201</v>
       </c>
       <c r="B69" t="s">
         <v>159</v>
@@ -2467,6 +2482,51 @@
       </c>
       <c r="F86" t="s">
         <v>196</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>50</v>
+      </c>
+      <c r="B87" t="s">
+        <v>197</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E87" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>50</v>
+      </c>
+      <c r="B88" t="s">
+        <v>198</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E88" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>201</v>
+      </c>
+      <c r="B89" t="s">
+        <v>199</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E89" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA18E54-5178-4FC3-A6EE-3B9842152E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC949B2-152A-482C-8685-3FC7822F1804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="213">
   <si>
     <t>type</t>
   </si>
@@ -87,9 +87,6 @@
     <t>workshop</t>
   </si>
   <si>
-    <t>Disorder and Social Control</t>
-  </si>
-  <si>
     <t>https://clanfear.github.io/SocSem_102618/SNCP_SocSem_102618.html#1</t>
   </si>
   <si>
@@ -129,24 +126,12 @@
     <t>Laurels Graduate Scholarship</t>
   </si>
   <si>
-    <t>Disorder in the Neighborhood: A Large-Scale Field Experiment on Disorder, Norm Violation, and Pro-Social Behavior</t>
-  </si>
-  <si>
     <t>American Society of Criminology Annual Meeting, New Orleans, LA</t>
   </si>
   <si>
-    <t>Neighborhood Change and Formal Social Control: Enforcing Racial Social Control through Calls to the Police in Stable &amp; Changing Neighborhoods</t>
-  </si>
-  <si>
     <t>Population Association of America Annual Meeting, Washington, D.C.</t>
   </si>
   <si>
-    <t>Frequent Flyers and Civil Commitment: Repeat Police Contacts with Mentally Ill Suspects</t>
-  </si>
-  <si>
-    <t>Police Contacts with People with Mental Illness in Benton County</t>
-  </si>
-  <si>
     <t>Collecting and Analyzing Facebook Data</t>
   </si>
   <si>
@@ -270,9 +255,6 @@
     <t>2019</t>
   </si>
   <si>
-    <t>Disorder and Social Control: Experimental Evidence on Prosocial and Antisocial Behavior</t>
-  </si>
-  <si>
     <t>Exposure to R (Full Day Workshop)</t>
   </si>
   <si>
@@ -351,9 +333,6 @@
     <t>2018</t>
   </si>
   <si>
-    <t>Complaints and the Social Control of Homelessness in Seattle</t>
-  </si>
-  <si>
     <t>American Society of Criminology Annual Meeting, San Francisco, CA</t>
   </si>
   <si>
@@ -366,24 +345,15 @@
     <t>Society for the Study of Social Problems Annual Meeting, Seattle, WA</t>
   </si>
   <si>
-    <t>Racial and Social Control in Changing Neighborhoods: Who Complains to the Police and Why It Matters</t>
-  </si>
-  <si>
     <t>2016</t>
   </si>
   <si>
-    <t>Formal Social Control in Changing Seattle Neighborhoods</t>
-  </si>
-  <si>
     <t>Criminology (SOC371)</t>
   </si>
   <si>
     <t>lecture</t>
   </si>
   <si>
-    <t>Property Crime, Fear of Crime, and Social Control of Homelessness in Seattle</t>
-  </si>
-  <si>
     <t>Research Practices: Organization, Tools, and Reproducibility</t>
   </si>
   <si>
@@ -411,9 +381,6 @@
     <t>Thesis: Exploring a Mental Health Crisis: An Examination of Mental Health Arrests in Benton County, OR</t>
   </si>
   <si>
-    <t>Searching for the Center</t>
-  </si>
-  <si>
     <t>with SM Karceski</t>
   </si>
   <si>
@@ -549,12 +516,6 @@
     <t>https://clanfear.github.io/ioc_crm/_site/index.html</t>
   </si>
   <si>
-    <t>Cohort Differences in Gun Use and Exposure to Gun Violence in a 25-year Study of Chicago Children</t>
-  </si>
-  <si>
-    <t>Inequalities in Life-Course Exposure to Gun Violence</t>
-  </si>
-  <si>
     <t>European Society of Criminology Annual Meeting, Malaga, ES</t>
   </si>
   <si>
@@ -631,6 +592,78 @@
   </si>
   <si>
     <t>affiliation</t>
+  </si>
+  <si>
+    <t>Journal of Quantitative Criminology</t>
+  </si>
+  <si>
+    <t>Journal of Criminology</t>
+  </si>
+  <si>
+    <t>European Society of Criminology Annual Meeting, Florence, IT</t>
+  </si>
+  <si>
+    <t>American Society of Criminology Annual Meeting, Philadelphia, PA</t>
+  </si>
+  <si>
+    <t>Gun carrying over the life course: Onset, continuity, and exposure to gun violence from adolescence to early adulthood</t>
+  </si>
+  <si>
+    <t>The Criminology Academy Podcast</t>
+  </si>
+  <si>
+    <t>Episode 77. Community Violence, Context, and Reproducibility with Charles Lanfear</t>
+  </si>
+  <si>
+    <t>https://thecriminologyacademy.com/episode-77-lanfear/</t>
+  </si>
+  <si>
+    <t>Commentary on Lewiston, ME mass shooting</t>
+  </si>
+  <si>
+    <t>Sky News Today with Samantha Washington</t>
+  </si>
+  <si>
+    <t>A micro theory of crime opportunities: Symbolic interaction among motivated offenders, suitable targets, and capable guardians</t>
+  </si>
+  <si>
+    <t>Cohort differences in gun use and exposure to gun violence in a 25-year study of Chicago children</t>
+  </si>
+  <si>
+    <t>Inequalities in life course exposure to gun violence</t>
+  </si>
+  <si>
+    <t>Property crime, fear of crime, and social control of homelessness in Seattle</t>
+  </si>
+  <si>
+    <t>Racial and social control in changing neighborhoods: Who complains to the police and why it matters</t>
+  </si>
+  <si>
+    <t>Formal social control in changing Seattle neighborhoods</t>
+  </si>
+  <si>
+    <t>Complaints and the social control of homelessness in Seattle</t>
+  </si>
+  <si>
+    <t>Police contacts with people with mental illness in Benton County</t>
+  </si>
+  <si>
+    <t>Frequent flyers and civil commitment: Repeat police contacts with mentally ill suspects</t>
+  </si>
+  <si>
+    <t>Neighborhood change and formal social control: Enforcing racial social control through calls to the police in stable &amp; changing neighborhoods</t>
+  </si>
+  <si>
+    <t>Disorder in the neighborhood: A large-scale field experiment on disorder, norm violation, and pro-social behavior</t>
+  </si>
+  <si>
+    <t>Disorder and social control</t>
+  </si>
+  <si>
+    <t>Searching for the center</t>
+  </si>
+  <si>
+    <t>Disorder and social control: Experimental evidence on prosocial and antisocial behavior</t>
   </si>
 </sst>
 </file>
@@ -1023,23 +1056,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="57.5703125" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="5"/>
-    <col min="5" max="5" width="42.5703125" customWidth="1"/>
-    <col min="6" max="6" width="43.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83984375" customWidth="1"/>
+    <col min="2" max="2" width="57.578125" customWidth="1"/>
+    <col min="3" max="4" width="9.15625" style="5"/>
+    <col min="5" max="5" width="42.578125" customWidth="1"/>
+    <col min="6" max="6" width="43.26171875" customWidth="1"/>
+    <col min="7" max="7" width="10.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1065,7 +1098,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1076,15 +1109,15 @@
         <v>2019</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="G2" s="1">
         <v>43608</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -1093,7 +1126,7 @@
         <v>2019</v>
       </c>
       <c r="E3" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="G3" s="1">
         <v>43616</v>
@@ -1102,7 +1135,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1113,7 +1146,7 @@
         <v>2018</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="G4" s="1">
         <v>43384</v>
@@ -1122,7 +1155,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1133,7 +1166,7 @@
         <v>2019</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="G5" s="1">
         <v>43580</v>
@@ -1142,7 +1175,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1153,7 +1186,7 @@
         <v>2019</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="G6" s="1">
         <v>43496</v>
@@ -1162,143 +1195,143 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>210</v>
       </c>
       <c r="C7" s="5">
         <v>2018</v>
       </c>
       <c r="E7" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="G7" s="1">
         <v>43399</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F8" t="s">
-        <v>145</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C9" s="5">
         <v>2020</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C10" s="5">
         <v>2013</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="C11" s="5">
         <v>2017</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C14" s="5">
         <v>2017</v>
@@ -1307,15 +1340,15 @@
         <v>2018</v>
       </c>
       <c r="E14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
       </c>
       <c r="C15" s="5">
         <v>2018</v>
@@ -1324,43 +1357,43 @@
         <v>2019</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="5">
         <v>2014</v>
       </c>
       <c r="E16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="5">
         <v>2017</v>
       </c>
       <c r="E17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="5">
         <v>2012</v>
@@ -1369,15 +1402,15 @@
         <v>2013</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="5">
         <v>2011</v>
@@ -1386,160 +1419,160 @@
         <v>2012</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>34</v>
+        <v>209</v>
       </c>
       <c r="C20" s="5">
         <v>2016</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G20" s="1">
         <v>42690</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>36</v>
+        <v>208</v>
       </c>
       <c r="C21" s="5">
         <v>2016</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G21" s="1">
         <v>42460</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="C22" s="5">
         <v>2014</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G22" s="1">
         <v>41963</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>39</v>
+        <v>206</v>
       </c>
       <c r="C23" s="5">
         <v>2014</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G23" s="1">
         <v>41661</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C24" s="5">
         <v>2016</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G24" s="1">
         <v>42459</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C25" s="5">
         <v>2016</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G25" s="1">
         <v>42654</v>
       </c>
       <c r="H25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C26" s="5">
         <v>2016</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G26" s="1">
         <v>42467</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C27" s="5">
         <v>2015</v>
       </c>
       <c r="E27" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G27" s="1">
         <v>42051</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C28" s="5">
         <v>2018</v>
@@ -1548,15 +1581,15 @@
         <v>2019</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C29" s="5">
         <v>2015</v>
@@ -1565,15 +1598,15 @@
         <v>2018</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C30" s="5">
         <v>2016</v>
@@ -1582,951 +1615,1038 @@
         <v>2017</v>
       </c>
       <c r="E30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="C31" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="4" t="s">
+      <c r="C34" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="5" t="s">
+      <c r="E35" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="5" t="s">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="4" t="s">
+      <c r="D36" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="5" t="s">
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B39" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="E39" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G39" s="1">
         <v>43783</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>19</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="G40" s="1">
         <v>43731</v>
       </c>
       <c r="H40" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>89</v>
-      </c>
       <c r="E42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>19</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="G43" s="1">
         <v>43939</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>19</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="G44" s="1">
         <v>43940</v>
       </c>
       <c r="H44" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" s="5" t="s">
+      <c r="D46" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
         <v>94</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>56</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C46" s="5" t="s">
+      <c r="C47" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E47" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" t="s">
         <v>99</v>
       </c>
-      <c r="D46" s="5" t="s">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="C49" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E49" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" t="s">
         <v>100</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F47" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>100</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F48" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>100</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E49" t="s">
-        <v>22</v>
-      </c>
-      <c r="F49" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>25</v>
-      </c>
-      <c r="B50" t="s">
-        <v>106</v>
-      </c>
       <c r="C50" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E50" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F51" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>8</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>108</v>
+        <v>205</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E52" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="G52" s="1">
         <v>43481</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>115</v>
+        <v>204</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E53" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G53" s="1">
         <v>42603</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E54" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G54" s="1">
         <v>42602</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>118</v>
+        <v>202</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E55" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="G55" s="1">
         <v>44151</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B56" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E56" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="G56" s="1">
         <v>43398</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B57" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F57" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>128</v>
+        <v>211</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E58" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="F58" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="G58" s="1">
         <v>43735</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B59" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B60" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B61" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B62" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="E62" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="G62" s="1">
         <v>44289</v>
       </c>
       <c r="H62" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" t="s">
+        <v>135</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E63" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" t="s">
+        <v>137</v>
+      </c>
+      <c r="B64" t="s">
+        <v>139</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E64" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" t="s">
+        <v>137</v>
+      </c>
+      <c r="B65" t="s">
+        <v>140</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E65" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" t="s">
+        <v>36</v>
+      </c>
+      <c r="B66" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>25</v>
-      </c>
-      <c r="B63" t="s">
-        <v>146</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E63" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>148</v>
-      </c>
-      <c r="B64" t="s">
-        <v>150</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E64" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>148</v>
-      </c>
-      <c r="B65" t="s">
-        <v>151</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E65" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>41</v>
-      </c>
-      <c r="B66" t="s">
-        <v>153</v>
-      </c>
       <c r="C66" s="5" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E66" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="G66" s="1">
         <v>44585</v>
       </c>
       <c r="H66" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B67" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" t="s">
+        <v>137</v>
+      </c>
+      <c r="B68" t="s">
+        <v>151</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E68" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" t="s">
+        <v>188</v>
+      </c>
+      <c r="B69" t="s">
+        <v>148</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E69" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" t="s">
+        <v>23</v>
+      </c>
+      <c r="B70" t="s">
+        <v>155</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>148</v>
-      </c>
-      <c r="B68" t="s">
+      <c r="E70" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" t="s">
+        <v>48</v>
+      </c>
+      <c r="B72" t="s">
+        <v>158</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E72" t="s">
+        <v>159</v>
+      </c>
+      <c r="F72" t="s">
+        <v>99</v>
+      </c>
+      <c r="H72" t="s">
         <v>162</v>
       </c>
-      <c r="C68" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E68" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>201</v>
-      </c>
-      <c r="B69" t="s">
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" t="s">
+        <v>48</v>
+      </c>
+      <c r="B73" t="s">
+        <v>160</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E73" t="s">
         <v>159</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="F73" t="s">
+        <v>99</v>
+      </c>
+      <c r="H73" t="s">
         <v>161</v>
       </c>
-      <c r="D69" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E69" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>24</v>
-      </c>
-      <c r="B70" t="s">
-        <v>166</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="E70" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>75</v>
-      </c>
-      <c r="B71" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>53</v>
-      </c>
-      <c r="B72" t="s">
-        <v>169</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E72" t="s">
-        <v>170</v>
-      </c>
-      <c r="F72" t="s">
-        <v>55</v>
-      </c>
-      <c r="H72" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>53</v>
-      </c>
-      <c r="B73" t="s">
-        <v>171</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E73" t="s">
-        <v>170</v>
-      </c>
-      <c r="F73" t="s">
-        <v>55</v>
-      </c>
-      <c r="H73" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E74" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="G74" s="1">
         <v>44826</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E75" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G75" s="1">
         <v>44883</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E76" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="G76" s="1">
         <v>44826</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B77" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B78" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B79" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="E79" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="G79" s="1">
         <v>45032</v>
       </c>
       <c r="H79" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B80" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B81" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="E81" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="G81" s="1">
         <v>45055</v>
       </c>
       <c r="H81" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" t="s">
+        <v>175</v>
+      </c>
+      <c r="B82" t="s">
+        <v>177</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E82" t="s">
+        <v>159</v>
+      </c>
+      <c r="F82" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" t="s">
+        <v>175</v>
+      </c>
+      <c r="B83" t="s">
+        <v>178</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E83" t="s">
+        <v>159</v>
+      </c>
+      <c r="F83" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" t="s">
+        <v>175</v>
+      </c>
+      <c r="B84" t="s">
+        <v>179</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E84" t="s">
+        <v>159</v>
+      </c>
+      <c r="F84" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" t="s">
+        <v>175</v>
+      </c>
+      <c r="B85" t="s">
+        <v>181</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E85" t="s">
+        <v>159</v>
+      </c>
+      <c r="F85" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" t="s">
+        <v>175</v>
+      </c>
+      <c r="B86" t="s">
+        <v>180</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E86" t="s">
+        <v>159</v>
+      </c>
+      <c r="F86" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" t="s">
+        <v>45</v>
+      </c>
+      <c r="B87" t="s">
+        <v>184</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E87" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" t="s">
+        <v>45</v>
+      </c>
+      <c r="B88" t="s">
+        <v>185</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E88" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" t="s">
+        <v>188</v>
+      </c>
+      <c r="B89" t="s">
+        <v>186</v>
+      </c>
+      <c r="C89" s="5" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>188</v>
-      </c>
-      <c r="B82" t="s">
+      <c r="D89" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E89" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" t="s">
+        <v>70</v>
+      </c>
+      <c r="B90" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" t="s">
+        <v>70</v>
+      </c>
+      <c r="B91" t="s">
         <v>190</v>
       </c>
-      <c r="D82" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E82" t="s">
-        <v>170</v>
-      </c>
-      <c r="F82" t="s">
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" t="s">
+        <v>199</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E92" t="s">
+        <v>191</v>
+      </c>
+      <c r="G92" s="1">
+        <v>45177</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" t="s">
+        <v>193</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E93" t="s">
+        <v>192</v>
+      </c>
+      <c r="G93" s="1">
+        <v>45245</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" t="s">
+        <v>36</v>
+      </c>
+      <c r="B94" t="s">
+        <v>195</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E94" t="s">
+        <v>194</v>
+      </c>
+      <c r="G94" s="1">
+        <v>45124</v>
+      </c>
+      <c r="H94" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>188</v>
-      </c>
-      <c r="B83" t="s">
-        <v>191</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E83" t="s">
-        <v>170</v>
-      </c>
-      <c r="F83" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>188</v>
-      </c>
-      <c r="B84" t="s">
-        <v>192</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E84" t="s">
-        <v>170</v>
-      </c>
-      <c r="F84" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>188</v>
-      </c>
-      <c r="B85" t="s">
-        <v>194</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E85" t="s">
-        <v>170</v>
-      </c>
-      <c r="F85" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>188</v>
-      </c>
-      <c r="B86" t="s">
-        <v>193</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E86" t="s">
-        <v>170</v>
-      </c>
-      <c r="F86" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>50</v>
-      </c>
-      <c r="B87" t="s">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" t="s">
+        <v>36</v>
+      </c>
+      <c r="B95" t="s">
         <v>197</v>
       </c>
-      <c r="D87" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E87" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>50</v>
-      </c>
-      <c r="B88" t="s">
+      <c r="C95" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E95" t="s">
         <v>198</v>
       </c>
-      <c r="D88" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E88" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>201</v>
-      </c>
-      <c r="B89" t="s">
-        <v>199</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E89" t="s">
-        <v>147</v>
+      <c r="G95" s="1">
+        <v>45227</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC949B2-152A-482C-8685-3FC7822F1804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903819E2-3505-434F-A82D-C0AF2B9EE559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="213">
   <si>
     <t>type</t>
   </si>
@@ -1056,23 +1056,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
-  <dimension ref="A1:H95"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.83984375" customWidth="1"/>
-    <col min="2" max="2" width="57.578125" customWidth="1"/>
-    <col min="3" max="4" width="9.15625" style="5"/>
-    <col min="5" max="5" width="42.578125" customWidth="1"/>
-    <col min="6" max="6" width="43.26171875" customWidth="1"/>
-    <col min="7" max="7" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="5"/>
+    <col min="5" max="5" width="42.5703125" customWidth="1"/>
+    <col min="6" max="6" width="43.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>108</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>42690</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>42460</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>41963</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>41661</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>42459</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>74</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>94</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>94</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>175</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>42603</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>42602</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>44151</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>108</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>43398</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>94</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>43735</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>70</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>70</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>70</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>36</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>137</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>137</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>36</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>70</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>137</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>188</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>23</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>48</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>48</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>44883</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>70</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>70</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>36</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>70</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>36</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>175</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>175</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>175</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>175</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>175</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>45</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>45</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>188</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>70</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>70</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>45177</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>45245</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>36</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>36</v>
       </c>
@@ -2647,6 +2647,14 @@
       </c>
       <c r="G95" s="1">
         <v>45227</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>70</v>
+      </c>
+      <c r="B96" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cl948\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903819E2-3505-434F-A82D-C0AF2B9EE559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CAD469-DEB3-405E-87B0-424FCD4FC082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
+    <workbookView xWindow="57480" yWindow="7980" windowWidth="29040" windowHeight="15720" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="214">
   <si>
     <t>type</t>
   </si>
@@ -664,6 +664,9 @@
   </si>
   <si>
     <t>Disorder and social control: Experimental evidence on prosocial and antisocial behavior</t>
+  </si>
+  <si>
+    <t>Demography</t>
   </si>
 </sst>
 </file>
@@ -760,9 +763,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -800,7 +803,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -906,7 +909,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1048,7 +1051,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1056,23 +1059,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="57.5703125" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="5"/>
-    <col min="5" max="5" width="42.5703125" customWidth="1"/>
-    <col min="6" max="6" width="43.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.81640625" customWidth="1"/>
+    <col min="2" max="2" width="57.54296875" customWidth="1"/>
+    <col min="3" max="4" width="9.1796875" style="5"/>
+    <col min="5" max="5" width="42.54296875" customWidth="1"/>
+    <col min="6" max="6" width="43.26953125" customWidth="1"/>
+    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1098,7 +1101,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1115,7 +1118,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>108</v>
       </c>
@@ -1135,7 +1138,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1155,7 +1158,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1175,7 +1178,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1195,7 +1198,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1215,7 +1218,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -1238,7 +1241,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -1261,7 +1264,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1278,7 +1281,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1295,7 +1298,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1312,7 +1315,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1326,7 +1329,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1343,7 +1346,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1360,7 +1363,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1374,7 +1377,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1388,7 +1391,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1405,7 +1408,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1422,7 +1425,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1439,7 +1442,7 @@
         <v>42690</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1456,7 +1459,7 @@
         <v>42460</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1473,7 +1476,7 @@
         <v>41963</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1490,7 +1493,7 @@
         <v>41661</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1507,7 +1510,7 @@
         <v>42459</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -1527,7 +1530,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1547,7 +1550,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -1567,7 +1570,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -1584,7 +1587,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -1601,7 +1604,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -1618,7 +1621,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -1635,7 +1638,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -1652,7 +1655,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -1669,7 +1672,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -1686,7 +1689,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -1703,7 +1706,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -1720,7 +1723,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -1729,7 +1732,7 @@
       </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -1743,7 +1746,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>74</v>
       </c>
@@ -1760,7 +1763,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -1780,7 +1783,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -1797,7 +1800,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -1814,7 +1817,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -1834,7 +1837,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -1854,7 +1857,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -1871,7 +1874,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -1888,7 +1891,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>94</v>
       </c>
@@ -1905,7 +1908,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -1925,7 +1928,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>94</v>
       </c>
@@ -1945,7 +1948,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -1959,7 +1962,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>175</v>
       </c>
@@ -1976,7 +1979,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -1993,7 +1996,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -2010,7 +2013,7 @@
         <v>42603</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -2027,7 +2030,7 @@
         <v>42602</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -2044,7 +2047,7 @@
         <v>44151</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>108</v>
       </c>
@@ -2061,7 +2064,7 @@
         <v>43398</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>94</v>
       </c>
@@ -2081,7 +2084,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -2101,7 +2104,7 @@
         <v>43735</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>70</v>
       </c>
@@ -2109,7 +2112,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>70</v>
       </c>
@@ -2117,7 +2120,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>70</v>
       </c>
@@ -2125,7 +2128,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>36</v>
       </c>
@@ -2145,7 +2148,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -2162,7 +2165,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>137</v>
       </c>
@@ -2179,7 +2182,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>137</v>
       </c>
@@ -2196,7 +2199,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>36</v>
       </c>
@@ -2216,7 +2219,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>70</v>
       </c>
@@ -2224,7 +2227,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>137</v>
       </c>
@@ -2241,7 +2244,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>188</v>
       </c>
@@ -2258,7 +2261,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>23</v>
       </c>
@@ -2272,7 +2275,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -2280,7 +2283,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>48</v>
       </c>
@@ -2300,7 +2303,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>48</v>
       </c>
@@ -2320,7 +2323,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -2337,7 +2340,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -2354,7 +2357,7 @@
         <v>44883</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -2371,7 +2374,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>70</v>
       </c>
@@ -2379,7 +2382,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>70</v>
       </c>
@@ -2387,7 +2390,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>36</v>
       </c>
@@ -2407,7 +2410,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>70</v>
       </c>
@@ -2415,7 +2418,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>36</v>
       </c>
@@ -2432,7 +2435,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>175</v>
       </c>
@@ -2449,7 +2452,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>175</v>
       </c>
@@ -2466,7 +2469,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>175</v>
       </c>
@@ -2483,7 +2486,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>175</v>
       </c>
@@ -2500,7 +2503,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>175</v>
       </c>
@@ -2517,7 +2520,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>45</v>
       </c>
@@ -2531,7 +2534,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>45</v>
       </c>
@@ -2545,7 +2548,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>188</v>
       </c>
@@ -2562,7 +2565,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>70</v>
       </c>
@@ -2570,7 +2573,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>70</v>
       </c>
@@ -2578,7 +2581,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -2595,7 +2598,7 @@
         <v>45177</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -2612,7 +2615,7 @@
         <v>45245</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>36</v>
       </c>
@@ -2632,7 +2635,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>36</v>
       </c>
@@ -2649,12 +2652,20 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>70</v>
       </c>
       <c r="B96" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>70</v>
+      </c>
+      <c r="B97" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cl948\OneDrive\GitHub\ccl_cv\cv_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CAD469-DEB3-405E-87B0-424FCD4FC082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A52F6AF-4B4B-40D7-839A-803E8ADD4D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="7980" windowWidth="29040" windowHeight="15720" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="215">
   <si>
     <t>type</t>
   </si>
@@ -667,6 +667,9 @@
   </si>
   <si>
     <t>Demography</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -1062,20 +1065,20 @@
   <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.81640625" customWidth="1"/>
-    <col min="2" max="2" width="57.54296875" customWidth="1"/>
-    <col min="3" max="4" width="9.1796875" style="5"/>
-    <col min="5" max="5" width="42.54296875" customWidth="1"/>
-    <col min="6" max="6" width="43.26953125" customWidth="1"/>
-    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7890625" customWidth="1"/>
+    <col min="2" max="2" width="57.5234375" customWidth="1"/>
+    <col min="3" max="4" width="9.15625" style="5"/>
+    <col min="5" max="5" width="42.5234375" customWidth="1"/>
+    <col min="6" max="6" width="43.26171875" customWidth="1"/>
+    <col min="7" max="7" width="10.734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1101,7 +1104,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1118,7 +1121,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>108</v>
       </c>
@@ -1138,7 +1141,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1158,7 +1161,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1178,7 +1181,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1198,7 +1201,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1218,7 +1221,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -1241,7 +1244,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -1264,7 +1267,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1281,7 +1284,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1298,7 +1301,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1315,7 +1318,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1329,7 +1332,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1346,7 +1349,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1363,7 +1366,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1377,7 +1380,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1391,7 +1394,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1408,7 +1411,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1425,7 +1428,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1442,7 +1445,7 @@
         <v>42690</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1459,7 +1462,7 @@
         <v>42460</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1476,7 +1479,7 @@
         <v>41963</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1493,7 +1496,7 @@
         <v>41661</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1510,7 +1513,7 @@
         <v>42459</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -1530,7 +1533,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1550,7 +1553,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -1570,7 +1573,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -1587,7 +1590,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -1604,7 +1607,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -1621,7 +1624,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -1638,7 +1641,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -1655,7 +1658,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -1672,7 +1675,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -1689,7 +1692,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -1706,7 +1709,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -1723,7 +1726,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -1732,7 +1735,7 @@
       </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -1746,7 +1749,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>74</v>
       </c>
@@ -1763,7 +1766,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -1783,7 +1786,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -1800,7 +1803,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -1817,7 +1820,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -1837,7 +1840,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -1857,7 +1860,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -1874,7 +1877,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -1891,7 +1894,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>94</v>
       </c>
@@ -1908,7 +1911,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -1928,7 +1931,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>94</v>
       </c>
@@ -1948,7 +1951,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -1962,7 +1965,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>175</v>
       </c>
@@ -1979,7 +1982,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -1996,7 +1999,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -2013,7 +2016,7 @@
         <v>42603</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -2030,7 +2033,7 @@
         <v>42602</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -2047,7 +2050,7 @@
         <v>44151</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>108</v>
       </c>
@@ -2064,7 +2067,7 @@
         <v>43398</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>94</v>
       </c>
@@ -2084,7 +2087,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -2104,7 +2107,7 @@
         <v>43735</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>70</v>
       </c>
@@ -2112,7 +2115,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>70</v>
       </c>
@@ -2120,7 +2123,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>70</v>
       </c>
@@ -2128,7 +2131,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>36</v>
       </c>
@@ -2148,7 +2151,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -2165,7 +2168,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>137</v>
       </c>
@@ -2182,7 +2185,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>137</v>
       </c>
@@ -2199,7 +2202,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>36</v>
       </c>
@@ -2219,7 +2222,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>70</v>
       </c>
@@ -2227,7 +2230,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>137</v>
       </c>
@@ -2244,7 +2247,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>188</v>
       </c>
@@ -2261,7 +2264,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>23</v>
       </c>
@@ -2275,7 +2278,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -2283,7 +2286,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>48</v>
       </c>
@@ -2293,6 +2296,9 @@
       <c r="C72" s="5" t="s">
         <v>143</v>
       </c>
+      <c r="D72" s="5" t="s">
+        <v>169</v>
+      </c>
       <c r="E72" t="s">
         <v>159</v>
       </c>
@@ -2303,7 +2309,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>48</v>
       </c>
@@ -2313,6 +2319,9 @@
       <c r="C73" s="5" t="s">
         <v>143</v>
       </c>
+      <c r="D73" s="5" t="s">
+        <v>169</v>
+      </c>
       <c r="E73" t="s">
         <v>159</v>
       </c>
@@ -2323,7 +2332,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -2340,7 +2349,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -2357,7 +2366,7 @@
         <v>44883</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -2374,7 +2383,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>70</v>
       </c>
@@ -2382,7 +2391,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>70</v>
       </c>
@@ -2390,7 +2399,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>36</v>
       </c>
@@ -2410,7 +2419,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>70</v>
       </c>
@@ -2418,7 +2427,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>36</v>
       </c>
@@ -2435,7 +2444,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>175</v>
       </c>
@@ -2452,7 +2461,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>175</v>
       </c>
@@ -2469,7 +2478,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>175</v>
       </c>
@@ -2486,7 +2495,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>175</v>
       </c>
@@ -2503,7 +2512,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>175</v>
       </c>
@@ -2520,35 +2529,41 @@
         <v>183</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>45</v>
       </c>
       <c r="B87" t="s">
         <v>184</v>
       </c>
+      <c r="C87" s="5" t="s">
+        <v>169</v>
+      </c>
       <c r="D87" s="5" t="s">
-        <v>169</v>
+        <v>214</v>
       </c>
       <c r="E87" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>45</v>
       </c>
       <c r="B88" t="s">
         <v>185</v>
       </c>
+      <c r="C88" s="5" t="s">
+        <v>169</v>
+      </c>
       <c r="D88" s="5" t="s">
-        <v>169</v>
+        <v>214</v>
       </c>
       <c r="E88" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>188</v>
       </c>
@@ -2565,7 +2580,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>70</v>
       </c>
@@ -2573,7 +2588,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>70</v>
       </c>
@@ -2581,7 +2596,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -2598,7 +2613,7 @@
         <v>45177</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -2615,7 +2630,7 @@
         <v>45245</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>36</v>
       </c>
@@ -2635,7 +2650,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>36</v>
       </c>
@@ -2652,7 +2667,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>70</v>
       </c>
@@ -2660,7 +2675,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>70</v>
       </c>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/090f7abe46c7f02e/GitHub/ccl_cv/cv_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A52F6AF-4B4B-40D7-839A-803E8ADD4D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{9A52F6AF-4B4B-40D7-839A-803E8ADD4D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AC7F02C-E8DE-48CC-87A8-E54BDD2BCEB8}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
+    <workbookView xWindow="25490" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="219">
   <si>
     <t>type</t>
   </si>
@@ -126,9 +126,6 @@
     <t>Laurels Graduate Scholarship</t>
   </si>
   <si>
-    <t>American Society of Criminology Annual Meeting, New Orleans, LA</t>
-  </si>
-  <si>
     <t>Population Association of America Annual Meeting, Washington, D.C.</t>
   </si>
   <si>
@@ -333,18 +330,9 @@
     <t>2018</t>
   </si>
   <si>
-    <t>American Society of Criminology Annual Meeting, San Francisco, CA</t>
-  </si>
-  <si>
     <t>Willamette Criminal Justice Commission, Corvallis, OR</t>
   </si>
   <si>
-    <t>American Sociological Association Annual Meeting, Seattle, WA</t>
-  </si>
-  <si>
-    <t>Society for the Study of Social Problems Annual Meeting, Seattle, WA</t>
-  </si>
-  <si>
     <t>2016</t>
   </si>
   <si>
@@ -384,12 +372,6 @@
     <t>with SM Karceski</t>
   </si>
   <si>
-    <t>American Society of Criminology Annual Meeting, Washington D.C. (Canceled due to COVID-19)</t>
-  </si>
-  <si>
-    <t>SocSem, University of Washington</t>
-  </si>
-  <si>
     <t>Center for Statistics and the Social Sciences, University of Washington</t>
   </si>
   <si>
@@ -516,12 +498,6 @@
     <t>https://clanfear.github.io/ioc_crm/_site/index.html</t>
   </si>
   <si>
-    <t>European Society of Criminology Annual Meeting, Malaga, ES</t>
-  </si>
-  <si>
-    <t>American Society of Criminology Annual Meeting, Atlanta, GA</t>
-  </si>
-  <si>
     <t>Criminology &amp; Criminal Justice</t>
   </si>
   <si>
@@ -600,12 +576,6 @@
     <t>Journal of Criminology</t>
   </si>
   <si>
-    <t>European Society of Criminology Annual Meeting, Florence, IT</t>
-  </si>
-  <si>
-    <t>American Society of Criminology Annual Meeting, Philadelphia, PA</t>
-  </si>
-  <si>
     <t>Gun carrying over the life course: Onset, continuity, and exposure to gun violence from adolescence to early adulthood</t>
   </si>
   <si>
@@ -670,6 +640,48 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>Life-course processes as cause and effect of change in gun violence</t>
+  </si>
+  <si>
+    <t>Disorder and social control: Experimental evidence on prosocial and antisocial decision making</t>
+  </si>
+  <si>
+    <t>*European Society of Criminology Annual Meeting*, Florence, IT</t>
+  </si>
+  <si>
+    <t>*American Society of Criminology Annual Meeting*, Philadelphia, PA</t>
+  </si>
+  <si>
+    <t>*Workshop on Changes in Society, Welfare, Penalty, Law and Justice*, International Institute for the Sociology of Law, Oñati, ES</t>
+  </si>
+  <si>
+    <t>*Nigel Walker Symposium*, Institute of Criminology, University of Cambridge</t>
+  </si>
+  <si>
+    <t>*European Society of Criminology Annual Meeting*, Malaga, ES</t>
+  </si>
+  <si>
+    <t>*American Society of Criminology Annual Meeting*, Atlanta, GA</t>
+  </si>
+  <si>
+    <t>*SocSem*, University of Washington</t>
+  </si>
+  <si>
+    <t>*American Society of Criminology Annual Meeting*, Washington D.C. (Canceled due to COVID-19)</t>
+  </si>
+  <si>
+    <t>*Society for the Study of Social Problems Annual Meeting*, Seattle, WA</t>
+  </si>
+  <si>
+    <t>*American Sociological Association Annual Meeting*, Seattle, WA</t>
+  </si>
+  <si>
+    <t>*American Society of Criminology Annual Meeting*, San Francisco, CA</t>
+  </si>
+  <si>
+    <t>*American Society of Criminology Annual Meeting*, New Orleans, LA</t>
   </si>
 </sst>
 </file>
@@ -763,6 +775,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1062,23 +1078,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7890625" customWidth="1"/>
-    <col min="2" max="2" width="57.5234375" customWidth="1"/>
-    <col min="3" max="4" width="9.15625" style="5"/>
-    <col min="5" max="5" width="42.5234375" customWidth="1"/>
-    <col min="6" max="6" width="43.26171875" customWidth="1"/>
-    <col min="7" max="7" width="10.734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="5"/>
+    <col min="5" max="5" width="42.5703125" customWidth="1"/>
+    <col min="6" max="6" width="43.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1104,7 +1120,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1115,15 +1131,15 @@
         <v>2019</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G2" s="1">
         <v>43608</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -1132,7 +1148,7 @@
         <v>2019</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G3" s="1">
         <v>43616</v>
@@ -1141,7 +1157,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1152,7 +1168,7 @@
         <v>2018</v>
       </c>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G4" s="1">
         <v>43384</v>
@@ -1161,7 +1177,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1172,7 +1188,7 @@
         <v>2019</v>
       </c>
       <c r="E5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G5" s="1">
         <v>43580</v>
@@ -1181,7 +1197,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1192,7 +1208,7 @@
         <v>2019</v>
       </c>
       <c r="E6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G6" s="1">
         <v>43496</v>
@@ -1201,18 +1217,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C7" s="5">
         <v>2018</v>
       </c>
       <c r="E7" t="s">
-        <v>120</v>
+        <v>213</v>
       </c>
       <c r="G7" s="1">
         <v>43399</v>
@@ -1221,58 +1237,58 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E8" t="s">
         <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C9" s="5">
         <v>2020</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E9" t="s">
         <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C10" s="5">
         <v>2013</v>
@@ -1281,15 +1297,15 @@
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C11" s="5">
         <v>2017</v>
@@ -1298,27 +1314,27 @@
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E12" t="s">
         <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1326,18 +1342,18 @@
         <v>26</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C14" s="5">
         <v>2017</v>
@@ -1349,7 +1365,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1366,7 +1382,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1377,10 +1393,10 @@
         <v>2014</v>
       </c>
       <c r="E16" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1391,10 +1407,10 @@
         <v>2017</v>
       </c>
       <c r="E17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1411,7 +1427,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1428,157 +1444,157 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C20" s="5">
         <v>2016</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="G20" s="1">
         <v>42690</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C21" s="5">
         <v>2016</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G21" s="1">
         <v>42460</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C22" s="5">
         <v>2014</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>102</v>
+        <v>217</v>
       </c>
       <c r="G22" s="1">
         <v>41963</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C23" s="5">
         <v>2014</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G23" s="1">
         <v>41661</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="5">
         <v>2016</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G24" s="1">
         <v>42459</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
         <v>36</v>
-      </c>
-      <c r="B25" t="s">
-        <v>37</v>
       </c>
       <c r="C25" s="5">
         <v>2016</v>
       </c>
       <c r="E25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G25" s="1">
         <v>42654</v>
       </c>
       <c r="H25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" t="s">
-        <v>40</v>
       </c>
       <c r="C26" s="5">
         <v>2016</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G26" s="1">
         <v>42467</v>
       </c>
       <c r="H26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" t="s">
-        <v>43</v>
       </c>
       <c r="C27" s="5">
         <v>2015</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G27" s="1">
         <v>42051</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C28" s="5">
         <v>2018</v>
@@ -1590,12 +1606,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C29" s="5">
         <v>2015</v>
@@ -1607,12 +1623,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" t="s">
         <v>45</v>
-      </c>
-      <c r="B30" t="s">
-        <v>46</v>
       </c>
       <c r="C30" s="5">
         <v>2016</v>
@@ -1621,1066 +1637,1097 @@
         <v>2017</v>
       </c>
       <c r="E30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="D31" s="5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="E34" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="5" t="s">
+      <c r="C36" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>75</v>
-      </c>
       <c r="E39" s="4" t="s">
-        <v>102</v>
+        <v>217</v>
       </c>
       <c r="G39" s="1">
         <v>43783</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>19</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G40" s="1">
         <v>43731</v>
       </c>
       <c r="H40" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="5" t="s">
+      <c r="D41" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="E41" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E42" t="s">
         <v>21</v>
       </c>
-      <c r="F42" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>19</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G43" s="1">
         <v>43939</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>19</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G44" s="1">
         <v>43940</v>
       </c>
       <c r="H44" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" s="5" t="s">
+      <c r="D45" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>89</v>
-      </c>
       <c r="E45" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C46" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>93</v>
       </c>
-      <c r="D46" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" t="s">
+      <c r="B47" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="C47" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="E47" t="s">
         <v>21</v>
       </c>
       <c r="F47" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E48" t="s">
         <v>21</v>
       </c>
       <c r="F48" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E49" t="s">
         <v>21</v>
       </c>
       <c r="F49" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>24</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E50" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E51" t="s">
         <v>21</v>
       </c>
       <c r="F51" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>8</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E52" t="s">
-        <v>120</v>
+        <v>213</v>
       </c>
       <c r="G52" s="1">
         <v>43481</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E53" t="s">
-        <v>104</v>
+        <v>216</v>
       </c>
       <c r="G53" s="1">
         <v>42603</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>215</v>
       </c>
       <c r="G54" s="1">
         <v>42602</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E55" t="s">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="G55" s="1">
         <v>44151</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E56" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G56" s="1">
         <v>43398</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B57" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E57" t="s">
         <v>21</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E58" t="s">
-        <v>120</v>
+        <v>213</v>
       </c>
       <c r="F58" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G58" s="1">
         <v>43735</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B59" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E62" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" t="s">
-        <v>70</v>
-      </c>
-      <c r="B60" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" t="s">
-        <v>70</v>
-      </c>
-      <c r="B61" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" t="s">
-        <v>36</v>
-      </c>
-      <c r="B62" t="s">
-        <v>130</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E62" t="s">
-        <v>132</v>
       </c>
       <c r="G62" s="1">
         <v>44289</v>
       </c>
       <c r="H62" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>24</v>
       </c>
       <c r="B63" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E63" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>131</v>
+      </c>
+      <c r="B64" t="s">
+        <v>133</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E64" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" t="s">
+        <v>134</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E65" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>35</v>
+      </c>
+      <c r="B66" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" t="s">
+      <c r="C66" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B64" t="s">
-        <v>139</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="E66" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" t="s">
-        <v>137</v>
-      </c>
-      <c r="B65" t="s">
-        <v>140</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E65" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" t="s">
-        <v>36</v>
-      </c>
-      <c r="B66" t="s">
-        <v>142</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E66" t="s">
-        <v>144</v>
       </c>
       <c r="G66" s="1">
         <v>44585</v>
       </c>
       <c r="H66" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E68" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" t="s">
-        <v>137</v>
-      </c>
-      <c r="B68" t="s">
-        <v>151</v>
-      </c>
-      <c r="C68" s="5" t="s">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>180</v>
+      </c>
+      <c r="B69" t="s">
+        <v>142</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E69" t="s">
         <v>143</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E68" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" t="s">
-        <v>188</v>
-      </c>
-      <c r="B69" t="s">
-        <v>148</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E69" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>23</v>
       </c>
       <c r="B70" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E70" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B72" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E72" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F72" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H72" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B73" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E73" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F73" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H73" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E74" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="G74" s="1">
         <v>44826</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E75" t="s">
-        <v>164</v>
+        <v>212</v>
       </c>
       <c r="G75" s="1">
         <v>44883</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E76" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="G76" s="1">
         <v>44826</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B77" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B78" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B79" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E79" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="G79" s="1">
         <v>45032</v>
       </c>
       <c r="H79" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B80" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B81" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E81" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G81" s="1">
         <v>45055</v>
       </c>
       <c r="H81" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>167</v>
+      </c>
+      <c r="B82" t="s">
+        <v>169</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E82" t="s">
+        <v>153</v>
+      </c>
+      <c r="F82" t="s">
         <v>175</v>
       </c>
-      <c r="B82" t="s">
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>167</v>
+      </c>
+      <c r="B83" t="s">
+        <v>170</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E83" t="s">
+        <v>153</v>
+      </c>
+      <c r="F83" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>167</v>
+      </c>
+      <c r="B84" t="s">
+        <v>171</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E84" t="s">
+        <v>153</v>
+      </c>
+      <c r="F84" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>167</v>
+      </c>
+      <c r="B85" t="s">
+        <v>173</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E85" t="s">
+        <v>153</v>
+      </c>
+      <c r="F85" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>167</v>
+      </c>
+      <c r="B86" t="s">
+        <v>172</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E86" t="s">
+        <v>153</v>
+      </c>
+      <c r="F86" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>44</v>
+      </c>
+      <c r="B87" t="s">
+        <v>176</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E87" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>44</v>
+      </c>
+      <c r="B88" t="s">
         <v>177</v>
       </c>
-      <c r="D82" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E82" t="s">
-        <v>159</v>
-      </c>
-      <c r="F82" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" t="s">
-        <v>175</v>
-      </c>
-      <c r="B83" t="s">
+      <c r="C88" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E88" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>180</v>
+      </c>
+      <c r="B89" t="s">
         <v>178</v>
       </c>
-      <c r="D83" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E83" t="s">
-        <v>159</v>
-      </c>
-      <c r="F83" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" t="s">
-        <v>175</v>
-      </c>
-      <c r="B84" t="s">
+      <c r="C89" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D84" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E84" t="s">
-        <v>159</v>
-      </c>
-      <c r="F84" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" t="s">
-        <v>175</v>
-      </c>
-      <c r="B85" t="s">
+      <c r="D89" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E89" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>69</v>
+      </c>
+      <c r="B90" t="s">
         <v>181</v>
       </c>
-      <c r="D85" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E85" t="s">
-        <v>159</v>
-      </c>
-      <c r="F85" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" t="s">
-        <v>175</v>
-      </c>
-      <c r="B86" t="s">
-        <v>180</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E86" t="s">
-        <v>159</v>
-      </c>
-      <c r="F86" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" t="s">
-        <v>45</v>
-      </c>
-      <c r="B87" t="s">
-        <v>184</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="E87" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" t="s">
-        <v>45</v>
-      </c>
-      <c r="B88" t="s">
-        <v>185</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="E88" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" t="s">
-        <v>188</v>
-      </c>
-      <c r="B89" t="s">
-        <v>186</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E89" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" t="s">
-        <v>70</v>
-      </c>
-      <c r="B90" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B91" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E92" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="G92" s="1">
         <v>45177</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E93" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="G93" s="1">
         <v>45245</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B94" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E94" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="G94" s="1">
         <v>45124</v>
       </c>
       <c r="H94" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B95" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E95" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="G95" s="1">
         <v>45227</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B96" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B97" t="s">
-        <v>213</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" t="s">
+        <v>205</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E98" t="s">
+        <v>209</v>
+      </c>
+      <c r="G98" s="1">
+        <v>45429</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" t="s">
+        <v>206</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E99" t="s">
+        <v>210</v>
+      </c>
+      <c r="G99" s="1">
+        <v>45442</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/090f7abe46c7f02e/GitHub/ccl_cv/cv_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{9A52F6AF-4B4B-40D7-839A-803E8ADD4D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AC7F02C-E8DE-48CC-87A8-E54BDD2BCEB8}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{9A52F6AF-4B4B-40D7-839A-803E8ADD4D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F7CF28D-EDA6-4FF4-AF36-F69533330E0E}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="218">
   <si>
     <t>type</t>
   </si>
@@ -421,9 +421,6 @@
   </si>
   <si>
     <t>appointments</t>
-  </si>
-  <si>
-    <t>Center for Social Investigation, Nuffield College, University of Oxford</t>
   </si>
   <si>
     <t>Postdoctoral Researcher</t>
@@ -1080,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
   <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1222,13 +1219,13 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C7" s="5">
         <v>2018</v>
       </c>
       <c r="E7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G7" s="1">
         <v>43399</v>
@@ -1288,7 +1285,7 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C10" s="5">
         <v>2013</v>
@@ -1305,7 +1302,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C11" s="5">
         <v>2017</v>
@@ -1322,7 +1319,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>121</v>
@@ -1449,13 +1446,13 @@
         <v>8</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C20" s="5">
         <v>2016</v>
       </c>
       <c r="E20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G20" s="1">
         <v>42690</v>
@@ -1466,7 +1463,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C21" s="5">
         <v>2016</v>
@@ -1483,13 +1480,13 @@
         <v>8</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C22" s="5">
         <v>2014</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G22" s="1">
         <v>41963</v>
@@ -1500,7 +1497,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C23" s="5">
         <v>2014</v>
@@ -1651,7 +1648,7 @@
         <v>52</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E31" t="s">
         <v>21</v>
@@ -1770,13 +1767,13 @@
         <v>73</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>74</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G39" s="1">
         <v>43783</v>
@@ -1980,10 +1977,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>166</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>83</v>
@@ -1992,7 +1989,7 @@
         <v>21</v>
       </c>
       <c r="F51" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2000,13 +1997,13 @@
         <v>8</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>74</v>
       </c>
       <c r="E52" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G52" s="1">
         <v>43481</v>
@@ -2017,13 +2014,13 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>102</v>
       </c>
       <c r="E53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G53" s="1">
         <v>42603</v>
@@ -2034,13 +2031,13 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>102</v>
       </c>
       <c r="E54" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G54" s="1">
         <v>42602</v>
@@ -2051,13 +2048,13 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>83</v>
       </c>
       <c r="E55" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G55" s="1">
         <v>44151</v>
@@ -2105,13 +2102,13 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>74</v>
       </c>
       <c r="E58" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F58" t="s">
         <v>114</v>
@@ -2175,7 +2172,7 @@
         <v>121</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E63" t="s">
         <v>130</v>
@@ -2186,16 +2183,16 @@
         <v>131</v>
       </c>
       <c r="B64" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>121</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E64" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -2203,13 +2200,13 @@
         <v>131</v>
       </c>
       <c r="B65" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>121</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E65" t="s">
         <v>130</v>
@@ -2220,19 +2217,19 @@
         <v>35</v>
       </c>
       <c r="B66" t="s">
+        <v>135</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="E66" t="s">
         <v>137</v>
-      </c>
-      <c r="E66" t="s">
-        <v>138</v>
       </c>
       <c r="G66" s="1">
         <v>44585</v>
       </c>
       <c r="H66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -2240,7 +2237,7 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -2248,33 +2245,33 @@
         <v>131</v>
       </c>
       <c r="B68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E68" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B69" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -2282,10 +2279,10 @@
         <v>23</v>
       </c>
       <c r="B70" t="s">
+        <v>148</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>150</v>
       </c>
       <c r="E70" t="s">
         <v>25</v>
@@ -2296,7 +2293,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -2304,22 +2301,22 @@
         <v>47</v>
       </c>
       <c r="B72" t="s">
+        <v>151</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E72" t="s">
         <v>152</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E72" t="s">
-        <v>153</v>
       </c>
       <c r="F72" t="s">
         <v>98</v>
       </c>
       <c r="H72" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -2327,22 +2324,22 @@
         <v>47</v>
       </c>
       <c r="B73" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E73" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F73" t="s">
         <v>98</v>
       </c>
       <c r="H73" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -2350,13 +2347,13 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E74" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G74" s="1">
         <v>44826</v>
@@ -2367,13 +2364,13 @@
         <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E75" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G75" s="1">
         <v>44883</v>
@@ -2384,13 +2381,13 @@
         <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E76" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G76" s="1">
         <v>44826</v>
@@ -2401,7 +2398,7 @@
         <v>69</v>
       </c>
       <c r="B77" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -2409,7 +2406,7 @@
         <v>69</v>
       </c>
       <c r="B78" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -2417,19 +2414,19 @@
         <v>35</v>
       </c>
       <c r="B79" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E79" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G79" s="1">
         <v>45032</v>
       </c>
       <c r="H79" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -2437,7 +2434,7 @@
         <v>69</v>
       </c>
       <c r="B80" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -2445,101 +2442,101 @@
         <v>35</v>
       </c>
       <c r="B81" t="s">
+        <v>163</v>
+      </c>
+      <c r="E81" t="s">
         <v>164</v>
-      </c>
-      <c r="E81" t="s">
-        <v>165</v>
       </c>
       <c r="G81" s="1">
         <v>45055</v>
       </c>
       <c r="H81" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B82" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E82" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F82" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B83" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E83" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F83" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B84" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E84" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F84" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B85" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E85" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F85" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B86" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E86" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F86" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -2547,16 +2544,16 @@
         <v>44</v>
       </c>
       <c r="B87" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E87" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -2564,27 +2561,27 @@
         <v>44</v>
       </c>
       <c r="B88" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E88" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B89" t="s">
+        <v>177</v>
+      </c>
+      <c r="C89" s="5" t="s">
         <v>178</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>179</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>53</v>
@@ -2598,7 +2595,7 @@
         <v>69</v>
       </c>
       <c r="B90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -2606,7 +2603,7 @@
         <v>69</v>
       </c>
       <c r="B91" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -2614,13 +2611,13 @@
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E92" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G92" s="1">
         <v>45177</v>
@@ -2631,13 +2628,13 @@
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E93" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G93" s="1">
         <v>45245</v>
@@ -2648,19 +2645,19 @@
         <v>35</v>
       </c>
       <c r="B94" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E94" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G94" s="1">
         <v>45124</v>
       </c>
       <c r="H94" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -2668,13 +2665,13 @@
         <v>35</v>
       </c>
       <c r="B95" t="s">
+        <v>186</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E95" t="s">
         <v>187</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E95" t="s">
-        <v>188</v>
       </c>
       <c r="G95" s="1">
         <v>45227</v>
@@ -2693,7 +2690,7 @@
         <v>69</v>
       </c>
       <c r="B97" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -2701,13 +2698,13 @@
         <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E98" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G98" s="1">
         <v>45429</v>
@@ -2718,13 +2715,13 @@
         <v>8</v>
       </c>
       <c r="B99" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E99" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G99" s="1">
         <v>45442</v>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/090f7abe46c7f02e/GitHub/ccl_cv/cv_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{9A52F6AF-4B4B-40D7-839A-803E8ADD4D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F7CF28D-EDA6-4FF4-AF36-F69533330E0E}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{64000573-70DF-43CC-A8B9-4200A781C3BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2E1C12F-C5DD-4B6A-828B-F3C4261BFAC9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="226">
   <si>
     <t>type</t>
   </si>
@@ -240,12 +240,6 @@
     <t>International Migration Review</t>
   </si>
   <si>
-    <t>Graduate Student Assoc. President</t>
-  </si>
-  <si>
-    <t>Graduate Student Assoc. Representative to CS&amp;SS</t>
-  </si>
-  <si>
     <t xml:space="preserve">talk </t>
   </si>
   <si>
@@ -679,6 +673,36 @@
   </si>
   <si>
     <t>*American Society of Criminology Annual Meeting*, New Orleans, LA</t>
+  </si>
+  <si>
+    <t>*European Society of Criminology Annual Meeting*, Bucharest, RO</t>
+  </si>
+  <si>
+    <t>Reciprocal relationships, reverse causality, and temporal ordering: Testing theories with cross-lagged panel models</t>
+  </si>
+  <si>
+    <t>Reassessing ‘The effect of the Seattle police-free CHOP zone on crime’: A counterfactual critique</t>
+  </si>
+  <si>
+    <t>Graduate Student Association President</t>
+  </si>
+  <si>
+    <t>Graduate Student Association Representative to CS&amp;SS</t>
+  </si>
+  <si>
+    <t>https://www.ncgvr.org/events/gun-violence-prevention-webinar-series/community-firearm-violence-exposure-weapon-carrying.html</t>
+  </si>
+  <si>
+    <t>Exposure to gun violence and concealed gun carrying from childhood to age 40 over a 25-year era of change</t>
+  </si>
+  <si>
+    <t>*National Collaborative on Gun Violence Research Webinar Series*</t>
+  </si>
+  <si>
+    <t>Natalia Cabrera-Morales</t>
+  </si>
+  <si>
+    <t>PhD</t>
   </si>
 </sst>
 </file>
@@ -1075,10 +1099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1128,7 +1152,7 @@
         <v>2019</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G2" s="1">
         <v>43608</v>
@@ -1136,7 +1160,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -1145,7 +1169,7 @@
         <v>2019</v>
       </c>
       <c r="E3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G3" s="1">
         <v>43616</v>
@@ -1165,7 +1189,7 @@
         <v>2018</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G4" s="1">
         <v>43384</v>
@@ -1185,7 +1209,7 @@
         <v>2019</v>
       </c>
       <c r="E5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G5" s="1">
         <v>43580</v>
@@ -1205,7 +1229,7 @@
         <v>2019</v>
       </c>
       <c r="E6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G6" s="1">
         <v>43496</v>
@@ -1219,13 +1243,13 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C7" s="5">
         <v>2018</v>
       </c>
       <c r="E7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G7" s="1">
         <v>43399</v>
@@ -1239,19 +1263,19 @@
         <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E8" t="s">
         <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>22</v>
@@ -1262,22 +1286,22 @@
         <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C9" s="5">
         <v>2020</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E9" t="s">
         <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1285,7 +1309,7 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C10" s="5">
         <v>2013</v>
@@ -1294,7 +1318,7 @@
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1302,7 +1326,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C11" s="5">
         <v>2017</v>
@@ -1311,7 +1335,7 @@
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1319,16 +1343,16 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E12" t="s">
         <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1339,7 +1363,7 @@
         <v>26</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E13" t="s">
         <v>21</v>
@@ -1350,7 +1374,7 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C14" s="5">
         <v>2017</v>
@@ -1390,7 +1414,7 @@
         <v>2014</v>
       </c>
       <c r="E16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1404,7 +1428,7 @@
         <v>2017</v>
       </c>
       <c r="E17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1446,13 +1470,13 @@
         <v>8</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C20" s="5">
         <v>2016</v>
       </c>
       <c r="E20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G20" s="1">
         <v>42690</v>
@@ -1463,7 +1487,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C21" s="5">
         <v>2016</v>
@@ -1480,13 +1504,13 @@
         <v>8</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C22" s="5">
         <v>2014</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G22" s="1">
         <v>41963</v>
@@ -1497,13 +1521,13 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C23" s="5">
         <v>2014</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G23" s="1">
         <v>41661</v>
@@ -1591,7 +1615,7 @@
         <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>219</v>
       </c>
       <c r="C28" s="5">
         <v>2018</v>
@@ -1608,7 +1632,7 @@
         <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>220</v>
       </c>
       <c r="C29" s="5">
         <v>2015</v>
@@ -1648,7 +1672,7 @@
         <v>52</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E31" t="s">
         <v>21</v>
@@ -1668,7 +1692,7 @@
         <v>57</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1753,10 +1777,10 @@
         <v>44</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>27</v>
@@ -1764,16 +1788,16 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G39" s="1">
         <v>43783</v>
@@ -1784,19 +1808,19 @@
         <v>19</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G40" s="1">
         <v>43731</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1807,13 +1831,13 @@
         <v>61</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1821,10 +1845,10 @@
         <v>47</v>
       </c>
       <c r="B42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="E42" t="s">
         <v>21</v>
@@ -1835,19 +1859,19 @@
         <v>19</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G43" s="1">
         <v>43939</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -1855,19 +1879,19 @@
         <v>19</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G44" s="1">
         <v>43940</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -1878,13 +1902,13 @@
         <v>61</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -1895,24 +1919,24 @@
         <v>54</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="E47" t="s">
         <v>21</v>
@@ -1923,42 +1947,42 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E48" t="s">
         <v>21</v>
       </c>
       <c r="F48" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E49" t="s">
         <v>21</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -1966,10 +1990,10 @@
         <v>24</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E50" t="s">
         <v>21</v>
@@ -1977,19 +2001,19 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E51" t="s">
         <v>21</v>
       </c>
       <c r="F51" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1997,13 +2021,13 @@
         <v>8</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E52" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G52" s="1">
         <v>43481</v>
@@ -2014,13 +2038,13 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E53" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G53" s="1">
         <v>42603</v>
@@ -2031,13 +2055,13 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E54" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G54" s="1">
         <v>42602</v>
@@ -2048,13 +2072,13 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E55" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G55" s="1">
         <v>44151</v>
@@ -2062,16 +2086,16 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E56" t="s">
         <v>104</v>
-      </c>
-      <c r="B56" t="s">
-        <v>105</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E56" t="s">
-        <v>106</v>
       </c>
       <c r="G56" s="1">
         <v>43398</v>
@@ -2079,22 +2103,22 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B57" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E57" t="s">
         <v>21</v>
       </c>
       <c r="F57" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2102,16 +2126,16 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E58" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G58" s="1">
         <v>43735</v>
@@ -2122,7 +2146,7 @@
         <v>69</v>
       </c>
       <c r="B59" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2130,7 +2154,7 @@
         <v>69</v>
       </c>
       <c r="B60" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2138,7 +2162,7 @@
         <v>69</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -2146,19 +2170,19 @@
         <v>35</v>
       </c>
       <c r="B62" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E62" t="s">
         <v>124</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E62" t="s">
-        <v>126</v>
       </c>
       <c r="G62" s="1">
         <v>44289</v>
       </c>
       <c r="H62" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -2166,50 +2190,50 @@
         <v>24</v>
       </c>
       <c r="B63" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E63" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B64" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E64" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65" t="s">
         <v>131</v>
       </c>
-      <c r="B65" t="s">
-        <v>133</v>
-      </c>
       <c r="C65" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -2217,19 +2241,19 @@
         <v>35</v>
       </c>
       <c r="B66" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E66" t="s">
         <v>135</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="E66" t="s">
-        <v>137</v>
       </c>
       <c r="G66" s="1">
         <v>44585</v>
       </c>
       <c r="H66" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -2237,41 +2261,41 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B68" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E68" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B69" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>143</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E69" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -2279,10 +2303,10 @@
         <v>23</v>
       </c>
       <c r="B70" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E70" t="s">
         <v>25</v>
@@ -2293,7 +2317,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -2301,22 +2325,22 @@
         <v>47</v>
       </c>
       <c r="B72" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E72" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F72" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H72" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -2324,22 +2348,22 @@
         <v>47</v>
       </c>
       <c r="B73" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E73" t="s">
+        <v>150</v>
+      </c>
+      <c r="F73" t="s">
+        <v>96</v>
+      </c>
+      <c r="H73" t="s">
         <v>152</v>
-      </c>
-      <c r="F73" t="s">
-        <v>98</v>
-      </c>
-      <c r="H73" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -2347,13 +2371,13 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E74" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G74" s="1">
         <v>44826</v>
@@ -2364,13 +2388,13 @@
         <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E75" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G75" s="1">
         <v>44883</v>
@@ -2381,13 +2405,13 @@
         <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E76" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G76" s="1">
         <v>44826</v>
@@ -2398,7 +2422,7 @@
         <v>69</v>
       </c>
       <c r="B77" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -2406,7 +2430,7 @@
         <v>69</v>
       </c>
       <c r="B78" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -2414,19 +2438,19 @@
         <v>35</v>
       </c>
       <c r="B79" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E79" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G79" s="1">
         <v>45032</v>
       </c>
       <c r="H79" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -2434,7 +2458,7 @@
         <v>69</v>
       </c>
       <c r="B80" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -2442,101 +2466,101 @@
         <v>35</v>
       </c>
       <c r="B81" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E81" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G81" s="1">
         <v>45055</v>
       </c>
       <c r="H81" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>164</v>
+      </c>
+      <c r="B82" t="s">
         <v>166</v>
       </c>
-      <c r="B82" t="s">
-        <v>168</v>
-      </c>
       <c r="D82" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E82" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F82" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B83" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E83" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F83" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B84" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E84" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F84" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B85" t="s">
+        <v>170</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E85" t="s">
+        <v>150</v>
+      </c>
+      <c r="F85" t="s">
         <v>172</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="E85" t="s">
-        <v>152</v>
-      </c>
-      <c r="F85" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B86" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E86" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F86" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -2544,16 +2568,16 @@
         <v>44</v>
       </c>
       <c r="B87" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E87" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -2561,33 +2585,33 @@
         <v>44</v>
       </c>
       <c r="B88" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E88" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B89" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E89" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -2595,7 +2619,7 @@
         <v>69</v>
       </c>
       <c r="B90" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -2603,7 +2627,7 @@
         <v>69</v>
       </c>
       <c r="B91" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -2611,13 +2635,13 @@
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E92" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G92" s="1">
         <v>45177</v>
@@ -2628,13 +2652,13 @@
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E93" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G93" s="1">
         <v>45245</v>
@@ -2645,19 +2669,19 @@
         <v>35</v>
       </c>
       <c r="B94" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G94" s="1">
         <v>45124</v>
       </c>
       <c r="H94" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -2665,13 +2689,13 @@
         <v>35</v>
       </c>
       <c r="B95" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G95" s="1">
         <v>45227</v>
@@ -2685,46 +2709,117 @@
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>69</v>
       </c>
       <c r="B97" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E98" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G98" s="1">
         <v>45429</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>8</v>
       </c>
       <c r="B99" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E99" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G99" s="1">
         <v>45442</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" t="s">
+        <v>218</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E100" t="s">
+        <v>216</v>
+      </c>
+      <c r="G100" s="1">
+        <v>45548</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" t="s">
+        <v>217</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E101" t="s">
+        <v>216</v>
+      </c>
+      <c r="G101" s="1">
+        <v>45548</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" t="s">
+        <v>222</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E102" t="s">
+        <v>223</v>
+      </c>
+      <c r="G102" s="1">
+        <v>45482</v>
+      </c>
+      <c r="H102" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>164</v>
+      </c>
+      <c r="B103" t="s">
+        <v>224</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E103" t="s">
+        <v>150</v>
+      </c>
+      <c r="F103" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/090f7abe46c7f02e/GitHub/ccl_cv/cv_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{64000573-70DF-43CC-A8B9-4200A781C3BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2E1C12F-C5DD-4B6A-828B-F3C4261BFAC9}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{64000573-70DF-43CC-A8B9-4200A781C3BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C7AF273-755A-4CA7-8971-49B3968BF852}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="232">
   <si>
     <t>type</t>
   </si>
@@ -703,6 +703,24 @@
   </si>
   <si>
     <t>PhD</t>
+  </si>
+  <si>
+    <t>https://clanfear.github.io/ESC_2024/clpm/slides.html</t>
+  </si>
+  <si>
+    <t>https://clanfear.github.io/ESC_2024/piza-connealy_comment/slides.html</t>
+  </si>
+  <si>
+    <t>https://clanfear.github.io/ioc_2024-05-30/slides.html</t>
+  </si>
+  <si>
+    <t>https://clanfear.github.io/onati_2024-05-17/slides.html</t>
+  </si>
+  <si>
+    <t>https://clanfear.github.io/ASC_2023/slides.html</t>
+  </si>
+  <si>
+    <t>https://clanfear.github.io/ESC_2023/slides.html</t>
   </si>
 </sst>
 </file>
@@ -1101,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2646,6 +2664,9 @@
       <c r="G92" s="1">
         <v>45177</v>
       </c>
+      <c r="H92" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
@@ -2663,6 +2684,9 @@
       <c r="G93" s="1">
         <v>45245</v>
       </c>
+      <c r="H93" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
@@ -2733,6 +2757,9 @@
       <c r="G98" s="1">
         <v>45429</v>
       </c>
+      <c r="H98" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
@@ -2750,6 +2777,9 @@
       <c r="G99" s="1">
         <v>45442</v>
       </c>
+      <c r="H99" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
@@ -2767,6 +2797,9 @@
       <c r="G100" s="1">
         <v>45548</v>
       </c>
+      <c r="H100" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
@@ -2783,6 +2816,9 @@
       </c>
       <c r="G101" s="1">
         <v>45548</v>
+      </c>
+      <c r="H101" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/090f7abe46c7f02e/GitHub/ccl_cv/cv_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cl948\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{64000573-70DF-43CC-A8B9-4200A781C3BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C7AF273-755A-4CA7-8971-49B3968BF852}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2F3B44-8BD7-40B1-AC89-7CA4F9EDD6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
+    <workbookView xWindow="870" yWindow="2040" windowWidth="28740" windowHeight="15370" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="237">
   <si>
     <t>type</t>
   </si>
@@ -510,9 +510,6 @@
     <t>Indian Law Review</t>
   </si>
   <si>
-    <t>Extensive coverage for Lanfear et al. (2023) Inequalities in Exposure to Firearm Violence by Race, Sex, and Birth Cohort From Childhood to Age 40 Years, 1995-2021</t>
-  </si>
-  <si>
     <t>50+ outlets</t>
   </si>
   <si>
@@ -573,9 +570,6 @@
     <t>The Criminology Academy Podcast</t>
   </si>
   <si>
-    <t>Episode 77. Community Violence, Context, and Reproducibility with Charles Lanfear</t>
-  </si>
-  <si>
     <t>https://thecriminologyacademy.com/episode-77-lanfear/</t>
   </si>
   <si>
@@ -721,6 +715,27 @@
   </si>
   <si>
     <t>https://clanfear.github.io/ESC_2023/slides.html</t>
+  </si>
+  <si>
+    <t>https://wiley.altmetric.com/details/169621019</t>
+  </si>
+  <si>
+    <t>150+ outlets</t>
+  </si>
+  <si>
+    <t>Extensive coverage for Lanfear &amp; Kirk (2024) The promise and perils of the sharing economy: The impact of Airbnb lettings on crime</t>
+  </si>
+  <si>
+    <t>Extensive coverage for Lanfear et al. (2023) Inequalities in exposure to firearm violence by race, sex, and birth cohort from childhood to age 40 years, 1995-2021</t>
+  </si>
+  <si>
+    <t>Criminal Behaviour and Mental Health</t>
+  </si>
+  <si>
+    <t>3 terms</t>
+  </si>
+  <si>
+    <t>Episode 77. Community violence, context, and reproducibility with Charles Lanfear</t>
   </si>
 </sst>
 </file>
@@ -814,10 +829,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1117,23 +1128,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="G75" sqref="G75"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="57.5703125" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="5"/>
-    <col min="5" max="5" width="42.5703125" customWidth="1"/>
-    <col min="6" max="6" width="43.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.81640625" customWidth="1"/>
+    <col min="2" max="2" width="57.54296875" customWidth="1"/>
+    <col min="3" max="4" width="9.1796875" style="5"/>
+    <col min="5" max="5" width="42.54296875" customWidth="1"/>
+    <col min="6" max="6" width="43.26953125" customWidth="1"/>
+    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1159,7 +1170,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1176,7 +1187,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -1196,7 +1207,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1216,7 +1227,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1236,7 +1247,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1256,18 +1267,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C7" s="5">
         <v>2018</v>
       </c>
       <c r="E7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G7" s="1">
         <v>43399</v>
@@ -1276,7 +1287,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1299,7 +1310,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1322,7 +1333,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1339,7 +1350,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1356,7 +1367,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1373,7 +1384,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1387,7 +1398,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1404,7 +1415,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1421,7 +1432,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1435,7 +1446,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1449,7 +1460,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1466,7 +1477,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1483,29 +1494,29 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C20" s="5">
         <v>2016</v>
       </c>
       <c r="E20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G20" s="1">
         <v>42690</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C21" s="5">
         <v>2016</v>
@@ -1517,29 +1528,29 @@
         <v>42460</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C22" s="5">
         <v>2014</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G22" s="1">
         <v>41963</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C23" s="5">
         <v>2014</v>
@@ -1551,7 +1562,7 @@
         <v>41661</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1568,7 +1579,7 @@
         <v>42459</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1588,7 +1599,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -1608,7 +1619,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -1628,12 +1639,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C28" s="5">
         <v>2018</v>
@@ -1645,12 +1656,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C29" s="5">
         <v>2015</v>
@@ -1662,7 +1673,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -1679,7 +1690,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -1696,7 +1707,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -1713,7 +1724,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -1730,7 +1741,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -1747,7 +1758,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -1764,7 +1775,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -1781,7 +1792,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>69</v>
       </c>
@@ -1790,7 +1801,7 @@
       </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -1804,24 +1815,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>71</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G39" s="1">
         <v>43783</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -1841,7 +1852,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -1858,7 +1869,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -1872,7 +1883,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -1892,7 +1903,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -1912,7 +1923,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -1929,7 +1940,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -1946,7 +1957,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -1963,7 +1974,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -1983,7 +1994,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -2003,7 +2014,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -2017,12 +2028,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>163</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>81</v>
@@ -2031,78 +2042,78 @@
         <v>21</v>
       </c>
       <c r="F51" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>8</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E52" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G52" s="1">
         <v>43481</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>100</v>
       </c>
       <c r="E53" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G53" s="1">
         <v>42603</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>100</v>
       </c>
       <c r="E54" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G54" s="1">
         <v>42602</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>81</v>
       </c>
       <c r="E55" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G55" s="1">
         <v>44151</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>102</v>
       </c>
@@ -2119,7 +2130,7 @@
         <v>43398</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>91</v>
       </c>
@@ -2139,18 +2150,18 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E58" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F58" t="s">
         <v>112</v>
@@ -2159,7 +2170,7 @@
         <v>43735</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -2167,7 +2178,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -2175,7 +2186,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>69</v>
       </c>
@@ -2183,7 +2194,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>35</v>
       </c>
@@ -2203,7 +2214,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -2220,7 +2231,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>129</v>
       </c>
@@ -2237,7 +2248,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -2254,7 +2265,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>35</v>
       </c>
@@ -2274,7 +2285,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -2282,7 +2293,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>129</v>
       </c>
@@ -2299,9 +2310,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B69" t="s">
         <v>139</v>
@@ -2316,7 +2327,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>23</v>
       </c>
@@ -2330,7 +2341,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -2338,7 +2349,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>47</v>
       </c>
@@ -2349,19 +2360,19 @@
         <v>134</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="E72" t="s">
         <v>150</v>
       </c>
       <c r="F72" t="s">
-        <v>96</v>
+        <v>235</v>
       </c>
       <c r="H72" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>47</v>
       </c>
@@ -2372,70 +2383,70 @@
         <v>134</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="E73" t="s">
         <v>150</v>
       </c>
       <c r="F73" t="s">
-        <v>96</v>
+        <v>235</v>
       </c>
       <c r="H73" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>134</v>
       </c>
       <c r="E74" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G74" s="1">
         <v>44826</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>134</v>
       </c>
       <c r="E75" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G75" s="1">
         <v>44883</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>134</v>
       </c>
       <c r="E76" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G76" s="1">
         <v>44826</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>69</v>
       </c>
@@ -2443,7 +2454,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>69</v>
       </c>
@@ -2451,7 +2462,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>35</v>
       </c>
@@ -2471,7 +2482,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>69</v>
       </c>
@@ -2479,29 +2490,29 @@
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>35</v>
       </c>
       <c r="B81" t="s">
+        <v>233</v>
+      </c>
+      <c r="E81" t="s">
         <v>161</v>
-      </c>
-      <c r="E81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" s="1">
         <v>45055</v>
       </c>
       <c r="H81" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>164</v>
-      </c>
       <c r="B82" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>158</v>
@@ -2510,15 +2521,15 @@
         <v>150</v>
       </c>
       <c r="F82" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B83" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>158</v>
@@ -2527,15 +2538,15 @@
         <v>150</v>
       </c>
       <c r="F83" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B84" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>158</v>
@@ -2544,15 +2555,15 @@
         <v>150</v>
       </c>
       <c r="F84" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B85" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>158</v>
@@ -2561,15 +2572,15 @@
         <v>150</v>
       </c>
       <c r="F85" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B86" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>158</v>
@@ -2578,52 +2589,52 @@
         <v>150</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>44</v>
       </c>
       <c r="B87" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>158</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E87" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>44</v>
       </c>
       <c r="B88" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>158</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E88" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B89" t="s">
+        <v>174</v>
+      </c>
+      <c r="C89" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>176</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>53</v>
@@ -2632,100 +2643,100 @@
         <v>128</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>69</v>
       </c>
       <c r="B90" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>69</v>
       </c>
       <c r="B91" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>158</v>
       </c>
       <c r="E92" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G92" s="1">
         <v>45177</v>
       </c>
       <c r="H92" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>158</v>
       </c>
       <c r="E93" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G93" s="1">
         <v>45245</v>
       </c>
       <c r="H93" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>35</v>
       </c>
       <c r="B94" t="s">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>158</v>
       </c>
       <c r="E94" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G94" s="1">
         <v>45124</v>
       </c>
       <c r="H94" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>35</v>
       </c>
       <c r="B95" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>158</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G95" s="1">
         <v>45227</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>69</v>
       </c>
@@ -2733,120 +2744,120 @@
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>69</v>
       </c>
       <c r="B97" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E98" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G98" s="1">
         <v>45429</v>
       </c>
       <c r="H98" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>8</v>
       </c>
       <c r="B99" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E99" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G99" s="1">
         <v>45442</v>
       </c>
       <c r="H99" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>8</v>
       </c>
       <c r="B100" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E100" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G100" s="1">
         <v>45548</v>
       </c>
       <c r="H100" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>8</v>
       </c>
       <c r="B101" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E101" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G101" s="1">
         <v>45548</v>
       </c>
       <c r="H101" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>8</v>
       </c>
       <c r="B102" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E102" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G102" s="1">
         <v>45482</v>
       </c>
       <c r="H102" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B103" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>53</v>
@@ -2855,7 +2866,32 @@
         <v>150</v>
       </c>
       <c r="F103" t="s">
-        <v>225</v>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>35</v>
+      </c>
+      <c r="B104" t="s">
+        <v>232</v>
+      </c>
+      <c r="E104" t="s">
+        <v>231</v>
+      </c>
+      <c r="G104" s="1">
+        <v>45589</v>
+      </c>
+      <c r="H104" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>69</v>
+      </c>
+      <c r="B105" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cl948\OneDrive\GitHub\ccl_cv\cv_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2F3B44-8BD7-40B1-AC89-7CA4F9EDD6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A371789-9141-4D6C-BA30-7EFB2486FF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="2040" windowWidth="28740" windowHeight="15370" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="239">
   <si>
     <t>type</t>
   </si>
@@ -736,6 +736,12 @@
   </si>
   <si>
     <t>Episode 77. Community violence, context, and reproducibility with Charles Lanfear</t>
+  </si>
+  <si>
+    <t>Mid-life health consequences of exposure to gun violence</t>
+  </si>
+  <si>
+    <t>https://clanfear.github.io/ASC_2024/slides.html</t>
   </si>
 </sst>
 </file>
@@ -1128,23 +1134,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.81640625" customWidth="1"/>
-    <col min="2" max="2" width="57.54296875" customWidth="1"/>
-    <col min="3" max="4" width="9.1796875" style="5"/>
-    <col min="5" max="5" width="42.54296875" customWidth="1"/>
-    <col min="6" max="6" width="43.26953125" customWidth="1"/>
-    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7890625" customWidth="1"/>
+    <col min="2" max="2" width="57.5234375" customWidth="1"/>
+    <col min="3" max="4" width="9.15625" style="5"/>
+    <col min="5" max="5" width="42.5234375" customWidth="1"/>
+    <col min="6" max="6" width="43.26171875" customWidth="1"/>
+    <col min="7" max="7" width="10.734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1170,7 +1176,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1187,7 +1193,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -1207,7 +1213,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1227,7 +1233,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1247,7 +1253,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1267,7 +1273,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1287,7 +1293,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1310,7 +1316,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1333,7 +1339,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1350,7 +1356,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1367,7 +1373,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1384,7 +1390,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1398,7 +1404,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1415,7 +1421,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1432,7 +1438,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1446,7 +1452,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1460,7 +1466,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1477,7 +1483,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1494,7 +1500,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1511,7 +1517,7 @@
         <v>42690</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1528,7 +1534,7 @@
         <v>42460</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1545,7 +1551,7 @@
         <v>41963</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1562,7 +1568,7 @@
         <v>41661</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1579,7 +1585,7 @@
         <v>42459</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1599,7 +1605,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -1619,7 +1625,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -1639,7 +1645,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -1656,7 +1662,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -1673,7 +1679,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -1690,7 +1696,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -1707,7 +1713,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -1724,7 +1730,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -1741,7 +1747,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -1758,7 +1764,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -1775,7 +1781,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -1792,7 +1798,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>69</v>
       </c>
@@ -1801,7 +1807,7 @@
       </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -1815,7 +1821,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>71</v>
       </c>
@@ -1832,7 +1838,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -1852,7 +1858,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -1869,7 +1875,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -1883,7 +1889,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -1903,7 +1909,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -1923,7 +1929,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -1940,7 +1946,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -1957,7 +1963,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -1974,7 +1980,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -1994,7 +2000,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -2014,7 +2020,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -2028,7 +2034,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>163</v>
       </c>
@@ -2045,7 +2051,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -2062,7 +2068,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -2079,7 +2085,7 @@
         <v>42603</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -2096,7 +2102,7 @@
         <v>42602</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -2113,7 +2119,7 @@
         <v>44151</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>102</v>
       </c>
@@ -2130,7 +2136,7 @@
         <v>43398</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>91</v>
       </c>
@@ -2150,7 +2156,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -2170,7 +2176,7 @@
         <v>43735</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -2178,7 +2184,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -2186,7 +2192,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>69</v>
       </c>
@@ -2194,7 +2200,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>35</v>
       </c>
@@ -2214,7 +2220,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -2231,7 +2237,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>129</v>
       </c>
@@ -2248,7 +2254,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -2265,7 +2271,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>35</v>
       </c>
@@ -2285,7 +2291,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -2293,7 +2299,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>129</v>
       </c>
@@ -2310,7 +2316,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>176</v>
       </c>
@@ -2327,7 +2333,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>23</v>
       </c>
@@ -2341,7 +2347,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -2349,7 +2355,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>47</v>
       </c>
@@ -2372,7 +2378,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>47</v>
       </c>
@@ -2395,7 +2401,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -2412,7 +2418,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -2429,7 +2435,7 @@
         <v>44883</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -2446,7 +2452,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>69</v>
       </c>
@@ -2454,7 +2460,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>69</v>
       </c>
@@ -2462,7 +2468,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>35</v>
       </c>
@@ -2482,7 +2488,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>69</v>
       </c>
@@ -2490,7 +2496,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>35</v>
       </c>
@@ -2507,7 +2513,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>163</v>
       </c>
@@ -2524,7 +2530,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>163</v>
       </c>
@@ -2541,7 +2547,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>163</v>
       </c>
@@ -2558,7 +2564,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>163</v>
       </c>
@@ -2575,7 +2581,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>163</v>
       </c>
@@ -2592,7 +2598,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>44</v>
       </c>
@@ -2609,7 +2615,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>44</v>
       </c>
@@ -2626,7 +2632,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>176</v>
       </c>
@@ -2643,7 +2649,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>69</v>
       </c>
@@ -2651,7 +2657,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>69</v>
       </c>
@@ -2659,7 +2665,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -2679,7 +2685,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -2699,7 +2705,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>35</v>
       </c>
@@ -2719,7 +2725,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>35</v>
       </c>
@@ -2736,7 +2742,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>69</v>
       </c>
@@ -2744,7 +2750,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>69</v>
       </c>
@@ -2752,7 +2758,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -2772,7 +2778,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>8</v>
       </c>
@@ -2792,7 +2798,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>8</v>
       </c>
@@ -2812,7 +2818,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>8</v>
       </c>
@@ -2832,7 +2838,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>8</v>
       </c>
@@ -2852,7 +2858,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>163</v>
       </c>
@@ -2869,7 +2875,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>35</v>
       </c>
@@ -2886,12 +2892,32 @@
         <v>230</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>69</v>
       </c>
       <c r="B105" t="s">
         <v>234</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" t="s">
+        <v>237</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E106" t="s">
+        <v>212</v>
+      </c>
+      <c r="G106" s="1">
+        <v>45611</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -2908,8 +2934,9 @@
     <hyperlink ref="H9" r:id="rId9" xr:uid="{A688A2CB-7404-497C-A952-D966D4409465}"/>
     <hyperlink ref="H44" r:id="rId10" xr:uid="{31839AD7-E9F6-4DE4-9A23-350490A1CC87}"/>
     <hyperlink ref="H43" r:id="rId11" xr:uid="{B1F3C180-3AFA-40E5-8782-691741CFF137}"/>
+    <hyperlink ref="H106" r:id="rId12" xr:uid="{18D0BFF0-5C71-435D-B5A9-216CA350CCEA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A371789-9141-4D6C-BA30-7EFB2486FF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D07E6A6-BEAF-47E7-8A69-F3D2B7360E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
+    <workbookView xWindow="8160" yWindow="-17388" windowWidth="30936" windowHeight="16776" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="242">
   <si>
     <t>type</t>
   </si>
@@ -742,6 +742,15 @@
   </si>
   <si>
     <t>https://clanfear.github.io/ASC_2024/slides.html</t>
+  </si>
+  <si>
+    <t>Dual pathways of concealed gun carrying and use from adolescence to adulthood over a 25-year era of change</t>
+  </si>
+  <si>
+    <t>*National Research Conference for the Prevention of Firearm-Related Harms*, Seattle, WA</t>
+  </si>
+  <si>
+    <t>https://www.science.org/doi/10.1126/sciadv.adp8915</t>
   </si>
 </sst>
 </file>
@@ -811,7 +820,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -819,6 +828,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1134,10 +1144,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+      <selection activeCell="H107" sqref="H107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2920,6 +2930,26 @@
         <v>238</v>
       </c>
     </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" t="s">
+        <v>239</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E107" t="s">
+        <v>240</v>
+      </c>
+      <c r="G107" s="1">
+        <v>45636</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -2935,8 +2965,9 @@
     <hyperlink ref="H44" r:id="rId10" xr:uid="{31839AD7-E9F6-4DE4-9A23-350490A1CC87}"/>
     <hyperlink ref="H43" r:id="rId11" xr:uid="{B1F3C180-3AFA-40E5-8782-691741CFF137}"/>
     <hyperlink ref="H106" r:id="rId12" xr:uid="{18D0BFF0-5C71-435D-B5A9-216CA350CCEA}"/>
+    <hyperlink ref="H107" r:id="rId13" xr:uid="{B4940148-48B1-457B-B73A-3CB7BBEF2984}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/090f7abe46c7f02e/GitHub/ccl_cv/cv_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D07E6A6-BEAF-47E7-8A69-F3D2B7360E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{8D07E6A6-BEAF-47E7-8A69-F3D2B7360E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3AAF486-2C82-478E-9297-DBCB889D68F2}"/>
   <bookViews>
-    <workbookView xWindow="8160" yWindow="-17388" windowWidth="30936" windowHeight="16776" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="244">
   <si>
     <t>type</t>
   </si>
@@ -751,6 +751,12 @@
   </si>
   <si>
     <t>https://www.science.org/doi/10.1126/sciadv.adp8915</t>
+  </si>
+  <si>
+    <t>Policing</t>
+  </si>
+  <si>
+    <t>PLOS One</t>
   </si>
 </sst>
 </file>
@@ -1144,23 +1150,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="H107" sqref="H107"/>
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7890625" customWidth="1"/>
-    <col min="2" max="2" width="57.5234375" customWidth="1"/>
-    <col min="3" max="4" width="9.15625" style="5"/>
-    <col min="5" max="5" width="42.5234375" customWidth="1"/>
-    <col min="6" max="6" width="43.26171875" customWidth="1"/>
-    <col min="7" max="7" width="10.734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="5"/>
+    <col min="5" max="5" width="42.5703125" customWidth="1"/>
+    <col min="6" max="6" width="43.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1186,7 +1192,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1203,7 +1209,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -1223,7 +1229,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1243,7 +1249,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1263,7 +1269,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1283,7 +1289,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1303,7 +1309,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1326,7 +1332,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1349,7 +1355,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1366,7 +1372,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1383,7 +1389,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1400,7 +1406,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1414,7 +1420,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1431,7 +1437,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1448,7 +1454,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1462,7 +1468,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1476,7 +1482,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1493,7 +1499,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1510,7 +1516,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1527,7 +1533,7 @@
         <v>42690</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1544,7 +1550,7 @@
         <v>42460</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1561,7 +1567,7 @@
         <v>41963</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1578,7 +1584,7 @@
         <v>41661</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1595,7 +1601,7 @@
         <v>42459</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1615,7 +1621,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -1635,7 +1641,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -1655,7 +1661,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -1672,7 +1678,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -1689,7 +1695,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -1706,7 +1712,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -1723,7 +1729,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -1740,7 +1746,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -1757,7 +1763,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -1774,7 +1780,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -1791,7 +1797,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -1808,7 +1814,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>69</v>
       </c>
@@ -1817,7 +1823,7 @@
       </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -1831,7 +1837,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>71</v>
       </c>
@@ -1848,7 +1854,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -1868,7 +1874,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -1885,7 +1891,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -1899,7 +1905,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -1919,7 +1925,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -1939,7 +1945,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -1956,7 +1962,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -1973,7 +1979,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -1990,7 +1996,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -2010,7 +2016,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -2030,7 +2036,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -2044,7 +2050,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>163</v>
       </c>
@@ -2061,7 +2067,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -2078,7 +2084,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -2095,7 +2101,7 @@
         <v>42603</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -2112,7 +2118,7 @@
         <v>42602</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -2129,7 +2135,7 @@
         <v>44151</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>102</v>
       </c>
@@ -2146,7 +2152,7 @@
         <v>43398</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>91</v>
       </c>
@@ -2166,7 +2172,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -2186,7 +2192,7 @@
         <v>43735</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -2194,7 +2200,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -2202,7 +2208,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>69</v>
       </c>
@@ -2210,7 +2216,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>35</v>
       </c>
@@ -2230,7 +2236,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -2247,7 +2253,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>129</v>
       </c>
@@ -2264,7 +2270,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -2281,7 +2287,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>35</v>
       </c>
@@ -2301,7 +2307,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -2309,7 +2315,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>129</v>
       </c>
@@ -2326,7 +2332,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>176</v>
       </c>
@@ -2343,7 +2349,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>23</v>
       </c>
@@ -2357,7 +2363,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -2365,7 +2371,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>47</v>
       </c>
@@ -2388,7 +2394,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>47</v>
       </c>
@@ -2411,7 +2417,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -2428,7 +2434,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -2445,7 +2451,7 @@
         <v>44883</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -2462,7 +2468,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>69</v>
       </c>
@@ -2470,7 +2476,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>69</v>
       </c>
@@ -2478,7 +2484,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>35</v>
       </c>
@@ -2498,7 +2504,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>69</v>
       </c>
@@ -2506,7 +2512,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>35</v>
       </c>
@@ -2523,7 +2529,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>163</v>
       </c>
@@ -2540,7 +2546,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>163</v>
       </c>
@@ -2557,7 +2563,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>163</v>
       </c>
@@ -2574,7 +2580,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>163</v>
       </c>
@@ -2591,7 +2597,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>163</v>
       </c>
@@ -2608,7 +2614,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>44</v>
       </c>
@@ -2625,7 +2631,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>44</v>
       </c>
@@ -2642,7 +2648,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>176</v>
       </c>
@@ -2659,7 +2665,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>69</v>
       </c>
@@ -2667,7 +2673,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>69</v>
       </c>
@@ -2675,7 +2681,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -2695,7 +2701,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -2715,7 +2721,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>35</v>
       </c>
@@ -2735,7 +2741,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>35</v>
       </c>
@@ -2752,7 +2758,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>69</v>
       </c>
@@ -2760,7 +2766,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>69</v>
       </c>
@@ -2768,7 +2774,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -2788,7 +2794,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>8</v>
       </c>
@@ -2808,7 +2814,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>8</v>
       </c>
@@ -2828,7 +2834,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>8</v>
       </c>
@@ -2848,7 +2854,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>8</v>
       </c>
@@ -2868,7 +2874,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>163</v>
       </c>
@@ -2885,7 +2891,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>35</v>
       </c>
@@ -2902,7 +2908,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>69</v>
       </c>
@@ -2910,7 +2916,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>8</v>
       </c>
@@ -2930,7 +2936,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>8</v>
       </c>
@@ -2948,6 +2954,22 @@
       </c>
       <c r="H107" s="7" t="s">
         <v>241</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>69</v>
+      </c>
+      <c r="B108" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>69</v>
+      </c>
+      <c r="B109" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/090f7abe46c7f02e/GitHub/ccl_cv/cv_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{8D07E6A6-BEAF-47E7-8A69-F3D2B7360E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3AAF486-2C82-478E-9297-DBCB889D68F2}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{8D07E6A6-BEAF-47E7-8A69-F3D2B7360E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F90BC820-0534-4C6A-846F-AD51B40DEE57}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="247">
   <si>
     <t>type</t>
   </si>
@@ -757,6 +757,15 @@
   </si>
   <si>
     <t>PLOS One</t>
+  </si>
+  <si>
+    <t>Injury Epidemiology</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>Director Search Committee</t>
   </si>
 </sst>
 </file>
@@ -851,6 +860,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1150,10 +1163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2625,7 +2638,7 @@
         <v>158</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>199</v>
+        <v>245</v>
       </c>
       <c r="E87" t="s">
         <v>138</v>
@@ -2642,7 +2655,7 @@
         <v>158</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>199</v>
+        <v>245</v>
       </c>
       <c r="E88" t="s">
         <v>138</v>
@@ -2970,6 +2983,28 @@
       </c>
       <c r="B109" t="s">
         <v>243</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>69</v>
+      </c>
+      <c r="B110" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>44</v>
+      </c>
+      <c r="B111" t="s">
+        <v>246</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E111" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/090f7abe46c7f02e/GitHub/ccl_cv/cv_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{8D07E6A6-BEAF-47E7-8A69-F3D2B7360E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F90BC820-0534-4C6A-846F-AD51B40DEE57}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A82272B-6AEE-43E2-9AC5-4314784434BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
+    <workbookView xWindow="8160" yWindow="-17388" windowWidth="30936" windowHeight="16776" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="249">
   <si>
     <t>type</t>
   </si>
@@ -766,6 +766,12 @@
   </si>
   <si>
     <t>Director Search Committee</t>
+  </si>
+  <si>
+    <t>Life-course processes as cause and effect of trends in gun violence</t>
+  </si>
+  <si>
+    <t>https://clanfear.github.io/UW_2025-04-17/slides.html</t>
   </si>
 </sst>
 </file>
@@ -860,10 +866,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1163,23 +1165,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
-  <dimension ref="A1:H111"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="H110" sqref="H110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="57.5703125" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="5"/>
-    <col min="5" max="5" width="42.5703125" customWidth="1"/>
-    <col min="6" max="6" width="43.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83984375" customWidth="1"/>
+    <col min="2" max="2" width="57.578125" customWidth="1"/>
+    <col min="3" max="4" width="9.15625" style="5"/>
+    <col min="5" max="5" width="42.578125" customWidth="1"/>
+    <col min="6" max="6" width="43.26171875" customWidth="1"/>
+    <col min="7" max="7" width="10.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1205,7 +1207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1222,7 +1224,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -1242,7 +1244,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1262,7 +1264,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1282,7 +1284,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1302,7 +1304,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1322,7 +1324,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1345,7 +1347,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1368,7 +1370,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1385,7 +1387,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1402,7 +1404,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1419,7 +1421,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1433,7 +1435,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1450,7 +1452,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1467,7 +1469,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1481,7 +1483,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1495,7 +1497,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1512,7 +1514,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1529,7 +1531,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1546,7 +1548,7 @@
         <v>42690</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1563,7 +1565,7 @@
         <v>42460</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1580,7 +1582,7 @@
         <v>41963</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1597,7 +1599,7 @@
         <v>41661</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1614,7 +1616,7 @@
         <v>42459</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1634,7 +1636,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -1654,7 +1656,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -1674,7 +1676,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -1691,7 +1693,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -1708,7 +1710,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -1725,7 +1727,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -1742,7 +1744,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -1759,7 +1761,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -1776,7 +1778,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -1793,7 +1795,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -1810,7 +1812,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -1827,7 +1829,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>69</v>
       </c>
@@ -1836,7 +1838,7 @@
       </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -1850,7 +1852,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>71</v>
       </c>
@@ -1867,7 +1869,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -1887,7 +1889,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -1904,7 +1906,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -1918,7 +1920,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -1938,7 +1940,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -1958,7 +1960,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -1975,7 +1977,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -1992,7 +1994,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -2009,7 +2011,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -2029,7 +2031,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -2049,7 +2051,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -2063,7 +2065,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>163</v>
       </c>
@@ -2080,7 +2082,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -2097,7 +2099,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -2114,7 +2116,7 @@
         <v>42603</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -2131,7 +2133,7 @@
         <v>42602</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -2148,7 +2150,7 @@
         <v>44151</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>102</v>
       </c>
@@ -2165,7 +2167,7 @@
         <v>43398</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>91</v>
       </c>
@@ -2185,7 +2187,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -2205,7 +2207,7 @@
         <v>43735</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -2213,7 +2215,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -2221,7 +2223,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>69</v>
       </c>
@@ -2229,7 +2231,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>35</v>
       </c>
@@ -2249,7 +2251,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -2266,7 +2268,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>129</v>
       </c>
@@ -2283,7 +2285,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -2300,7 +2302,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>35</v>
       </c>
@@ -2320,7 +2322,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -2328,7 +2330,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>129</v>
       </c>
@@ -2345,7 +2347,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>176</v>
       </c>
@@ -2362,7 +2364,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>23</v>
       </c>
@@ -2376,7 +2378,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -2384,7 +2386,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>47</v>
       </c>
@@ -2407,7 +2409,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>47</v>
       </c>
@@ -2430,7 +2432,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -2447,7 +2449,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -2464,7 +2466,7 @@
         <v>44883</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -2481,7 +2483,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>69</v>
       </c>
@@ -2489,7 +2491,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>69</v>
       </c>
@@ -2497,7 +2499,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>35</v>
       </c>
@@ -2517,7 +2519,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>69</v>
       </c>
@@ -2525,7 +2527,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>35</v>
       </c>
@@ -2542,7 +2544,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>163</v>
       </c>
@@ -2559,7 +2561,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>163</v>
       </c>
@@ -2576,7 +2578,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>163</v>
       </c>
@@ -2593,7 +2595,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>163</v>
       </c>
@@ -2610,7 +2612,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>163</v>
       </c>
@@ -2627,7 +2629,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>44</v>
       </c>
@@ -2644,7 +2646,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>44</v>
       </c>
@@ -2661,7 +2663,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>176</v>
       </c>
@@ -2678,7 +2680,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>69</v>
       </c>
@@ -2686,7 +2688,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>69</v>
       </c>
@@ -2694,7 +2696,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -2714,7 +2716,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -2734,7 +2736,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>35</v>
       </c>
@@ -2754,7 +2756,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>35</v>
       </c>
@@ -2771,7 +2773,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>69</v>
       </c>
@@ -2779,7 +2781,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>69</v>
       </c>
@@ -2787,7 +2789,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -2807,7 +2809,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>8</v>
       </c>
@@ -2827,7 +2829,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>8</v>
       </c>
@@ -2847,7 +2849,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>8</v>
       </c>
@@ -2867,7 +2869,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>8</v>
       </c>
@@ -2887,7 +2889,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>163</v>
       </c>
@@ -2904,7 +2906,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>35</v>
       </c>
@@ -2921,7 +2923,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>69</v>
       </c>
@@ -2929,7 +2931,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>8</v>
       </c>
@@ -2949,7 +2951,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>8</v>
       </c>
@@ -2969,7 +2971,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>69</v>
       </c>
@@ -2977,7 +2979,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>69</v>
       </c>
@@ -2985,7 +2987,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>69</v>
       </c>
@@ -2993,7 +2995,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>44</v>
       </c>
@@ -3005,6 +3007,26 @@
       </c>
       <c r="E111" t="s">
         <v>138</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" t="s">
+        <v>247</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E112" t="s">
+        <v>208</v>
+      </c>
+      <c r="G112" s="1">
+        <v>45764</v>
+      </c>
+      <c r="H112" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A82272B-6AEE-43E2-9AC5-4314784434BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A30C7EE-84D2-4CBF-87C6-5C18CB2200C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8160" yWindow="-17388" windowWidth="30936" windowHeight="16776" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="250">
   <si>
     <t>type</t>
   </si>
@@ -772,6 +772,9 @@
   </si>
   <si>
     <t>https://clanfear.github.io/UW_2025-04-17/slides.html</t>
+  </si>
+  <si>
+    <t>Victims &amp; Offenders</t>
   </si>
 </sst>
 </file>
@@ -1165,10 +1168,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
-  <dimension ref="A1:H112"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="H110" sqref="H110"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3027,6 +3030,14 @@
       </c>
       <c r="H112" t="s">
         <v>248</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" t="s">
+        <v>69</v>
+      </c>
+      <c r="B113" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/090f7abe46c7f02e/GitHub/ccl_cv/cv_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A30C7EE-84D2-4CBF-87C6-5C18CB2200C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{7A30C7EE-84D2-4CBF-87C6-5C18CB2200C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C06EEBA2-93ED-4497-8496-B6E9B3E987D7}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
+    <workbookView xWindow="2880" yWindow="1740" windowWidth="38385" windowHeight="20865" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="252">
   <si>
     <t>type</t>
   </si>
@@ -775,6 +775,12 @@
   </si>
   <si>
     <t>Victims &amp; Offenders</t>
+  </si>
+  <si>
+    <t>Affiliate Assistant Professor</t>
+  </si>
+  <si>
+    <t>Department of Sociology, University of Washington</t>
   </si>
 </sst>
 </file>
@@ -1168,23 +1174,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
-  <dimension ref="A1:H113"/>
+  <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.83984375" customWidth="1"/>
-    <col min="2" max="2" width="57.578125" customWidth="1"/>
-    <col min="3" max="4" width="9.15625" style="5"/>
-    <col min="5" max="5" width="42.578125" customWidth="1"/>
-    <col min="6" max="6" width="43.26171875" customWidth="1"/>
-    <col min="7" max="7" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="5"/>
+    <col min="5" max="5" width="42.5703125" customWidth="1"/>
+    <col min="6" max="6" width="43.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1210,7 +1216,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1227,7 +1233,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -1247,7 +1253,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1267,7 +1273,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1287,7 +1293,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1307,7 +1313,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1327,7 +1333,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1350,7 +1356,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1373,7 +1379,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1390,7 +1396,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1407,7 +1413,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1424,7 +1430,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1438,7 +1444,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1455,7 +1461,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1472,7 +1478,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1486,7 +1492,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1500,7 +1506,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1517,7 +1523,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1534,7 +1540,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1551,7 +1557,7 @@
         <v>42690</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1568,7 +1574,7 @@
         <v>42460</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1585,7 +1591,7 @@
         <v>41963</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1602,7 +1608,7 @@
         <v>41661</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1619,7 +1625,7 @@
         <v>42459</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1639,7 +1645,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -1659,7 +1665,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -1679,7 +1685,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -1696,7 +1702,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -1713,7 +1719,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -1730,7 +1736,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -1747,7 +1753,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -1764,7 +1770,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -1781,7 +1787,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -1798,7 +1804,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -1815,7 +1821,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -1832,7 +1838,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>69</v>
       </c>
@@ -1841,7 +1847,7 @@
       </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -1855,7 +1861,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>71</v>
       </c>
@@ -1872,7 +1878,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -1892,7 +1898,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -1909,7 +1915,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -1923,7 +1929,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -1943,7 +1949,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -1963,7 +1969,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -1980,7 +1986,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -1997,7 +2003,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -2014,7 +2020,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -2034,7 +2040,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -2054,7 +2060,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -2068,7 +2074,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>163</v>
       </c>
@@ -2085,7 +2091,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -2102,7 +2108,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -2119,7 +2125,7 @@
         <v>42603</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -2136,7 +2142,7 @@
         <v>42602</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -2153,7 +2159,7 @@
         <v>44151</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>102</v>
       </c>
@@ -2170,7 +2176,7 @@
         <v>43398</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>91</v>
       </c>
@@ -2190,7 +2196,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -2210,7 +2216,7 @@
         <v>43735</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -2218,7 +2224,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -2226,7 +2232,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>69</v>
       </c>
@@ -2234,7 +2240,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>35</v>
       </c>
@@ -2254,7 +2260,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -2271,7 +2277,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>129</v>
       </c>
@@ -2288,7 +2294,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -2305,7 +2311,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>35</v>
       </c>
@@ -2325,7 +2331,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -2333,7 +2339,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>129</v>
       </c>
@@ -2350,7 +2356,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>176</v>
       </c>
@@ -2367,7 +2373,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>23</v>
       </c>
@@ -2381,7 +2387,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -2389,7 +2395,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>47</v>
       </c>
@@ -2412,7 +2418,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>47</v>
       </c>
@@ -2435,7 +2441,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -2452,7 +2458,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -2469,7 +2475,7 @@
         <v>44883</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -2486,7 +2492,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>69</v>
       </c>
@@ -2494,7 +2500,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>69</v>
       </c>
@@ -2502,7 +2508,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>35</v>
       </c>
@@ -2522,7 +2528,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>69</v>
       </c>
@@ -2530,7 +2536,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>35</v>
       </c>
@@ -2547,7 +2553,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>163</v>
       </c>
@@ -2564,7 +2570,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>163</v>
       </c>
@@ -2581,7 +2587,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>163</v>
       </c>
@@ -2598,7 +2604,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>163</v>
       </c>
@@ -2615,7 +2621,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>163</v>
       </c>
@@ -2632,7 +2638,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>44</v>
       </c>
@@ -2649,7 +2655,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>44</v>
       </c>
@@ -2666,7 +2672,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>176</v>
       </c>
@@ -2683,7 +2689,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>69</v>
       </c>
@@ -2691,7 +2697,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>69</v>
       </c>
@@ -2699,7 +2705,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -2719,7 +2725,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -2739,7 +2745,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>35</v>
       </c>
@@ -2759,7 +2765,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>35</v>
       </c>
@@ -2776,7 +2782,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>69</v>
       </c>
@@ -2784,7 +2790,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>69</v>
       </c>
@@ -2792,7 +2798,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -2812,7 +2818,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>8</v>
       </c>
@@ -2832,7 +2838,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>8</v>
       </c>
@@ -2852,7 +2858,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>8</v>
       </c>
@@ -2872,7 +2878,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>8</v>
       </c>
@@ -2892,7 +2898,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>163</v>
       </c>
@@ -2909,7 +2915,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>35</v>
       </c>
@@ -2926,7 +2932,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>69</v>
       </c>
@@ -2934,7 +2940,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>8</v>
       </c>
@@ -2954,7 +2960,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>8</v>
       </c>
@@ -2974,7 +2980,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>69</v>
       </c>
@@ -2982,7 +2988,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>69</v>
       </c>
@@ -2990,7 +2996,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>69</v>
       </c>
@@ -2998,7 +3004,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>44</v>
       </c>
@@ -3012,7 +3018,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>8</v>
       </c>
@@ -3032,12 +3038,23 @@
         <v>248</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>69</v>
       </c>
       <c r="B113" t="s">
         <v>249</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>176</v>
+      </c>
+      <c r="B114" t="s">
+        <v>250</v>
+      </c>
+      <c r="E114" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/090f7abe46c7f02e/GitHub/ccl_cv/cv_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cl948\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{7A30C7EE-84D2-4CBF-87C6-5C18CB2200C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C06EEBA2-93ED-4497-8496-B6E9B3E987D7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AE213A-EAA4-40FF-8E5D-EFCC21609051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="1740" windowWidth="38385" windowHeight="20865" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="253">
   <si>
     <t>type</t>
   </si>
@@ -781,6 +781,9 @@
   </si>
   <si>
     <t>Department of Sociology, University of Washington</t>
+  </si>
+  <si>
+    <t>The Lancet</t>
   </si>
 </sst>
 </file>
@@ -1174,23 +1177,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
-  <dimension ref="A1:H114"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E114" sqref="E114"/>
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="57.5703125" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="5"/>
-    <col min="5" max="5" width="42.5703125" customWidth="1"/>
-    <col min="6" max="6" width="43.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.81640625" customWidth="1"/>
+    <col min="2" max="2" width="57.54296875" customWidth="1"/>
+    <col min="3" max="4" width="9.1796875" style="5"/>
+    <col min="5" max="5" width="42.54296875" customWidth="1"/>
+    <col min="6" max="6" width="43.26953125" customWidth="1"/>
+    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1216,7 +1219,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1233,7 +1236,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -1253,7 +1256,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1273,7 +1276,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1293,7 +1296,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1313,7 +1316,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1333,7 +1336,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1356,7 +1359,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1379,7 +1382,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1396,7 +1399,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1413,7 +1416,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1430,7 +1433,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1444,7 +1447,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1461,7 +1464,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1478,7 +1481,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1492,7 +1495,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1506,7 +1509,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1523,7 +1526,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1540,7 +1543,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1557,7 +1560,7 @@
         <v>42690</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1574,7 +1577,7 @@
         <v>42460</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1591,7 +1594,7 @@
         <v>41963</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1608,7 +1611,7 @@
         <v>41661</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1625,7 +1628,7 @@
         <v>42459</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1645,7 +1648,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -1665,7 +1668,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -1685,7 +1688,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -1702,7 +1705,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -1719,7 +1722,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -1736,7 +1739,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -1753,7 +1756,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -1770,7 +1773,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -1787,7 +1790,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -1804,7 +1807,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -1821,7 +1824,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -1838,7 +1841,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>69</v>
       </c>
@@ -1847,7 +1850,7 @@
       </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -1861,7 +1864,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>71</v>
       </c>
@@ -1878,7 +1881,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -1898,7 +1901,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -1915,7 +1918,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -1929,7 +1932,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -1949,7 +1952,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -1969,7 +1972,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -1986,7 +1989,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -2003,7 +2006,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -2020,7 +2023,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -2040,7 +2043,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -2060,7 +2063,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -2074,7 +2077,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>163</v>
       </c>
@@ -2091,7 +2094,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -2108,7 +2111,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -2125,7 +2128,7 @@
         <v>42603</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -2142,7 +2145,7 @@
         <v>42602</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -2159,7 +2162,7 @@
         <v>44151</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>102</v>
       </c>
@@ -2176,7 +2179,7 @@
         <v>43398</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>91</v>
       </c>
@@ -2196,7 +2199,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -2216,7 +2219,7 @@
         <v>43735</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -2224,7 +2227,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -2232,7 +2235,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>69</v>
       </c>
@@ -2240,7 +2243,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>35</v>
       </c>
@@ -2260,7 +2263,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -2277,7 +2280,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>129</v>
       </c>
@@ -2294,7 +2297,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -2311,7 +2314,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>35</v>
       </c>
@@ -2331,7 +2334,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -2339,7 +2342,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>129</v>
       </c>
@@ -2356,7 +2359,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>176</v>
       </c>
@@ -2373,7 +2376,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>23</v>
       </c>
@@ -2387,7 +2390,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -2395,7 +2398,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>47</v>
       </c>
@@ -2418,7 +2421,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>47</v>
       </c>
@@ -2441,7 +2444,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -2458,7 +2461,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -2475,7 +2478,7 @@
         <v>44883</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -2492,7 +2495,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>69</v>
       </c>
@@ -2500,7 +2503,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>69</v>
       </c>
@@ -2508,7 +2511,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>35</v>
       </c>
@@ -2528,7 +2531,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>69</v>
       </c>
@@ -2536,7 +2539,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>35</v>
       </c>
@@ -2553,7 +2556,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>163</v>
       </c>
@@ -2570,7 +2573,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>163</v>
       </c>
@@ -2587,7 +2590,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>163</v>
       </c>
@@ -2604,7 +2607,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>163</v>
       </c>
@@ -2621,7 +2624,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>163</v>
       </c>
@@ -2638,7 +2641,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>44</v>
       </c>
@@ -2655,7 +2658,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>44</v>
       </c>
@@ -2672,7 +2675,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>176</v>
       </c>
@@ -2689,7 +2692,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>69</v>
       </c>
@@ -2697,7 +2700,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>69</v>
       </c>
@@ -2705,7 +2708,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -2725,7 +2728,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -2745,7 +2748,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>35</v>
       </c>
@@ -2765,7 +2768,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>35</v>
       </c>
@@ -2782,7 +2785,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>69</v>
       </c>
@@ -2790,7 +2793,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>69</v>
       </c>
@@ -2798,7 +2801,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -2818,7 +2821,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>8</v>
       </c>
@@ -2838,7 +2841,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>8</v>
       </c>
@@ -2858,7 +2861,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>8</v>
       </c>
@@ -2878,7 +2881,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>8</v>
       </c>
@@ -2898,7 +2901,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>163</v>
       </c>
@@ -2915,7 +2918,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>35</v>
       </c>
@@ -2932,7 +2935,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>69</v>
       </c>
@@ -2940,7 +2943,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>8</v>
       </c>
@@ -2960,7 +2963,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>8</v>
       </c>
@@ -2980,7 +2983,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>69</v>
       </c>
@@ -2988,7 +2991,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>69</v>
       </c>
@@ -2996,7 +2999,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>69</v>
       </c>
@@ -3004,7 +3007,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>44</v>
       </c>
@@ -3018,7 +3021,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>8</v>
       </c>
@@ -3038,7 +3041,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>69</v>
       </c>
@@ -3046,7 +3049,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>176</v>
       </c>
@@ -3055,6 +3058,14 @@
       </c>
       <c r="E114" t="s">
         <v>251</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>69</v>
+      </c>
+      <c r="B115" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cl948\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AE213A-EAA4-40FF-8E5D-EFCC21609051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49E319A-D36F-42EF-8BEF-A79A9B88F8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="255">
   <si>
     <t>type</t>
   </si>
@@ -784,6 +784,12 @@
   </si>
   <si>
     <t>The Lancet</t>
+  </si>
+  <si>
+    <t>Disorder, social control, and opportunity: Advancing research on communities and crime</t>
+  </si>
+  <si>
+    <t>https://clanfear.github.io/IOC_2023-01-19/slides.html</t>
   </si>
 </sst>
 </file>
@@ -1177,10 +1183,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+      <selection activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3041,7 +3047,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>69</v>
       </c>
@@ -3049,7 +3055,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>176</v>
       </c>
@@ -3060,12 +3066,32 @@
         <v>251</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>69</v>
       </c>
       <c r="B115" t="s">
         <v>252</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" t="s">
+        <v>253</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E116" t="s">
+        <v>138</v>
+      </c>
+      <c r="G116" s="1">
+        <v>44945</v>
+      </c>
+      <c r="H116" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cl948\OneDrive\GitHub\ccl_cv\cv_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49E319A-D36F-42EF-8BEF-A79A9B88F8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E227292-3C2C-45EE-AC40-8B1EEB67B5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="259">
   <si>
     <t>type</t>
   </si>
@@ -790,6 +790,18 @@
   </si>
   <si>
     <t>https://clanfear.github.io/IOC_2023-01-19/slides.html</t>
+  </si>
+  <si>
+    <t>American Journal of Public Health</t>
+  </si>
+  <si>
+    <t>Life-course processes as cause and effect of macro-social change in gun violence</t>
+  </si>
+  <si>
+    <t>*American Sociological Association Annual Meeting*, Chicago, IL</t>
+  </si>
+  <si>
+    <t>Crime &amp; Delinquency</t>
   </si>
 </sst>
 </file>
@@ -1183,23 +1195,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
-  <dimension ref="A1:H116"/>
+  <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.81640625" customWidth="1"/>
-    <col min="2" max="2" width="57.54296875" customWidth="1"/>
-    <col min="3" max="4" width="9.1796875" style="5"/>
-    <col min="5" max="5" width="42.54296875" customWidth="1"/>
-    <col min="6" max="6" width="43.26953125" customWidth="1"/>
-    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7890625" customWidth="1"/>
+    <col min="2" max="2" width="57.5234375" customWidth="1"/>
+    <col min="3" max="4" width="9.15625" style="5"/>
+    <col min="5" max="5" width="42.5234375" customWidth="1"/>
+    <col min="6" max="6" width="43.26171875" customWidth="1"/>
+    <col min="7" max="7" width="10.734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1225,7 +1237,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1242,7 +1254,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -1262,7 +1274,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1282,7 +1294,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1302,7 +1314,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1322,7 +1334,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1342,7 +1354,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1365,7 +1377,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1388,7 +1400,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1405,7 +1417,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1422,7 +1434,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1439,7 +1451,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1453,7 +1465,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1470,7 +1482,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1487,7 +1499,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1501,7 +1513,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1515,7 +1527,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1532,7 +1544,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1549,7 +1561,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1566,7 +1578,7 @@
         <v>42690</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1583,7 +1595,7 @@
         <v>42460</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1600,7 +1612,7 @@
         <v>41963</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1617,7 +1629,7 @@
         <v>41661</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1634,7 +1646,7 @@
         <v>42459</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1654,7 +1666,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -1674,7 +1686,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -1694,7 +1706,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -1711,7 +1723,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -1728,7 +1740,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -1745,7 +1757,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -1762,7 +1774,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -1779,7 +1791,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -1796,7 +1808,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -1813,7 +1825,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -1830,7 +1842,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -1847,7 +1859,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>69</v>
       </c>
@@ -1856,7 +1868,7 @@
       </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -1870,7 +1882,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>71</v>
       </c>
@@ -1887,7 +1899,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -1907,7 +1919,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -1924,7 +1936,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -1938,7 +1950,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -1958,7 +1970,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -1978,7 +1990,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -1995,7 +2007,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -2012,7 +2024,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -2029,7 +2041,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -2049,7 +2061,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -2069,7 +2081,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -2083,7 +2095,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>163</v>
       </c>
@@ -2100,7 +2112,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -2117,7 +2129,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -2134,7 +2146,7 @@
         <v>42603</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -2151,7 +2163,7 @@
         <v>42602</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -2168,7 +2180,7 @@
         <v>44151</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>102</v>
       </c>
@@ -2185,7 +2197,7 @@
         <v>43398</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>91</v>
       </c>
@@ -2205,7 +2217,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -2225,7 +2237,7 @@
         <v>43735</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -2233,7 +2245,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -2241,7 +2253,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>69</v>
       </c>
@@ -2249,7 +2261,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>35</v>
       </c>
@@ -2269,7 +2281,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -2286,7 +2298,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>129</v>
       </c>
@@ -2303,7 +2315,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -2320,7 +2332,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>35</v>
       </c>
@@ -2340,7 +2352,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -2348,7 +2360,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>129</v>
       </c>
@@ -2365,7 +2377,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>176</v>
       </c>
@@ -2382,7 +2394,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>23</v>
       </c>
@@ -2396,7 +2408,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -2404,7 +2416,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>47</v>
       </c>
@@ -2427,7 +2439,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>47</v>
       </c>
@@ -2450,7 +2462,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -2467,7 +2479,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -2484,7 +2496,7 @@
         <v>44883</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -2501,7 +2513,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>69</v>
       </c>
@@ -2509,7 +2521,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>69</v>
       </c>
@@ -2517,7 +2529,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>35</v>
       </c>
@@ -2537,7 +2549,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>69</v>
       </c>
@@ -2545,7 +2557,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>35</v>
       </c>
@@ -2562,7 +2574,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>163</v>
       </c>
@@ -2579,7 +2591,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>163</v>
       </c>
@@ -2596,7 +2608,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>163</v>
       </c>
@@ -2613,7 +2625,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>163</v>
       </c>
@@ -2630,7 +2642,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>163</v>
       </c>
@@ -2647,7 +2659,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>44</v>
       </c>
@@ -2664,7 +2676,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>44</v>
       </c>
@@ -2681,7 +2693,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>176</v>
       </c>
@@ -2698,7 +2710,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>69</v>
       </c>
@@ -2706,7 +2718,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>69</v>
       </c>
@@ -2714,7 +2726,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -2734,7 +2746,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -2754,7 +2766,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>35</v>
       </c>
@@ -2774,7 +2786,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>35</v>
       </c>
@@ -2791,7 +2803,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>69</v>
       </c>
@@ -2799,7 +2811,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>69</v>
       </c>
@@ -2807,7 +2819,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -2827,7 +2839,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>8</v>
       </c>
@@ -2847,7 +2859,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>8</v>
       </c>
@@ -2867,7 +2879,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>8</v>
       </c>
@@ -2887,7 +2899,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>8</v>
       </c>
@@ -2907,7 +2919,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>163</v>
       </c>
@@ -2924,7 +2936,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>35</v>
       </c>
@@ -2941,7 +2953,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>69</v>
       </c>
@@ -2949,7 +2961,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>8</v>
       </c>
@@ -2969,7 +2981,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>8</v>
       </c>
@@ -2989,7 +3001,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>69</v>
       </c>
@@ -2997,7 +3009,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>69</v>
       </c>
@@ -3005,7 +3017,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>69</v>
       </c>
@@ -3013,7 +3025,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>44</v>
       </c>
@@ -3027,7 +3039,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>8</v>
       </c>
@@ -3047,7 +3059,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>69</v>
       </c>
@@ -3055,7 +3067,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>176</v>
       </c>
@@ -3066,7 +3078,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>69</v>
       </c>
@@ -3074,7 +3086,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>8</v>
       </c>
@@ -3092,6 +3104,39 @@
       </c>
       <c r="H116" t="s">
         <v>254</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" t="s">
+        <v>69</v>
+      </c>
+      <c r="B117" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" t="s">
+        <v>256</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E118" t="s">
+        <v>257</v>
+      </c>
+      <c r="G118" s="1">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" t="s">
+        <v>69</v>
+      </c>
+      <c r="B119" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E227292-3C2C-45EE-AC40-8B1EEB67B5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636A6A39-D73C-4E36-945D-D82E58F0624E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="261">
   <si>
     <t>type</t>
   </si>
@@ -802,6 +802,12 @@
   </si>
   <si>
     <t>Crime &amp; Delinquency</t>
+  </si>
+  <si>
+    <t>https://clanfear.github.io/ASA_2025/slides.html</t>
+  </si>
+  <si>
+    <t>MPhil Director</t>
   </si>
 </sst>
 </file>
@@ -1195,10 +1201,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3130,6 +3136,9 @@
       <c r="G118" s="1">
         <v>45878</v>
       </c>
+      <c r="H118" s="2" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
@@ -3137,6 +3146,23 @@
       </c>
       <c r="B119" t="s">
         <v>258</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" t="s">
+        <v>44</v>
+      </c>
+      <c r="B120" t="s">
+        <v>260</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E120" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3155,8 +3181,9 @@
     <hyperlink ref="H43" r:id="rId11" xr:uid="{B1F3C180-3AFA-40E5-8782-691741CFF137}"/>
     <hyperlink ref="H106" r:id="rId12" xr:uid="{18D0BFF0-5C71-435D-B5A9-216CA350CCEA}"/>
     <hyperlink ref="H107" r:id="rId13" xr:uid="{B4940148-48B1-457B-B73A-3CB7BBEF2984}"/>
+    <hyperlink ref="H118" r:id="rId14" xr:uid="{EF90FA38-3C77-4A8E-B9DB-19A9F3521CC2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/090f7abe46c7f02e/GitHub/ccl_cv/cv_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636A6A39-D73C-4E36-945D-D82E58F0624E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{636A6A39-D73C-4E36-945D-D82E58F0624E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09BA7F6F-B4CB-4BB2-993B-9B93F172F8D7}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
+    <workbookView xWindow="25490" yWindow="-3770" windowWidth="38620" windowHeight="21100" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="268">
   <si>
     <t>type</t>
   </si>
@@ -808,6 +808,27 @@
   </si>
   <si>
     <t>MPhil Director</t>
+  </si>
+  <si>
+    <t>Paula Alexejew</t>
+  </si>
+  <si>
+    <t>Fumiri Nagao</t>
+  </si>
+  <si>
+    <t>Thomas Riley</t>
+  </si>
+  <si>
+    <t>Aaron Corbin</t>
+  </si>
+  <si>
+    <t>Amira Sharif</t>
+  </si>
+  <si>
+    <t>Teresa Etheredge</t>
+  </si>
+  <si>
+    <t>Thomas Jones</t>
   </si>
 </sst>
 </file>
@@ -1201,23 +1222,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
-  <dimension ref="A1:H120"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7890625" customWidth="1"/>
-    <col min="2" max="2" width="57.5234375" customWidth="1"/>
-    <col min="3" max="4" width="9.15625" style="5"/>
-    <col min="5" max="5" width="42.5234375" customWidth="1"/>
-    <col min="6" max="6" width="43.26171875" customWidth="1"/>
-    <col min="7" max="7" width="10.734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="5"/>
+    <col min="5" max="5" width="42.5703125" customWidth="1"/>
+    <col min="6" max="6" width="43.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1243,7 +1264,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1260,7 +1281,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -1280,7 +1301,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1300,7 +1321,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1320,7 +1341,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1340,7 +1361,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1360,7 +1381,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1383,7 +1404,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1406,7 +1427,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1423,7 +1444,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1440,7 +1461,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1457,7 +1478,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1471,7 +1492,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1488,7 +1509,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1505,7 +1526,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1519,7 +1540,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1533,7 +1554,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1550,7 +1571,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1567,7 +1588,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1584,7 +1605,7 @@
         <v>42690</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1601,7 +1622,7 @@
         <v>42460</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1618,7 +1639,7 @@
         <v>41963</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1635,7 +1656,7 @@
         <v>41661</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1652,7 +1673,7 @@
         <v>42459</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1672,7 +1693,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -1692,7 +1713,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -1712,7 +1733,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -1729,7 +1750,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -1746,7 +1767,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -1763,7 +1784,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -1780,7 +1801,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -1797,7 +1818,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -1814,7 +1835,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -1831,7 +1852,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -1848,7 +1869,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -1865,7 +1886,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>69</v>
       </c>
@@ -1874,7 +1895,7 @@
       </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -1888,7 +1909,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>71</v>
       </c>
@@ -1905,7 +1926,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -1925,7 +1946,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -1942,7 +1963,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -1956,7 +1977,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -1976,7 +1997,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -1996,7 +2017,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -2013,7 +2034,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -2030,7 +2051,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -2047,7 +2068,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -2067,7 +2088,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -2087,7 +2108,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -2101,7 +2122,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>163</v>
       </c>
@@ -2118,7 +2139,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -2135,7 +2156,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -2152,7 +2173,7 @@
         <v>42603</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -2169,7 +2190,7 @@
         <v>42602</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -2186,7 +2207,7 @@
         <v>44151</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>102</v>
       </c>
@@ -2203,7 +2224,7 @@
         <v>43398</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>91</v>
       </c>
@@ -2223,7 +2244,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -2243,7 +2264,7 @@
         <v>43735</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -2251,7 +2272,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -2259,7 +2280,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>69</v>
       </c>
@@ -2267,7 +2288,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>35</v>
       </c>
@@ -2287,7 +2308,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -2304,7 +2325,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>129</v>
       </c>
@@ -2321,7 +2342,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -2338,7 +2359,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>35</v>
       </c>
@@ -2358,7 +2379,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -2366,7 +2387,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>129</v>
       </c>
@@ -2383,7 +2404,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>176</v>
       </c>
@@ -2400,7 +2421,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>23</v>
       </c>
@@ -2414,7 +2435,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -2422,7 +2443,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>47</v>
       </c>
@@ -2445,7 +2466,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>47</v>
       </c>
@@ -2468,7 +2489,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -2485,7 +2506,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -2502,7 +2523,7 @@
         <v>44883</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -2519,7 +2540,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>69</v>
       </c>
@@ -2527,7 +2548,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>69</v>
       </c>
@@ -2535,7 +2556,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>35</v>
       </c>
@@ -2555,7 +2576,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>69</v>
       </c>
@@ -2563,7 +2584,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>35</v>
       </c>
@@ -2580,7 +2601,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>163</v>
       </c>
@@ -2597,7 +2618,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>163</v>
       </c>
@@ -2614,7 +2635,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>163</v>
       </c>
@@ -2631,7 +2652,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>163</v>
       </c>
@@ -2648,7 +2669,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>163</v>
       </c>
@@ -2665,7 +2686,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>44</v>
       </c>
@@ -2682,7 +2703,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>44</v>
       </c>
@@ -2699,7 +2720,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>176</v>
       </c>
@@ -2716,7 +2737,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>69</v>
       </c>
@@ -2724,7 +2745,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>69</v>
       </c>
@@ -2732,7 +2753,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -2752,7 +2773,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -2772,7 +2793,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>35</v>
       </c>
@@ -2792,7 +2813,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>35</v>
       </c>
@@ -2809,7 +2830,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>69</v>
       </c>
@@ -2817,7 +2838,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>69</v>
       </c>
@@ -2825,7 +2846,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -2845,7 +2866,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>8</v>
       </c>
@@ -2865,7 +2886,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>8</v>
       </c>
@@ -2885,7 +2906,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>8</v>
       </c>
@@ -2905,7 +2926,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>8</v>
       </c>
@@ -2925,7 +2946,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>163</v>
       </c>
@@ -2942,7 +2963,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>35</v>
       </c>
@@ -2959,7 +2980,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>69</v>
       </c>
@@ -2967,7 +2988,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>8</v>
       </c>
@@ -2987,7 +3008,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>8</v>
       </c>
@@ -3007,7 +3028,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>69</v>
       </c>
@@ -3015,7 +3036,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>69</v>
       </c>
@@ -3023,7 +3044,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>69</v>
       </c>
@@ -3031,7 +3052,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>44</v>
       </c>
@@ -3045,7 +3066,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>8</v>
       </c>
@@ -3065,7 +3086,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>69</v>
       </c>
@@ -3073,7 +3094,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>176</v>
       </c>
@@ -3084,7 +3105,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>69</v>
       </c>
@@ -3092,7 +3113,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>8</v>
       </c>
@@ -3112,7 +3133,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>69</v>
       </c>
@@ -3120,7 +3141,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>8</v>
       </c>
@@ -3140,7 +3161,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>69</v>
       </c>
@@ -3148,7 +3169,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>44</v>
       </c>
@@ -3163,6 +3184,94 @@
       </c>
       <c r="E120" t="s">
         <v>138</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>163</v>
+      </c>
+      <c r="B121" t="s">
+        <v>261</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>163</v>
+      </c>
+      <c r="B122" t="s">
+        <v>222</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>163</v>
+      </c>
+      <c r="B123" t="s">
+        <v>262</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>163</v>
+      </c>
+      <c r="B124" t="s">
+        <v>263</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>163</v>
+      </c>
+      <c r="B125" t="s">
+        <v>264</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>163</v>
+      </c>
+      <c r="B126" t="s">
+        <v>265</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>163</v>
+      </c>
+      <c r="B127" t="s">
+        <v>266</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>163</v>
+      </c>
+      <c r="B128" t="s">
+        <v>267</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/090f7abe46c7f02e/GitHub/ccl_cv/cv_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{636A6A39-D73C-4E36-945D-D82E58F0624E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09BA7F6F-B4CB-4BB2-993B-9B93F172F8D7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753FF14A-24ED-45F1-9655-EAE0DFF7DAE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-3770" windowWidth="38620" windowHeight="21100" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
+    <workbookView xWindow="-20" yWindow="-21710" windowWidth="38620" windowHeight="21100" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="278">
   <si>
     <t>type</t>
   </si>
@@ -829,6 +829,36 @@
   </si>
   <si>
     <t>Thomas Jones</t>
+  </si>
+  <si>
+    <t>International Criminal Justice Review</t>
+  </si>
+  <si>
+    <t>*European Society of Criminology Annual Meeting*, Athens, GR</t>
+  </si>
+  <si>
+    <t>https://clanfear.github.io/ESC_2025/slides.html</t>
+  </si>
+  <si>
+    <t>https://clanfear.github.io/mopac_2025-06-26/slides.html</t>
+  </si>
+  <si>
+    <t>The promise and perils of the sharing economy: The impact of Airbnb lettings on crime</t>
+  </si>
+  <si>
+    <t>https://clanfear.github.io/alumni-festival_2025-09-27/slides.html</t>
+  </si>
+  <si>
+    <t>Dangerous driving over the life course</t>
+  </si>
+  <si>
+    <t>*Cars and Crime Symposium*, Ilkley, UK</t>
+  </si>
+  <si>
+    <t>*MOPAC Learning and Development Seminar*</t>
+  </si>
+  <si>
+    <t>*University of Cambridge Alumni Festival*</t>
   </si>
 </sst>
 </file>
@@ -1222,23 +1252,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
-  <dimension ref="A1:H128"/>
+  <dimension ref="A1:H133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B128" sqref="B128"/>
+      <selection activeCell="G134" sqref="G134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="57.5703125" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="5"/>
-    <col min="5" max="5" width="42.5703125" customWidth="1"/>
-    <col min="6" max="6" width="43.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83984375" customWidth="1"/>
+    <col min="2" max="2" width="57.578125" customWidth="1"/>
+    <col min="3" max="4" width="9.15625" style="5"/>
+    <col min="5" max="5" width="42.578125" customWidth="1"/>
+    <col min="6" max="6" width="43.26171875" customWidth="1"/>
+    <col min="7" max="7" width="10.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1264,7 +1294,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1281,7 +1311,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -1301,7 +1331,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1321,7 +1351,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1341,7 +1371,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1361,7 +1391,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1381,7 +1411,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1404,7 +1434,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1427,7 +1457,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1444,7 +1474,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1461,7 +1491,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1478,7 +1508,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1492,7 +1522,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1509,7 +1539,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1526,7 +1556,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1540,7 +1570,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1554,7 +1584,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1571,7 +1601,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1588,7 +1618,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1605,7 +1635,7 @@
         <v>42690</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1622,7 +1652,7 @@
         <v>42460</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1639,7 +1669,7 @@
         <v>41963</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1656,7 +1686,7 @@
         <v>41661</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1673,7 +1703,7 @@
         <v>42459</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1693,7 +1723,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -1713,7 +1743,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -1733,7 +1763,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -1750,7 +1780,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -1767,7 +1797,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -1784,7 +1814,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -1801,7 +1831,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -1818,7 +1848,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -1835,7 +1865,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -1852,7 +1882,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -1869,7 +1899,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -1886,7 +1916,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>69</v>
       </c>
@@ -1895,7 +1925,7 @@
       </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -1909,7 +1939,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>71</v>
       </c>
@@ -1926,7 +1956,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -1946,7 +1976,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -1963,7 +1993,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -1977,7 +2007,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -1997,7 +2027,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -2017,7 +2047,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -2034,7 +2064,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -2051,7 +2081,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -2068,7 +2098,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -2088,7 +2118,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -2108,7 +2138,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -2122,7 +2152,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>163</v>
       </c>
@@ -2139,7 +2169,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -2156,7 +2186,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -2173,7 +2203,7 @@
         <v>42603</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -2190,7 +2220,7 @@
         <v>42602</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -2207,7 +2237,7 @@
         <v>44151</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>102</v>
       </c>
@@ -2224,7 +2254,7 @@
         <v>43398</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>91</v>
       </c>
@@ -2244,7 +2274,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -2264,7 +2294,7 @@
         <v>43735</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -2272,7 +2302,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -2280,7 +2310,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>69</v>
       </c>
@@ -2288,7 +2318,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>35</v>
       </c>
@@ -2308,7 +2338,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -2325,7 +2355,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>129</v>
       </c>
@@ -2342,7 +2372,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -2359,7 +2389,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>35</v>
       </c>
@@ -2379,7 +2409,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -2387,7 +2417,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>129</v>
       </c>
@@ -2404,7 +2434,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>176</v>
       </c>
@@ -2421,7 +2451,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>23</v>
       </c>
@@ -2435,7 +2465,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -2443,7 +2473,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>47</v>
       </c>
@@ -2466,7 +2496,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>47</v>
       </c>
@@ -2489,7 +2519,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -2506,7 +2536,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -2523,7 +2553,7 @@
         <v>44883</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -2540,7 +2570,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>69</v>
       </c>
@@ -2548,7 +2578,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>69</v>
       </c>
@@ -2556,7 +2586,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>35</v>
       </c>
@@ -2576,7 +2606,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>69</v>
       </c>
@@ -2584,7 +2614,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>35</v>
       </c>
@@ -2601,7 +2631,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>163</v>
       </c>
@@ -2618,7 +2648,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>163</v>
       </c>
@@ -2635,7 +2665,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>163</v>
       </c>
@@ -2652,7 +2682,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>163</v>
       </c>
@@ -2669,7 +2699,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>163</v>
       </c>
@@ -2686,7 +2716,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>44</v>
       </c>
@@ -2703,7 +2733,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>44</v>
       </c>
@@ -2720,7 +2750,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>176</v>
       </c>
@@ -2737,7 +2767,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>69</v>
       </c>
@@ -2745,7 +2775,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>69</v>
       </c>
@@ -2753,7 +2783,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -2773,7 +2803,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -2793,7 +2823,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>35</v>
       </c>
@@ -2813,7 +2843,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>35</v>
       </c>
@@ -2830,7 +2860,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>69</v>
       </c>
@@ -2838,7 +2868,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>69</v>
       </c>
@@ -2846,7 +2876,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -2866,7 +2896,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>8</v>
       </c>
@@ -2886,7 +2916,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>8</v>
       </c>
@@ -2906,7 +2936,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>8</v>
       </c>
@@ -2926,7 +2956,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>8</v>
       </c>
@@ -2946,7 +2976,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>163</v>
       </c>
@@ -2963,7 +2993,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>35</v>
       </c>
@@ -2980,7 +3010,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>69</v>
       </c>
@@ -2988,7 +3018,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>8</v>
       </c>
@@ -3008,7 +3038,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>8</v>
       </c>
@@ -3028,7 +3058,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>69</v>
       </c>
@@ -3036,7 +3066,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>69</v>
       </c>
@@ -3044,7 +3074,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>69</v>
       </c>
@@ -3052,7 +3082,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>44</v>
       </c>
@@ -3066,7 +3096,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>8</v>
       </c>
@@ -3086,7 +3116,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>69</v>
       </c>
@@ -3094,7 +3124,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>176</v>
       </c>
@@ -3105,7 +3135,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>69</v>
       </c>
@@ -3113,7 +3143,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>8</v>
       </c>
@@ -3133,7 +3163,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>69</v>
       </c>
@@ -3141,7 +3171,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>8</v>
       </c>
@@ -3161,7 +3191,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>69</v>
       </c>
@@ -3169,7 +3199,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>44</v>
       </c>
@@ -3186,7 +3216,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>163</v>
       </c>
@@ -3197,7 +3227,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>163</v>
       </c>
@@ -3208,7 +3238,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>163</v>
       </c>
@@ -3219,7 +3249,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>163</v>
       </c>
@@ -3230,7 +3260,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>163</v>
       </c>
@@ -3241,7 +3271,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>163</v>
       </c>
@@ -3252,7 +3282,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>163</v>
       </c>
@@ -3263,7 +3293,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>163</v>
       </c>
@@ -3272,6 +3302,88 @@
       </c>
       <c r="D128" s="5" t="s">
         <v>245</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129" t="s">
+        <v>69</v>
+      </c>
+      <c r="B129" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" t="s">
+        <v>256</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E130" t="s">
+        <v>269</v>
+      </c>
+      <c r="G130" s="1">
+        <v>45904</v>
+      </c>
+      <c r="H130" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131" t="s">
+        <v>272</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E131" t="s">
+        <v>276</v>
+      </c>
+      <c r="G131" s="1">
+        <v>45834</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132" t="s">
+        <v>272</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E132" t="s">
+        <v>277</v>
+      </c>
+      <c r="G132" s="1">
+        <v>45927</v>
+      </c>
+      <c r="H132" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" t="s">
+        <v>274</v>
+      </c>
+      <c r="E133" t="s">
+        <v>275</v>
+      </c>
+      <c r="G133" s="1">
+        <v>45869</v>
       </c>
     </row>
   </sheetData>
@@ -3291,8 +3403,9 @@
     <hyperlink ref="H106" r:id="rId12" xr:uid="{18D0BFF0-5C71-435D-B5A9-216CA350CCEA}"/>
     <hyperlink ref="H107" r:id="rId13" xr:uid="{B4940148-48B1-457B-B73A-3CB7BBEF2984}"/>
     <hyperlink ref="H118" r:id="rId14" xr:uid="{EF90FA38-3C77-4A8E-B9DB-19A9F3521CC2}"/>
+    <hyperlink ref="H131" r:id="rId15" tooltip="Original URL: https://clanfear.github.io/mopac_2025-06-26/slides.html. Click or tap if you trust this link." display="https://eur03.safelinks.protection.outlook.com/?url=https%3A%2F%2Fclanfear.github.io%2Fmopac_2025-06-26%2Fslides.html&amp;data=05%7C02%7Ccl948%40universityofcambridgecloud.onmicrosoft.com%7C1be3785cf33946248ca708ddb9476c34%7C49a50445bdfa4b79ade3547b4f3986e9%7C1%7C0%7C638870438613963179%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=L9SUxhel%2FhX8IJVvyZiUFegsak%2BVybEyEYWBwqRrJJA%3D&amp;reserved=0" xr:uid="{1E85D9FE-EB84-44E3-A01C-C10B0360C69A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753FF14A-24ED-45F1-9655-EAE0DFF7DAE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A2A775-23AE-4390-BFF3-6D5BAA770A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-21710" windowWidth="38620" windowHeight="21100" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="287">
   <si>
     <t>type</t>
   </si>
@@ -859,6 +859,33 @@
   </si>
   <si>
     <t>*University of Cambridge Alumni Festival*</t>
+  </si>
+  <si>
+    <t>Potential Outcomes: A brief introduction</t>
+  </si>
+  <si>
+    <t>https://clanfear.github.io/leeds_2025-11-06/slides.html</t>
+  </si>
+  <si>
+    <t>https://clanfear.github.io/ioc_2025-10-22/slides.html</t>
+  </si>
+  <si>
+    <t>Social Research Methods Centre, University of Leeds</t>
+  </si>
+  <si>
+    <t>Did closing the gun show loophole actually work?</t>
+  </si>
+  <si>
+    <t>Morven Brown</t>
+  </si>
+  <si>
+    <t>John Hall</t>
+  </si>
+  <si>
+    <t>Research Society for the Prevention of Firearm-Related Harms</t>
+  </si>
+  <si>
+    <t>Honorable Mention: Greenwald Family Award for Firearm Violence and Injury Prevention Research Excellence</t>
   </si>
 </sst>
 </file>
@@ -1252,10 +1279,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
-  <dimension ref="A1:H133"/>
+  <dimension ref="A1:H138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="G134" sqref="G134"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3384,6 +3411,94 @@
       </c>
       <c r="G133" s="1">
         <v>45869</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" t="s">
+        <v>8</v>
+      </c>
+      <c r="B134" t="s">
+        <v>278</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E134" t="s">
+        <v>281</v>
+      </c>
+      <c r="G134" s="1">
+        <v>45967</v>
+      </c>
+      <c r="H134" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135" t="s">
+        <v>8</v>
+      </c>
+      <c r="B135" t="s">
+        <v>282</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E135" t="s">
+        <v>138</v>
+      </c>
+      <c r="G135" s="1">
+        <v>45952</v>
+      </c>
+      <c r="H135" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136" t="s">
+        <v>163</v>
+      </c>
+      <c r="B136" t="s">
+        <v>283</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E136" t="s">
+        <v>150</v>
+      </c>
+      <c r="F136" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137" t="s">
+        <v>163</v>
+      </c>
+      <c r="B137" t="s">
+        <v>284</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E137" t="s">
+        <v>150</v>
+      </c>
+      <c r="F137" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138" t="s">
+        <v>24</v>
+      </c>
+      <c r="B138" t="s">
+        <v>286</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E138" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cl948\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A2A775-23AE-4390-BFF3-6D5BAA770A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1030736-B231-4D50-A55D-0F63515EA9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="295">
   <si>
     <t>type</t>
   </si>
@@ -543,9 +543,6 @@
     <t>MPhil</t>
   </si>
   <si>
-    <t>Admissions Committee</t>
-  </si>
-  <si>
     <t>Risk Assessment Committee</t>
   </si>
   <si>
@@ -732,9 +729,6 @@
     <t>Criminal Behaviour and Mental Health</t>
   </si>
   <si>
-    <t>3 terms</t>
-  </si>
-  <si>
     <t>Episode 77. Community violence, context, and reproducibility with Charles Lanfear</t>
   </si>
   <si>
@@ -807,9 +801,6 @@
     <t>https://clanfear.github.io/ASA_2025/slides.html</t>
   </si>
   <si>
-    <t>MPhil Director</t>
-  </si>
-  <si>
     <t>Paula Alexejew</t>
   </si>
   <si>
@@ -861,9 +852,6 @@
     <t>*University of Cambridge Alumni Festival*</t>
   </si>
   <si>
-    <t>Potential Outcomes: A brief introduction</t>
-  </si>
-  <si>
     <t>https://clanfear.github.io/leeds_2025-11-06/slides.html</t>
   </si>
   <si>
@@ -886,6 +874,42 @@
   </si>
   <si>
     <t>Honorable Mention: Greenwald Family Award for Firearm Violence and Injury Prevention Research Excellence</t>
+  </si>
+  <si>
+    <t>MPhil Admissions Committee Chair</t>
+  </si>
+  <si>
+    <t>MPhil Admissions Committee</t>
+  </si>
+  <si>
+    <t>Potential outcomes: A brief introduction</t>
+  </si>
+  <si>
+    <t>Criminological Research Methods Workshops</t>
+  </si>
+  <si>
+    <t>https://clanfear.github.io/ioc_crmw/_site/index.html</t>
+  </si>
+  <si>
+    <t>Academic Skills Development Workshops</t>
+  </si>
+  <si>
+    <t>https://clanfear.github.io/ioc_academic-skills/_site/index.html</t>
+  </si>
+  <si>
+    <t>4 terms</t>
+  </si>
+  <si>
+    <t>Resource and Planning Committee</t>
+  </si>
+  <si>
+    <t>Management Committee</t>
+  </si>
+  <si>
+    <t>MPhil Program Director</t>
+  </si>
+  <si>
+    <t>Cambridge Research Methods (CaRM), University of Cambridge</t>
   </si>
 </sst>
 </file>
@@ -1279,23 +1303,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
-  <dimension ref="A1:H138"/>
+  <dimension ref="A1:H143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="B139" sqref="B139"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="E144" sqref="E144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.83984375" customWidth="1"/>
-    <col min="2" max="2" width="57.578125" customWidth="1"/>
-    <col min="3" max="4" width="9.15625" style="5"/>
-    <col min="5" max="5" width="42.578125" customWidth="1"/>
-    <col min="6" max="6" width="43.26171875" customWidth="1"/>
-    <col min="7" max="7" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.81640625" customWidth="1"/>
+    <col min="2" max="2" width="57.54296875" customWidth="1"/>
+    <col min="3" max="4" width="9.1796875" style="5"/>
+    <col min="5" max="5" width="42.54296875" customWidth="1"/>
+    <col min="6" max="6" width="43.26953125" customWidth="1"/>
+    <col min="7" max="7" width="10.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1321,7 +1345,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1338,7 +1362,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -1358,7 +1382,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1378,7 +1402,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1398,7 +1422,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1418,18 +1442,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C7" s="5">
         <v>2018</v>
       </c>
       <c r="E7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G7" s="1">
         <v>43399</v>
@@ -1438,7 +1462,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1461,7 +1485,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1484,7 +1508,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1501,7 +1525,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1518,7 +1542,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1535,7 +1559,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1549,7 +1573,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1566,7 +1590,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1583,7 +1607,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1597,7 +1621,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1611,7 +1635,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1628,7 +1652,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1645,29 +1669,29 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C20" s="5">
         <v>2016</v>
       </c>
       <c r="E20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G20" s="1">
         <v>42690</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C21" s="5">
         <v>2016</v>
@@ -1679,29 +1703,29 @@
         <v>42460</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C22" s="5">
         <v>2014</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G22" s="1">
         <v>41963</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C23" s="5">
         <v>2014</v>
@@ -1713,7 +1737,7 @@
         <v>41661</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1730,7 +1754,7 @@
         <v>42459</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1750,7 +1774,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -1770,7 +1794,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -1790,12 +1814,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C28" s="5">
         <v>2018</v>
@@ -1807,12 +1831,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C29" s="5">
         <v>2015</v>
@@ -1824,7 +1848,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -1841,7 +1865,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -1858,7 +1882,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -1875,7 +1899,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -1892,7 +1916,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -1909,7 +1933,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -1926,7 +1950,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -1943,7 +1967,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>69</v>
       </c>
@@ -1952,7 +1976,7 @@
       </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -1966,24 +1990,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>71</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G39" s="1">
         <v>43783</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -2003,7 +2027,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -2020,7 +2044,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -2034,7 +2058,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -2054,7 +2078,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -2074,7 +2098,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -2091,7 +2115,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -2108,7 +2132,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -2125,7 +2149,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -2145,7 +2169,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -2165,7 +2189,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -2179,7 +2203,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>163</v>
       </c>
@@ -2196,75 +2220,75 @@
         <v>170</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>8</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E52" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G52" s="1">
         <v>43481</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>100</v>
       </c>
       <c r="E53" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G53" s="1">
         <v>42603</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>100</v>
       </c>
       <c r="E54" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G54" s="1">
         <v>42602</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>81</v>
       </c>
       <c r="E55" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G55" s="1">
         <v>44151</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>102</v>
       </c>
@@ -2281,7 +2305,7 @@
         <v>43398</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>91</v>
       </c>
@@ -2301,18 +2325,18 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F58" t="s">
         <v>112</v>
@@ -2321,7 +2345,7 @@
         <v>43735</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -2329,7 +2353,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -2337,7 +2361,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>69</v>
       </c>
@@ -2345,7 +2369,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>35</v>
       </c>
@@ -2365,7 +2389,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -2382,7 +2406,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>129</v>
       </c>
@@ -2399,7 +2423,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -2416,7 +2440,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>35</v>
       </c>
@@ -2436,7 +2460,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -2444,7 +2468,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>129</v>
       </c>
@@ -2461,9 +2485,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B69" t="s">
         <v>139</v>
@@ -2478,7 +2502,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>23</v>
       </c>
@@ -2492,7 +2516,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -2500,7 +2524,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>47</v>
       </c>
@@ -2511,19 +2535,19 @@
         <v>134</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>199</v>
+        <v>243</v>
       </c>
       <c r="E72" t="s">
         <v>150</v>
       </c>
       <c r="F72" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="H72" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>47</v>
       </c>
@@ -2534,70 +2558,70 @@
         <v>134</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>199</v>
+        <v>243</v>
       </c>
       <c r="E73" t="s">
         <v>150</v>
       </c>
       <c r="F73" t="s">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="H73" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>134</v>
       </c>
       <c r="E74" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G74" s="1">
         <v>44826</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>134</v>
       </c>
       <c r="E75" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G75" s="1">
         <v>44883</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>134</v>
       </c>
       <c r="E76" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G76" s="1">
         <v>44826</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>69</v>
       </c>
@@ -2605,7 +2629,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>69</v>
       </c>
@@ -2613,7 +2637,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>35</v>
       </c>
@@ -2633,7 +2657,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>69</v>
       </c>
@@ -2641,12 +2665,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>35</v>
       </c>
       <c r="B81" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E81" t="s">
         <v>161</v>
@@ -2658,7 +2682,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>163</v>
       </c>
@@ -2675,7 +2699,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>163</v>
       </c>
@@ -2692,7 +2716,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>163</v>
       </c>
@@ -2709,7 +2733,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>163</v>
       </c>
@@ -2726,7 +2750,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>163</v>
       </c>
@@ -2743,49 +2767,49 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>44</v>
       </c>
       <c r="B87" t="s">
-        <v>172</v>
+        <v>284</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>158</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E87" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>44</v>
       </c>
       <c r="B88" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>158</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>245</v>
+        <v>53</v>
       </c>
       <c r="E88" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B89" t="s">
+        <v>173</v>
+      </c>
+      <c r="C89" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>175</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>53</v>
@@ -2794,100 +2818,100 @@
         <v>128</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>69</v>
       </c>
       <c r="B90" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>69</v>
       </c>
       <c r="B91" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>158</v>
       </c>
       <c r="E92" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G92" s="1">
         <v>45177</v>
       </c>
       <c r="H92" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>158</v>
       </c>
       <c r="E93" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G93" s="1">
         <v>45245</v>
       </c>
       <c r="H93" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>35</v>
       </c>
       <c r="B94" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>158</v>
       </c>
       <c r="E94" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G94" s="1">
         <v>45124</v>
       </c>
       <c r="H94" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>35</v>
       </c>
       <c r="B95" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>158</v>
       </c>
       <c r="E95" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G95" s="1">
         <v>45227</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>69</v>
       </c>
@@ -2895,120 +2919,120 @@
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>69</v>
       </c>
       <c r="B97" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E98" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G98" s="1">
         <v>45429</v>
       </c>
       <c r="H98" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>8</v>
       </c>
       <c r="B99" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E99" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G99" s="1">
         <v>45442</v>
       </c>
       <c r="H99" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>8</v>
       </c>
       <c r="B100" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E100" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G100" s="1">
         <v>45548</v>
       </c>
       <c r="H100" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>8</v>
       </c>
       <c r="B101" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E101" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G101" s="1">
         <v>45548</v>
       </c>
       <c r="H101" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>8</v>
       </c>
       <c r="B102" t="s">
+        <v>219</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E102" t="s">
         <v>220</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="E102" t="s">
-        <v>221</v>
       </c>
       <c r="G102" s="1">
         <v>45482</v>
       </c>
       <c r="H102" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>163</v>
       </c>
       <c r="B103" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>53</v>
@@ -3017,165 +3041,165 @@
         <v>150</v>
       </c>
       <c r="F103" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>35</v>
       </c>
       <c r="B104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G104" s="1">
         <v>45589</v>
       </c>
       <c r="H104" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>69</v>
       </c>
       <c r="B105" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>8</v>
       </c>
       <c r="B106" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E106" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G106" s="1">
         <v>45611</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>8</v>
       </c>
       <c r="B107" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E107" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G107" s="1">
         <v>45636</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>69</v>
       </c>
       <c r="B108" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>69</v>
       </c>
       <c r="B109" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>69</v>
       </c>
       <c r="B110" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>44</v>
       </c>
       <c r="B111" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E111" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>8</v>
       </c>
       <c r="B112" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E112" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G112" s="1">
         <v>45764</v>
       </c>
       <c r="H112" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>69</v>
       </c>
       <c r="B113" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>175</v>
+      </c>
+      <c r="B114" t="s">
+        <v>248</v>
+      </c>
+      <c r="E114" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A114" t="s">
-        <v>176</v>
-      </c>
-      <c r="B114" t="s">
-        <v>250</v>
-      </c>
-      <c r="E114" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>69</v>
       </c>
       <c r="B115" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>8</v>
       </c>
       <c r="B116" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>158</v>
@@ -3187,54 +3211,54 @@
         <v>44945</v>
       </c>
       <c r="H116" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>69</v>
       </c>
       <c r="B117" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>8</v>
       </c>
       <c r="B118" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E118" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G118" s="1">
         <v>45878</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>69</v>
       </c>
       <c r="B119" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>44</v>
       </c>
       <c r="B120" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>53</v>
@@ -3243,205 +3267,205 @@
         <v>138</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>163</v>
       </c>
       <c r="B121" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>163</v>
       </c>
       <c r="B122" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>163</v>
       </c>
       <c r="B123" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>163</v>
       </c>
       <c r="B124" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>163</v>
       </c>
       <c r="B125" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>163</v>
       </c>
       <c r="B126" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>163</v>
       </c>
       <c r="B127" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>163</v>
       </c>
       <c r="B128" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>69</v>
       </c>
       <c r="B129" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>8</v>
       </c>
       <c r="B130" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E130" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G130" s="1">
         <v>45904</v>
       </c>
       <c r="H130" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>8</v>
       </c>
       <c r="B131" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E131" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G131" s="1">
         <v>45834</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>8</v>
       </c>
       <c r="B132" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E132" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G132" s="1">
         <v>45927</v>
       </c>
       <c r="H132" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>8</v>
       </c>
       <c r="B133" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E133" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G133" s="1">
         <v>45869</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>8</v>
       </c>
       <c r="B134" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E134" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G134" s="1">
         <v>45967</v>
       </c>
       <c r="H134" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>8</v>
       </c>
       <c r="B135" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E135" t="s">
         <v>138</v>
@@ -3450,15 +3474,15 @@
         <v>45952</v>
       </c>
       <c r="H135" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>163</v>
       </c>
       <c r="B136" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>53</v>
@@ -3467,15 +3491,15 @@
         <v>150</v>
       </c>
       <c r="F136" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>163</v>
       </c>
       <c r="B137" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>53</v>
@@ -3484,21 +3508,115 @@
         <v>150</v>
       </c>
       <c r="F137" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>24</v>
       </c>
       <c r="B138" t="s">
+        <v>282</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E138" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>44</v>
+      </c>
+      <c r="B139" t="s">
+        <v>283</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E139" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>47</v>
+      </c>
+      <c r="B140" t="s">
         <v>286</v>
       </c>
-      <c r="C138" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="E138" t="s">
-        <v>285</v>
+      <c r="C140" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E140" t="s">
+        <v>150</v>
+      </c>
+      <c r="F140" t="s">
+        <v>290</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>47</v>
+      </c>
+      <c r="B141" t="s">
+        <v>288</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E141" t="s">
+        <v>150</v>
+      </c>
+      <c r="F141" t="s">
+        <v>49</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>44</v>
+      </c>
+      <c r="B142" t="s">
+        <v>291</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E142" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>44</v>
+      </c>
+      <c r="B143" t="s">
+        <v>292</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E143" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -3519,8 +3637,10 @@
     <hyperlink ref="H107" r:id="rId13" xr:uid="{B4940148-48B1-457B-B73A-3CB7BBEF2984}"/>
     <hyperlink ref="H118" r:id="rId14" xr:uid="{EF90FA38-3C77-4A8E-B9DB-19A9F3521CC2}"/>
     <hyperlink ref="H131" r:id="rId15" tooltip="Original URL: https://clanfear.github.io/mopac_2025-06-26/slides.html. Click or tap if you trust this link." display="https://eur03.safelinks.protection.outlook.com/?url=https%3A%2F%2Fclanfear.github.io%2Fmopac_2025-06-26%2Fslides.html&amp;data=05%7C02%7Ccl948%40universityofcambridgecloud.onmicrosoft.com%7C1be3785cf33946248ca708ddb9476c34%7C49a50445bdfa4b79ade3547b4f3986e9%7C1%7C0%7C638870438613963179%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=L9SUxhel%2FhX8IJVvyZiUFegsak%2BVybEyEYWBwqRrJJA%3D&amp;reserved=0" xr:uid="{1E85D9FE-EB84-44E3-A01C-C10B0360C69A}"/>
+    <hyperlink ref="H140" r:id="rId16" xr:uid="{A272E62B-FD9F-4AC9-A289-80E6110700B3}"/>
+    <hyperlink ref="H141" r:id="rId17" xr:uid="{4DFB1F65-9DA4-4605-81E1-2FC00769EF0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cl948\OneDrive\GitHub\ccl_cv\cv_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1030736-B231-4D50-A55D-0F63515EA9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F804945C-245F-4163-8F37-160C71F7D09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="297">
   <si>
     <t>type</t>
   </si>
@@ -910,6 +910,12 @@
   </si>
   <si>
     <t>Cambridge Research Methods (CaRM), University of Cambridge</t>
+  </si>
+  <si>
+    <t>Police Practice and Research</t>
+  </si>
+  <si>
+    <t>Journal of Developmental and Life-Course Criminology</t>
   </si>
 </sst>
 </file>
@@ -1303,23 +1309,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
-  <dimension ref="A1:H143"/>
+  <dimension ref="A1:H145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="E144" sqref="E144"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.81640625" customWidth="1"/>
-    <col min="2" max="2" width="57.54296875" customWidth="1"/>
-    <col min="3" max="4" width="9.1796875" style="5"/>
-    <col min="5" max="5" width="42.54296875" customWidth="1"/>
-    <col min="6" max="6" width="43.26953125" customWidth="1"/>
-    <col min="7" max="7" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7890625" customWidth="1"/>
+    <col min="2" max="2" width="57.5234375" customWidth="1"/>
+    <col min="3" max="4" width="9.15625" style="5"/>
+    <col min="5" max="5" width="42.5234375" customWidth="1"/>
+    <col min="6" max="6" width="43.26171875" customWidth="1"/>
+    <col min="7" max="7" width="10.62890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1345,7 +1351,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1362,7 +1368,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -1382,7 +1388,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1402,7 +1408,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1422,7 +1428,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1442,7 +1448,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1462,7 +1468,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1485,7 +1491,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1508,7 +1514,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1525,7 +1531,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1542,7 +1548,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1559,7 +1565,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1573,7 +1579,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1590,7 +1596,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1607,7 +1613,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1621,7 +1627,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1635,7 +1641,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1652,7 +1658,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1669,7 +1675,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1686,7 +1692,7 @@
         <v>42690</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1703,7 +1709,7 @@
         <v>42460</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1720,7 +1726,7 @@
         <v>41963</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1737,7 +1743,7 @@
         <v>41661</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1754,7 +1760,7 @@
         <v>42459</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1774,7 +1780,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -1794,7 +1800,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -1814,7 +1820,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -1831,7 +1837,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -1848,7 +1854,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -1865,7 +1871,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -1882,7 +1888,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -1899,7 +1905,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -1916,7 +1922,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -1933,7 +1939,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -1950,7 +1956,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -1967,7 +1973,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>69</v>
       </c>
@@ -1976,7 +1982,7 @@
       </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -1990,7 +1996,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>71</v>
       </c>
@@ -2007,7 +2013,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -2027,7 +2033,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -2044,7 +2050,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -2058,7 +2064,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -2078,7 +2084,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -2098,7 +2104,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -2115,7 +2121,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -2132,7 +2138,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -2149,7 +2155,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -2169,7 +2175,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -2189,7 +2195,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -2203,7 +2209,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>163</v>
       </c>
@@ -2220,7 +2226,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -2237,7 +2243,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -2254,7 +2260,7 @@
         <v>42603</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -2271,7 +2277,7 @@
         <v>42602</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -2288,7 +2294,7 @@
         <v>44151</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>102</v>
       </c>
@@ -2305,7 +2311,7 @@
         <v>43398</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>91</v>
       </c>
@@ -2325,7 +2331,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -2345,7 +2351,7 @@
         <v>43735</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -2353,7 +2359,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -2361,7 +2367,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>69</v>
       </c>
@@ -2369,7 +2375,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>35</v>
       </c>
@@ -2389,7 +2395,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -2406,7 +2412,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>129</v>
       </c>
@@ -2423,7 +2429,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -2440,7 +2446,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>35</v>
       </c>
@@ -2460,7 +2466,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -2468,7 +2474,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>129</v>
       </c>
@@ -2485,7 +2491,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>175</v>
       </c>
@@ -2502,7 +2508,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>23</v>
       </c>
@@ -2516,7 +2522,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -2524,7 +2530,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>47</v>
       </c>
@@ -2547,7 +2553,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>47</v>
       </c>
@@ -2570,7 +2576,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -2587,7 +2593,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -2604,7 +2610,7 @@
         <v>44883</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -2621,7 +2627,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>69</v>
       </c>
@@ -2629,7 +2635,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>69</v>
       </c>
@@ -2637,7 +2643,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>35</v>
       </c>
@@ -2657,7 +2663,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>69</v>
       </c>
@@ -2665,7 +2671,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>35</v>
       </c>
@@ -2682,7 +2688,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>163</v>
       </c>
@@ -2699,7 +2705,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>163</v>
       </c>
@@ -2716,7 +2722,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>163</v>
       </c>
@@ -2733,7 +2739,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>163</v>
       </c>
@@ -2750,7 +2756,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>163</v>
       </c>
@@ -2767,7 +2773,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>44</v>
       </c>
@@ -2784,7 +2790,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>44</v>
       </c>
@@ -2801,7 +2807,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>175</v>
       </c>
@@ -2818,7 +2824,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>69</v>
       </c>
@@ -2826,7 +2832,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>69</v>
       </c>
@@ -2834,7 +2840,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -2854,7 +2860,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -2874,7 +2880,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>35</v>
       </c>
@@ -2894,7 +2900,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>35</v>
       </c>
@@ -2911,7 +2917,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>69</v>
       </c>
@@ -2919,7 +2925,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>69</v>
       </c>
@@ -2927,7 +2933,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -2947,7 +2953,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>8</v>
       </c>
@@ -2967,7 +2973,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>8</v>
       </c>
@@ -2987,7 +2993,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>8</v>
       </c>
@@ -3007,7 +3013,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>8</v>
       </c>
@@ -3027,7 +3033,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>163</v>
       </c>
@@ -3044,7 +3050,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>35</v>
       </c>
@@ -3061,7 +3067,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>69</v>
       </c>
@@ -3069,7 +3075,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>8</v>
       </c>
@@ -3089,7 +3095,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>8</v>
       </c>
@@ -3109,7 +3115,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>69</v>
       </c>
@@ -3117,7 +3123,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>69</v>
       </c>
@@ -3125,7 +3131,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>69</v>
       </c>
@@ -3133,7 +3139,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>44</v>
       </c>
@@ -3147,7 +3153,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>8</v>
       </c>
@@ -3167,7 +3173,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>69</v>
       </c>
@@ -3175,7 +3181,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>175</v>
       </c>
@@ -3186,7 +3192,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>69</v>
       </c>
@@ -3194,7 +3200,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>8</v>
       </c>
@@ -3214,7 +3220,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>69</v>
       </c>
@@ -3222,7 +3228,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>8</v>
       </c>
@@ -3242,7 +3248,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>69</v>
       </c>
@@ -3250,7 +3256,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>44</v>
       </c>
@@ -3267,7 +3273,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>163</v>
       </c>
@@ -3278,7 +3284,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>163</v>
       </c>
@@ -3289,7 +3295,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>163</v>
       </c>
@@ -3300,7 +3306,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>163</v>
       </c>
@@ -3311,7 +3317,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>163</v>
       </c>
@@ -3322,7 +3328,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>163</v>
       </c>
@@ -3333,7 +3339,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>163</v>
       </c>
@@ -3344,7 +3350,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>163</v>
       </c>
@@ -3355,7 +3361,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>69</v>
       </c>
@@ -3363,7 +3369,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>8</v>
       </c>
@@ -3383,7 +3389,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>8</v>
       </c>
@@ -3403,7 +3409,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>8</v>
       </c>
@@ -3423,7 +3429,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>8</v>
       </c>
@@ -3437,7 +3443,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
         <v>8</v>
       </c>
@@ -3457,7 +3463,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>8</v>
       </c>
@@ -3477,7 +3483,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>163</v>
       </c>
@@ -3494,7 +3500,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>163</v>
       </c>
@@ -3511,7 +3517,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>24</v>
       </c>
@@ -3525,7 +3531,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>44</v>
       </c>
@@ -3542,7 +3548,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>47</v>
       </c>
@@ -3565,7 +3571,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
         <v>47</v>
       </c>
@@ -3585,7 +3591,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
         <v>44</v>
       </c>
@@ -3602,7 +3608,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
         <v>44</v>
       </c>
@@ -3617,6 +3623,22 @@
       </c>
       <c r="E143" t="s">
         <v>294</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A144" t="s">
+        <v>69</v>
+      </c>
+      <c r="B144" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145" t="s">
+        <v>69</v>
+      </c>
+      <c r="B145" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/cv_data/cv_entries.xlsx
+++ b/cv_data/cv_entries.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cclan\OneDrive\GitHub\ccl_cv\cv_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cl948\OneDrive\GitHub\ccl_cv\cv_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F804945C-245F-4163-8F37-160C71F7D09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E174210-476A-4138-ADDF-3429B85B632D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
+    <workbookView xWindow="57480" yWindow="7980" windowWidth="29040" windowHeight="15720" xr2:uid="{1BC556AC-FD23-42AD-A032-D140D4FFE02B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="299">
   <si>
     <t>type</t>
   </si>
@@ -916,6 +916,12 @@
   </si>
   <si>
     <t>Journal of Developmental and Life-Course Criminology</t>
+  </si>
+  <si>
+    <t>2026</t>
+  </si>
+  <si>
+    <t>Associate Professor</t>
   </si>
 </sst>
 </file>
@@ -1309,23 +1315,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2160BC3-6F18-4DB0-8375-6EA2E4BCFED4}">
-  <dimension ref="A1:H145"/>
+  <dimension ref="A1:H146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="B146" sqref="B146"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="B147" sqref="B147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.7890625" customWidth="1"/>
-    <col min="2" max="2" width="57.5234375" customWidth="1"/>
-    <col min="3" max="4" width="9.15625" style="5"/>
-    <col min="5" max="5" width="42.5234375" customWidth="1"/>
-    <col min="6" max="6" width="43.26171875" customWidth="1"/>
-    <col min="7" max="7" width="10.62890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.81640625" customWidth="1"/>
+    <col min="2" max="2" width="57.54296875" customWidth="1"/>
+    <col min="3" max="4" width="9.1796875" style="5"/>
+    <col min="5" max="5" width="42.54296875" customWidth="1"/>
+    <col min="6" max="6" width="43.26953125" customWidth="1"/>
+    <col min="7" max="7" width="10.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1351,7 +1357,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1368,7 +1374,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -1388,7 +1394,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1408,7 +1414,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1428,7 +1434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1448,7 +1454,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1468,7 +1474,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1491,7 +1497,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1514,7 +1520,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1531,7 +1537,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1548,7 +1554,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1565,7 +1571,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1579,7 +1585,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1596,7 +1602,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1613,7 +1619,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1627,7 +1633,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1641,7 +1647,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1658,7 +1664,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1675,7 +1681,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1692,7 +1698,7 @@
         <v>42690</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1709,7 +1715,7 @@
         <v>42460</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1726,7 +1732,7 @@
         <v>41963</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1743,7 +1749,7 @@
         <v>41661</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1760,7 +1766,7 @@
         <v>42459</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1780,7 +1786,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -1800,7 +1806,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -1820,7 +1826,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -1837,7 +1843,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -1854,7 +1860,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -1871,7 +1877,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -1888,7 +1894,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -1905,7 +1911,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -1922,7 +1928,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -1939,7 +1945,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -1956,7 +1962,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -1973,7 +1979,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>69</v>
       </c>
@@ -1982,7 +1988,7 @@
       </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -1996,7 +2002,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>71</v>
       </c>
@@ -2013,7 +2019,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -2033,7 +2039,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -2050,7 +2056,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -2064,7 +2070,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -2084,7 +2090,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -2104,7 +2110,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -2121,7 +2127,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -2138,7 +2144,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -2155,7 +2161,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -2175,7 +2181,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -2195,7 +2201,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -2209,7 +2215,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>163</v>
       </c>
@@ -2226,7 +2232,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -2243,7 +2249,7 @@
         <v>43481</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -2260,7 +2266,7 @@
         <v>42603</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -2277,7 +2283,7 @@
         <v>42602</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -2294,7 +2300,7 @@
         <v>44151</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>102</v>
       </c>
@@ -2311,7 +2317,7 @@
         <v>43398</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>91</v>
       </c>
@@ -2331,7 +2337,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -2351,7 +2357,7 @@
         <v>43735</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -2359,7 +2365,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -2367,7 +2373,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>69</v>
       </c>
@@ -2375,7 +2381,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>35</v>
       </c>
@@ -2395,7 +2401,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -2412,7 +2418,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>129</v>
       </c>
@@ -2429,7 +2435,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -2446,7 +2452,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>35</v>
       </c>
@@ -2466,7 +2472,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -2474,7 +2480,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>129</v>
       </c>
@@ -2485,13 +2491,13 @@
         <v>134</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>53</v>
+        <v>297</v>
       </c>
       <c r="E68" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>175</v>
       </c>
@@ -2508,7 +2514,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>23</v>
       </c>
@@ -2522,7 +2528,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -2530,7 +2536,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>47</v>
       </c>
@@ -2553,7 +2559,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>47</v>
       </c>
@@ -2576,7 +2582,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -2593,7 +2599,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -2610,7 +2616,7 @@
         <v>44883</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -2627,7 +2633,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>69</v>
       </c>
@@ -2635,7 +2641,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>69</v>
       </c>
@@ -2643,7 +2649,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>35</v>
       </c>
@@ -2663,7 +2669,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>69</v>
       </c>
@@ -2671,7 +2677,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>35</v>
       </c>
@@ -2688,7 +2694,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>163</v>
       </c>
@@ -2705,7 +2711,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>163</v>
       </c>
@@ -2722,7 +2728,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>163</v>
       </c>
@@ -2739,7 +2745,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>163</v>
       </c>
@@ -2756,7 +2762,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>163</v>
       </c>
@@ -2773,7 +2779,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>44</v>
       </c>
@@ -2790,7 +2796,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>44</v>
       </c>
@@ -2807,7 +2813,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>175</v>
       </c>
@@ -2824,7 +2830,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>69</v>
       </c>
@@ -2832,7 +2838,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>69</v>
       </c>
@@ -2840,7 +2846,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -2860,7 +2866,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -2880,7 +2886,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>35</v>
       </c>
@@ -2900,7 +2906,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>35</v>
       </c>
@@ -2917,7 +2923,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>69</v>
       </c>
@@ -2925,7 +2931,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>69</v>
       </c>
@@ -2933,7 +2939,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -2953,7 +2959,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>8</v>
       </c>
@@ -2973,7 +2979,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>8</v>
       </c>
@@ -2993,7 +2999,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>8</v>
       </c>
@@ -3013,7 +3019,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>8</v>
       </c>
@@ -3033,7 +3039,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>163</v>
       </c>
@@ -3050,7 +3056,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>35</v>
       </c>
@@ -3067,7 +3073,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>69</v>
       </c>
@@ -3075,7 +3081,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>8</v>
       </c>
@@ -3095,7 +3101,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>8</v>
       </c>
@@ -3115,7 +3121,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>69</v>
       </c>
@@ -3123,7 +3129,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>69</v>
       </c>
@@ -3131,7 +3137,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>69</v>
       </c>
@@ -3139,7 +3145,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>44</v>
       </c>
@@ -3153,7 +3159,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>8</v>
       </c>
@@ -3173,7 +3179,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>69</v>
       </c>
@@ -3181,7 +3187,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>175</v>
       </c>
@@ -3192,7 +3198,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>69</v>
       </c>
@@ -3200,7 +3206,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>8</v>
       </c>
@@ -3220,7 +3226,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>69</v>
       </c>
@@ -3228,7 +3234,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>8</v>
       </c>
@@ -3248,7 +3254,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>69</v>
       </c>
@@ -3256,7 +3262,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>44</v>
       </c>
@@ -3273,7 +3279,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>163</v>
       </c>
@@ -3284,7 +3290,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>163</v>
       </c>
@@ -3295,7 +3301,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>163</v>
       </c>
@@ -3306,7 +3312,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>163</v>
       </c>
@@ -3317,7 +3323,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>163</v>
       </c>
@@ -3328,7 +3334,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>163</v>
       </c>
@@ -3339,7 +3345,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>163</v>
       </c>
@@ -3350,7 +3356,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>163</v>
       </c>
@@ -3361,7 +3367,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>69</v>
       </c>
@@ -3369,7 +3375,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>8</v>
       </c>
@@ -3389,7 +3395,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>8</v>
       </c>
@@ -3409,7 +3415,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>8</v>
       </c>
@@ -3429,7 +3435,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>8</v>
       </c>
@@ -3443,7 +3449,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>8</v>
       </c>
@@ -3463,7 +3469,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>8</v>
       </c>
@@ -3483,7 +3489,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>163</v>
       </c>
@@ -3500,7 +3506,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>163</v>
       </c>
@@ -3517,7 +3523,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>24</v>
       </c>
@@ -3531,7 +3537,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>44</v>
       </c>
@@ -3548,7 +3554,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>47</v>
       </c>
@@ -3571,7 +3577,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>47</v>
       </c>
@@ -3591,7 +3597,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>44</v>
       </c>
@@ -3608,7 +3614,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>44</v>
       </c>
@@ -3625,7 +3631,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>69</v>
       </c>
@@ -3633,12 +3639,29 @@
         <v>295</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>69</v>
       </c>
       <c r="B145" t="s">
         <v>296</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>129</v>
+      </c>
+      <c r="B146" t="s">
+        <v>298</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E146" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
